--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="198">
   <si>
     <t>Doi</t>
   </si>
@@ -765,6 +765,106 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,       Yongran%Wu%NULL%1,       Fangfang%Zhu%NULL%1,       Xiaobo%Yang%NULL%1,       Chaolin%Huang%NULL%1,       Guo%Hou%NULL%1,       Wenhao%Xu%NULL%1,       Ming%Hu%NULL%1,       Lu%Zhang%NULL%1,       Aiguo%Cheng%NULL%1,       Zhengqin%Xu%NULL%1,       Boyi%Liu%NULL%1,       Song%Hu%NULL%1,       Guochao%Zhu%NULL%1,       Xuepeng%Fan%NULL%1,       Xijing%Zhang%NULL%1,       Yadong%Yang%NULL%1,       Huibin%Feng%NULL%1,       Lixia%Yu%NULL%1,       Bing%Wang%NULL%1,       Zhiqiang%Li%NULL%1,       Yong%Peng%NULL%1,       Zubo%Shen%NULL%1,       Shouzhi%Fu%NULL%1,       Yaqi%Ouyang%NULL%1,       Jiqian%Xu%NULL%1,       Xiaojing%Zou%NULL%1,       Minghao%Fang%NULL%1,       Zhui%Yu%NULL%1,       Bo%Hu%NULL%1,       You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
+ Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
+ The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
+Methods
+id="Par2"&gt;A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
+ Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
+Results
+id="Par3"&gt;The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
+ The overall mortality of patients admitted to ICU was 53%.
+ The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
+ At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
+ No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
+Conclusion
+id="Par4"&gt;We suggest to wait at least 14 days to perform tracheostomy.
+ In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
+ Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,        P.%Stritoni%NULL%1,        I.%Battel%NULL%1,        B.%Zennaro%NULL%1,        F.%Lazzari%NULL%1,        M.%Bellin%NULL%1,        L.%Michieletto%NULL%1,        G.%Spinato%NULL%1,        C.%Busatto%NULL%1,        D.%Politi%NULL%1,        R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>Tracheostomy is performed for critically ill patients with prolonged endotracheal intubation including COVID-19 to mitigate the risk of airway complications.
+ We analyzed the difference in mortality of COVID-19 patients undergoing early tracheostomy within 14 days of intubation compared to later tracheostomy than 14 days after intubation.
+ The mortality was not significantly higher in early tracheostomy compared to later tracheostomy</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,        Yoshihisa%Miyamoto%NULL%1,        Matsuo%So%NULL%1,        Masao%Iwagami%NULL%1,        Mai%Takahashi%NULL%1,        Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
+ Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
+ The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
+Methods
+A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
+ Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
+Results
+id="Par3"&gt;The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
+ The overall mortality of patients admitted to ICU was 53%.
+ The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
+ At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
+ No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
+Conclusion
+id="Par4"&gt;We suggest to wait at least 14 days to perform tracheostomy.
+ In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
+ Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,         P.%Stritoni%NULL%1,         I.%Battel%NULL%1,         B.%Zennaro%NULL%1,         F.%Lazzari%NULL%1,         M.%Bellin%NULL%1,         L.%Michieletto%NULL%1,         G.%Spinato%NULL%1,         C.%Busatto%NULL%1,         D.%Politi%NULL%1,         R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
+ Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
+ The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
+Methods
+A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
+ Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
+Results
+The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
+ The overall mortality of patients admitted to ICU was 53%.
+ The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
+ At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
+ No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
+Conclusion
+id="Par4"&gt;We suggest to wait at least 14 days to perform tracheostomy.
+ In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
+ Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,          P.%Stritoni%NULL%1,          I.%Battel%NULL%1,          B.%Zennaro%NULL%1,          F.%Lazzari%NULL%1,          M.%Bellin%NULL%1,          L.%Michieletto%NULL%1,          G.%Spinato%NULL%1,          C.%Busatto%NULL%1,          D.%Politi%NULL%1,          R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
+ Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
+ The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
+Methods
+A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
+ Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
+Results
+The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
+ The overall mortality of patients admitted to ICU was 53%.
+ The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
+ At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
+ No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
+Conclusion
+We suggest to wait at least 14 days to perform tracheostomy.
+ In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
+ Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,           P.%Stritoni%NULL%1,           I.%Battel%NULL%1,           B.%Zennaro%NULL%1,           F.%Lazzari%NULL%1,           M.%Bellin%NULL%1,           L.%Michieletto%NULL%1,           G.%Spinato%NULL%1,           C.%Busatto%NULL%1,           D.%Politi%NULL%1,           R.%Spinato%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1305,10 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1309,10 +1409,10 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="188">
   <si>
     <t>Doi</t>
   </si>
@@ -765,106 +765,6 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,       Yongran%Wu%NULL%1,       Fangfang%Zhu%NULL%1,       Xiaobo%Yang%NULL%1,       Chaolin%Huang%NULL%1,       Guo%Hou%NULL%1,       Wenhao%Xu%NULL%1,       Ming%Hu%NULL%1,       Lu%Zhang%NULL%1,       Aiguo%Cheng%NULL%1,       Zhengqin%Xu%NULL%1,       Boyi%Liu%NULL%1,       Song%Hu%NULL%1,       Guochao%Zhu%NULL%1,       Xuepeng%Fan%NULL%1,       Xijing%Zhang%NULL%1,       Yadong%Yang%NULL%1,       Huibin%Feng%NULL%1,       Lixia%Yu%NULL%1,       Bing%Wang%NULL%1,       Zhiqiang%Li%NULL%1,       Yong%Peng%NULL%1,       Zubo%Shen%NULL%1,       Shouzhi%Fu%NULL%1,       Yaqi%Ouyang%NULL%1,       Jiqian%Xu%NULL%1,       Xiaojing%Zou%NULL%1,       Minghao%Fang%NULL%1,       Zhui%Yu%NULL%1,       Bo%Hu%NULL%1,       You%Shang%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
- Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
- The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
-Methods
-id="Par2"&gt;A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
- Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
-Results
-id="Par3"&gt;The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
- The overall mortality of patients admitted to ICU was 53%.
- The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
- At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
- No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
-Conclusion
-id="Par4"&gt;We suggest to wait at least 14 days to perform tracheostomy.
- In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
- Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
-</t>
-  </si>
-  <si>
-    <t>[T.%Volo%tizianavolo@icloud.com%1,        P.%Stritoni%NULL%1,        I.%Battel%NULL%1,        B.%Zennaro%NULL%1,        F.%Lazzari%NULL%1,        M.%Bellin%NULL%1,        L.%Michieletto%NULL%1,        G.%Spinato%NULL%1,        C.%Busatto%NULL%1,        D.%Politi%NULL%1,        R.%Spinato%NULL%1]</t>
-  </si>
-  <si>
-    <t>Tracheostomy is performed for critically ill patients with prolonged endotracheal intubation including COVID-19 to mitigate the risk of airway complications.
- We analyzed the difference in mortality of COVID-19 patients undergoing early tracheostomy within 14 days of intubation compared to later tracheostomy than 14 days after intubation.
- The mortality was not significantly higher in early tracheostomy compared to later tracheostomy</t>
-  </si>
-  <si>
-    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,        Yoshihisa%Miyamoto%NULL%1,        Matsuo%So%NULL%1,        Masao%Iwagami%NULL%1,        Mai%Takahashi%NULL%1,        Natalia N.%Egorova%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
- Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
- The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
-Methods
-A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
- Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
-Results
-id="Par3"&gt;The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
- The overall mortality of patients admitted to ICU was 53%.
- The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
- At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
- No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
-Conclusion
-id="Par4"&gt;We suggest to wait at least 14 days to perform tracheostomy.
- In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
- Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
-</t>
-  </si>
-  <si>
-    <t>[T.%Volo%tizianavolo@icloud.com%1,         P.%Stritoni%NULL%1,         I.%Battel%NULL%1,         B.%Zennaro%NULL%1,         F.%Lazzari%NULL%1,         M.%Bellin%NULL%1,         L.%Michieletto%NULL%1,         G.%Spinato%NULL%1,         C.%Busatto%NULL%1,         D.%Politi%NULL%1,         R.%Spinato%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
- Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
- The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
-Methods
-A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
- Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
-Results
-The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
- The overall mortality of patients admitted to ICU was 53%.
- The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
- At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
- No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
-Conclusion
-id="Par4"&gt;We suggest to wait at least 14 days to perform tracheostomy.
- In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
- Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
-</t>
-  </si>
-  <si>
-    <t>[T.%Volo%tizianavolo@icloud.com%1,          P.%Stritoni%NULL%1,          I.%Battel%NULL%1,          B.%Zennaro%NULL%1,          F.%Lazzari%NULL%1,          M.%Bellin%NULL%1,          L.%Michieletto%NULL%1,          G.%Spinato%NULL%1,          C.%Busatto%NULL%1,          D.%Politi%NULL%1,          R.%Spinato%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
- Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
- The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
-Methods
-A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
- Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
-Results
-The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
- The overall mortality of patients admitted to ICU was 53%.
- The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
- At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
- No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
-Conclusion
-We suggest to wait at least 14 days to perform tracheostomy.
- In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
- Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
-</t>
-  </si>
-  <si>
-    <t>[T.%Volo%tizianavolo@icloud.com%1,           P.%Stritoni%NULL%1,           I.%Battel%NULL%1,           B.%Zennaro%NULL%1,           F.%Lazzari%NULL%1,           M.%Bellin%NULL%1,           L.%Michieletto%NULL%1,           G.%Spinato%NULL%1,           C.%Busatto%NULL%1,           D.%Politi%NULL%1,           R.%Spinato%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1205,10 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1409,10 +1309,10 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="202">
   <si>
     <t>Doi</t>
   </si>
@@ -765,6 +765,48 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,       Yongran%Wu%NULL%1,       Fangfang%Zhu%NULL%1,       Xiaobo%Yang%NULL%1,       Chaolin%Huang%NULL%1,       Guo%Hou%NULL%1,       Wenhao%Xu%NULL%1,       Ming%Hu%NULL%1,       Lu%Zhang%NULL%1,       Aiguo%Cheng%NULL%1,       Zhengqin%Xu%NULL%1,       Boyi%Liu%NULL%1,       Song%Hu%NULL%1,       Guochao%Zhu%NULL%1,       Xuepeng%Fan%NULL%1,       Xijing%Zhang%NULL%1,       Yadong%Yang%NULL%1,       Huibin%Feng%NULL%1,       Lixia%Yu%NULL%1,       Bing%Wang%NULL%1,       Zhiqiang%Li%NULL%1,       Yong%Peng%NULL%1,       Zubo%Shen%NULL%1,       Shouzhi%Fu%NULL%1,       Yaqi%Ouyang%NULL%1,       Jiqian%Xu%NULL%1,       Xiaojing%Zou%NULL%1,       Minghao%Fang%NULL%1,       Zhui%Yu%NULL%1,       Bo%Hu%NULL%1,       You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,        Jakub%Fronczek%NULL%1,        Peter Vernon%van Heerden%NULL%1,        Hans%Flaatten%NULL%1,        Bertrand%Guidet%NULL%1,        Dylan W.%De Lange%NULL%1,        Jesper%Fjølner%NULL%1,        Susannah%Leaver%NULL%1,        Michael%Beil%NULL%1,        Sigal%Sviri%NULL%1,        Raphael Romano%Bruno%NULL%1,        Bernhard%Wernly%NULL%1,        Antonio%Artigas%NULL%1,        Bernardo Bollen%Pinto%NULL%1,        Joerg C.%Schefold%NULL%1,        Dorota%Studzińska%NULL%1,        Michael%Joannidis%NULL%1,        Sandra%Oeyen%NULL%1,        Brian%Marsh%NULL%1,        Finn H.%Andersen%NULL%1,        Rui%Moreno%NULL%1,        Maurizio%Cecconi%NULL%1,        Christian%Jung%NULL%1,        Wojciech%Szczeklik%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,        Marc%Tobed%NULL%1,        José Miguel%Villacampa%NULL%1,        Adriana%Agüero%NULL%1,        Clara%García‐Bastida%NULL%1,        José Ignacio%Tato%NULL%1,        Laura%Rodrigáñez%NULL%1,        Victoria Duque%Holguera%NULL%1,        Estefanía%Hernández‐García%NULL%1,        Daniel%Poletti%NULL%1,        Gabriela%Simonetti%NULL%1,        Vanessa%Villarraga%NULL%1,        Carla%Meler‐Claramonte%NULL%1,        Álvaro%Sánchez Barrueco%NULL%1,        Carlos%Chiesa‐Estomba%NULL%1,        Maria%Casasayas%NULL%1,        Pablo%Parente‐Arias%NULL%1,        Nieves%Mata‐Castro%NULL%1,        Jordi%Rello%NULL%1,        Pedro%Castro%NULL%1,        Daniel%Prieto‐Alhambra%NULL%1,        Isabel%Vilaseca%NULL%1,        Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,        P.%Stritoni%NULL%1,        I.%Battel%NULL%1,        B.%Zennaro%NULL%1,        F.%Lazzari%NULL%1,        M.%Bellin%NULL%1,        L.%Michieletto%NULL%1,        G.%Spinato%NULL%1,        C.%Busatto%NULL%1,        D.%Politi%NULL%1,        R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,        Francesco%Missale%NULL%1,        Irene%Schiavetti%NULL%1,        Marta%Filauro%NULL%1,        Francesca%Iannuzzi%NULL%1,        Alessandro%Ascoli%NULL%1,        Alberto%Bertazzoli%NULL%1,        Federico%Pascucci%NULL%1,        Salvatore%Grasso%NULL%1,        Francesco%Murgolo%NULL%1,        Simone%Binda%NULL%1,        Davide%Maraggia%NULL%1,        Giorgia%Montrucchio%NULL%1,        Gabriele%Sales%NULL%1,        Giuseppe%Pascarella%NULL%1,        Felice Eugenio%Agrò%NULL%1,        Gaia%Faccio%NULL%1,        Sandra%Ferraris%NULL%1,        Savino%Spadaro%NULL%1,        Giulia%Falò%NULL%1,        Nadia%Mereto%NULL%1,        Alessandro%Uva%NULL%1,        Jessica Giuseppina%Maugeri%NULL%1,        Bellissima%Agrippino%NULL%1,        Maria%Vargas%NULL%1,        Giuseppe%Servillo%NULL%1,        Chiara%Robba%NULL%1,        Lorenzo%Ball%NULL%1,        Francesco%Mora%NULL%1,        Alessio%Signori%NULL%1,        Antoni%Torres%NULL%1,        Daniele Roberto%Giacobbe%NULL%1,        Antonio%Vena%NULL%1,        Matteo%Bassetti%NULL%1,        Giorgio%Peretti%NULL%1,        Patricia R. M.%Rocco%NULL%1,        Paolo%Pelosi%NULL%1,        Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,        Paul%Nankivell%NULL%1,        Neil%Sharma%NULL%1,        Mansoor N.%Bangash%NULL%1,        Camilla%Dawson%NULL%1,        Matthew%Idle%NULL%1,        Peter%Isherwood%NULL%1,        Christopher%Jennings%NULL%1,        Damian%Keene%NULL%1,        Mav%Manji%NULL%1,        Tim%Martin%NULL%1,        Rob%Moss%NULL%1,        Nick%Murphy%NULL%1,        Dhruv%Parekh%NULL%1,        Sat%Parmar%NULL%1,        Jaimin%Patel%NULL%1,        Paul%Pracy%NULL%1,        Prav%Praveen%NULL%1,        Carla%Richardson%NULL%1,        Alex%Richter%NULL%1,        Rajneesh%Sachdeva%NULL%1,        Adrian%Shields%NULL%1,        Somiah%Siddiq%NULL%1,        Simon%Smart%NULL%1,        Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,        Yoshihisa%Miyamoto%NULL%1,        Matsuo%So%NULL%1,        Masao%Iwagami%NULL%1,        Mai%Takahashi%NULL%1,        Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,        George Z.%Cheng%NULL%1,        Keriann%Van Nostrand%NULL%1,        Samira%Shojaee%NULL%1,        Max T.%Wayne%NULL%1,        Matthew%Abbott%NULL%1,        Darrell%Nettlow%NULL%1,        Alice%Parish%NULL%1,        Cynthia L.%Green%NULL%1,        Javeryah%Safi%NULL%1,        Michael J.%Brenner%NULL%1,        Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,        C%Tornari%NULL%1,        N%Amin%NULL%1,        D%Wyncoll%NULL%1,        S%Tricklebank%NULL%1,        A%Arora%NULL%1,        I%Ahmad%NULL%1,        R%Simo%NULL%1,        P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,        Yongran%Wu%NULL%1,        Fangfang%Zhu%NULL%1,        Xiaobo%Yang%NULL%1,        Chaolin%Huang%NULL%1,        Guo%Hou%NULL%1,        Wenhao%Xu%NULL%1,        Ming%Hu%NULL%1,        Lu%Zhang%NULL%1,        Aiguo%Cheng%NULL%1,        Zhengqin%Xu%NULL%1,        Boyi%Liu%NULL%1,        Song%Hu%NULL%1,        Guochao%Zhu%NULL%1,        Xuepeng%Fan%NULL%1,        Xijing%Zhang%NULL%1,        Yadong%Yang%NULL%1,        Huibin%Feng%NULL%1,        Lixia%Yu%NULL%1,        Bing%Wang%NULL%1,        Zhiqiang%Li%NULL%1,        Yong%Peng%NULL%1,        Zubo%Shen%NULL%1,        Shouzhi%Fu%NULL%1,        Yaqi%Ouyang%NULL%1,        Jiqian%Xu%NULL%1,        Xiaojing%Zou%NULL%1,        Minghao%Fang%NULL%1,        Zhui%Yu%NULL%1,        Bo%Hu%NULL%1,        You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1089,6 +1131,9 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
+      <c r="I1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1115,6 +1160,9 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
+      <c r="I2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1141,6 +1189,9 @@
       <c r="H3" t="s">
         <v>25</v>
       </c>
+      <c r="I3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1156,7 +1207,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1166,6 +1217,9 @@
       </c>
       <c r="H4" t="s">
         <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1236,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1192,6 +1246,9 @@
       </c>
       <c r="H5" t="s">
         <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6">
@@ -1208,7 +1265,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1218,6 +1275,9 @@
       </c>
       <c r="H6" t="s">
         <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -1245,6 +1305,9 @@
       <c r="H7" t="s">
         <v>25</v>
       </c>
+      <c r="I7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
@@ -1260,7 +1323,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1270,6 +1333,9 @@
       </c>
       <c r="H8" t="s">
         <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -1286,7 +1352,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1296,6 +1362,9 @@
       </c>
       <c r="H9" t="s">
         <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1381,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1322,6 +1391,9 @@
       </c>
       <c r="H10" t="s">
         <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11">
@@ -1338,7 +1410,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1348,6 +1420,9 @@
       </c>
       <c r="H11" t="s">
         <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="12">
@@ -1364,7 +1439,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1374,6 +1449,9 @@
       </c>
       <c r="H12" t="s">
         <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13">
@@ -1390,7 +1468,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>
@@ -1400,6 +1478,9 @@
       </c>
       <c r="H13" t="s">
         <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="245">
   <si>
     <t>Doi</t>
   </si>
@@ -807,6 +807,153 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,        Yongran%Wu%NULL%1,        Fangfang%Zhu%NULL%1,        Xiaobo%Yang%NULL%1,        Chaolin%Huang%NULL%1,        Guo%Hou%NULL%1,        Wenhao%Xu%NULL%1,        Ming%Hu%NULL%1,        Lu%Zhang%NULL%1,        Aiguo%Cheng%NULL%1,        Zhengqin%Xu%NULL%1,        Boyi%Liu%NULL%1,        Song%Hu%NULL%1,        Guochao%Zhu%NULL%1,        Xuepeng%Fan%NULL%1,        Xijing%Zhang%NULL%1,        Yadong%Yang%NULL%1,        Huibin%Feng%NULL%1,        Lixia%Yu%NULL%1,        Bing%Wang%NULL%1,        Zhiqiang%Li%NULL%1,        Yong%Peng%NULL%1,        Zubo%Shen%NULL%1,        Shouzhi%Fu%NULL%1,        Yaqi%Ouyang%NULL%1,        Jiqian%Xu%NULL%1,        Xiaojing%Zou%NULL%1,        Minghao%Fang%NULL%1,        Zhui%Yu%NULL%1,        Bo%Hu%NULL%1,        You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Timing, complications, and safety of tracheotomy in critically ill patients with COVID-19</t>
+  </si>
+  <si>
+    <t>Importance: The current coronavirus disease 2019 (COVID-19) pandemic has led to unprecedented needs for invasive ventilation, with 10% to 15% of intubated patients subsequently requiring tracheotomy.
+\n\nObjective: To assess the complications, safety, and timing of tracheotomy performed for critically ill patients with COVID-19.\n\nDesign, Setting, and Participants: This prospective cohort study assessed consecutive patients admitted to the intensive care unit (ICU) who had COVID-19 that required tracheotomy.
+ Patients were recruited from March 16 to April 10, 2020, at a tertiary referral center.
+\n\nExposures: A surgical tracheotomy was performed for all patients following recommended criteria for use of personal protective equipment (PPE).
+\n\nMain Outcomes and Measures: The number of subthyroid operations, the tracheal entrance protocol, and use of PPE.
+ Infections among the surgeons were monitored weekly by reverse-transcriptase polymerase chain reaction of nasopharyngeal swab samples.
+ Short-term complications, weaning, and the association of timing of tracheotomy (early [\u226410 days] vs late [\u003E10 days]) with total required days of invasive ventilation were assessed.
+\n\nResults: A total of 50 patients (mean [SD] age, 63.8 [9.2] years; 33 [66%] male) participated in the study.
+ All tracheotomies were performed at the bedside.
+ The median time from intubation to tracheotomy was 9 days (interquartile range, 2-24 days).
+ A subthyroid approach was completed for 46 patients (92%), and the tracheal protocol was adequately achieved for 40 patients (80%).
+ Adequate PPE was used, with no infection among surgeons identified 4 weeks after the last tracheotomy.
+ Postoperative complications were rare, with minor bleeding (in 6 patients [12%]) being the most common complication.
+ The successful weaning rate was higher in the early tracheotomy group than in the late tracheotomy group (adjusted hazard ratio, 2.55; 95% CI, 0.96-6.75), but the difference was not statistically significant.
+ There was less time of invasive mechanical ventilatory support with early tracheotomy compared with late tracheotomy (mean [SD], 18 [5.4] vs 22.3 [5.7] days).
+ The reduction of invasive ventilatory support was achieved at the expense of the pretracheotomy period.
+\n\nConclusions and Relevance: In this cohort study, with the use of a standardized protocol aimed at minimizing COVID-19 risks, bedside open tracheotomy was a safe procedure for patients and surgeons, with minimal complications.
+ Timing of tracheotomy may be important in reducing time of invasive mechanical ventilation, with potential implications to intensive care unit availability during the COVID-19 pandemic.
+\u003C\/p</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1, Arancibia%C%coreGivesNoEmail%1, Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1, Bernal-Sprekelsen%M%coreGivesNoEmail%1, Castro%P%coreGivesNoEmail%1, de%Oss\u00f3 J%coreGivesNoEmail%1, Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1, Guilemany%JM%coreGivesNoEmail%1, Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1, Langdon%C%coreGivesNoEmail%1, Larrosa%F%coreGivesNoEmail%1, Lehrer-Coriat%E%coreGivesNoEmail%1, L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1, Prieto%Alhambra D%coreGivesNoEmail%1, Remacha%J%coreGivesNoEmail%1, Ruiz-Sevilla%L%coreGivesNoEmail%1, S\u00e1nchez%I%coreGivesNoEmail%1, Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,         Jakub%Fronczek%NULL%1,         Peter Vernon%van Heerden%NULL%1,         Hans%Flaatten%NULL%1,         Bertrand%Guidet%NULL%1,         Dylan W.%De Lange%NULL%1,         Jesper%Fjølner%NULL%1,         Susannah%Leaver%NULL%1,         Michael%Beil%NULL%1,         Sigal%Sviri%NULL%1,         Raphael Romano%Bruno%NULL%1,         Bernhard%Wernly%NULL%1,         Antonio%Artigas%NULL%1,         Bernardo Bollen%Pinto%NULL%1,         Joerg C.%Schefold%NULL%1,         Dorota%Studzińska%NULL%1,         Michael%Joannidis%NULL%1,         Sandra%Oeyen%NULL%1,         Brian%Marsh%NULL%1,         Finn H.%Andersen%NULL%1,         Rui%Moreno%NULL%1,         Maurizio%Cecconi%NULL%1,         Christian%Jung%NULL%1,         Wojciech%Szczeklik%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,         Marc%Tobed%NULL%1,         José Miguel%Villacampa%NULL%1,         Adriana%Agüero%NULL%1,         Clara%García‐Bastida%NULL%1,         José Ignacio%Tato%NULL%1,         Laura%Rodrigáñez%NULL%1,         Victoria Duque%Holguera%NULL%1,         Estefanía%Hernández‐García%NULL%1,         Daniel%Poletti%NULL%1,         Gabriela%Simonetti%NULL%1,         Vanessa%Villarraga%NULL%1,         Carla%Meler‐Claramonte%NULL%1,         Álvaro%Sánchez Barrueco%NULL%1,         Carlos%Chiesa‐Estomba%NULL%1,         Maria%Casasayas%NULL%1,         Pablo%Parente‐Arias%NULL%1,         Nieves%Mata‐Castro%NULL%1,         Jordi%Rello%NULL%1,         Pedro%Castro%NULL%1,         Daniel%Prieto‐Alhambra%NULL%1,         Isabel%Vilaseca%NULL%1,         Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,         P.%Stritoni%NULL%1,         I.%Battel%NULL%1,         B.%Zennaro%NULL%1,         F.%Lazzari%NULL%1,         M.%Bellin%NULL%1,         L.%Michieletto%NULL%1,         G.%Spinato%NULL%1,         C.%Busatto%NULL%1,         D.%Politi%NULL%1,         R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,         Francesco%Missale%NULL%1,         Irene%Schiavetti%NULL%1,         Marta%Filauro%NULL%1,         Francesca%Iannuzzi%NULL%1,         Alessandro%Ascoli%NULL%1,         Alberto%Bertazzoli%NULL%1,         Federico%Pascucci%NULL%1,         Salvatore%Grasso%NULL%1,         Francesco%Murgolo%NULL%1,         Simone%Binda%NULL%1,         Davide%Maraggia%NULL%1,         Giorgia%Montrucchio%NULL%1,         Gabriele%Sales%NULL%1,         Giuseppe%Pascarella%NULL%1,         Felice Eugenio%Agrò%NULL%1,         Gaia%Faccio%NULL%1,         Sandra%Ferraris%NULL%1,         Savino%Spadaro%NULL%1,         Giulia%Falò%NULL%1,         Nadia%Mereto%NULL%1,         Alessandro%Uva%NULL%1,         Jessica Giuseppina%Maugeri%NULL%1,         Bellissima%Agrippino%NULL%1,         Maria%Vargas%NULL%1,         Giuseppe%Servillo%NULL%1,         Chiara%Robba%NULL%1,         Lorenzo%Ball%NULL%1,         Francesco%Mora%NULL%1,         Alessio%Signori%NULL%1,         Antoni%Torres%NULL%1,         Daniele Roberto%Giacobbe%NULL%1,         Antonio%Vena%NULL%1,         Matteo%Bassetti%NULL%1,         Giorgio%Peretti%NULL%1,         Patricia R. M.%Rocco%NULL%1,         Paolo%Pelosi%NULL%1,         Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,         Paul%Nankivell%NULL%1,         Neil%Sharma%NULL%1,         Mansoor N.%Bangash%NULL%1,         Camilla%Dawson%NULL%1,         Matthew%Idle%NULL%1,         Peter%Isherwood%NULL%1,         Christopher%Jennings%NULL%1,         Damian%Keene%NULL%1,         Mav%Manji%NULL%1,         Tim%Martin%NULL%1,         Rob%Moss%NULL%1,         Nick%Murphy%NULL%1,         Dhruv%Parekh%NULL%1,         Sat%Parmar%NULL%1,         Jaimin%Patel%NULL%1,         Paul%Pracy%NULL%1,         Prav%Praveen%NULL%1,         Carla%Richardson%NULL%1,         Alex%Richter%NULL%1,         Rajneesh%Sachdeva%NULL%1,         Adrian%Shields%NULL%1,         Somiah%Siddiq%NULL%1,         Simon%Smart%NULL%1,         Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,         Yoshihisa%Miyamoto%NULL%1,         Matsuo%So%NULL%1,         Masao%Iwagami%NULL%1,         Mai%Takahashi%NULL%1,         Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,         George Z.%Cheng%NULL%1,         Keriann%Van Nostrand%NULL%1,         Samira%Shojaee%NULL%1,         Max T.%Wayne%NULL%1,         Matthew%Abbott%NULL%1,         Darrell%Nettlow%NULL%1,         Alice%Parish%NULL%1,         Cynthia L.%Green%NULL%1,         Javeryah%Safi%NULL%1,         Michael J.%Brenner%NULL%1,         Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,         C%Tornari%NULL%1,         N%Amin%NULL%1,         D%Wyncoll%NULL%1,         S%Tricklebank%NULL%1,         A%Arora%NULL%1,         I%Ahmad%NULL%1,         R%Simo%NULL%1,         P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,         Yongran%Wu%NULL%1,         Fangfang%Zhu%NULL%1,         Xiaobo%Yang%NULL%1,         Chaolin%Huang%NULL%1,         Guo%Hou%NULL%1,         Wenhao%Xu%NULL%1,         Ming%Hu%NULL%1,         Lu%Zhang%NULL%1,         Aiguo%Cheng%NULL%1,         Zhengqin%Xu%NULL%1,         Boyi%Liu%NULL%1,         Song%Hu%NULL%1,         Guochao%Zhu%NULL%1,         Xuepeng%Fan%NULL%1,         Xijing%Zhang%NULL%1,         Yadong%Yang%NULL%1,         Huibin%Feng%NULL%1,         Lixia%Yu%NULL%1,         Bing%Wang%NULL%1,         Zhiqiang%Li%NULL%1,         Yong%Peng%NULL%1,         Zubo%Shen%NULL%1,         Shouzhi%Fu%NULL%1,         Yaqi%Ouyang%NULL%1,         Jiqian%Xu%NULL%1,         Xiaojing%Zou%NULL%1,         Minghao%Fang%NULL%1,         Zhui%Yu%NULL%1,         Bo%Hu%NULL%1,         You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,  Arancibia%C%coreGivesNoEmail%1,  Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,  Bernal-Sprekelsen%M%coreGivesNoEmail%1,  Castro%P%coreGivesNoEmail%1,  de%Oss\u00f3 J%coreGivesNoEmail%1,  Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,  Guilemany%JM%coreGivesNoEmail%1,  Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,  Langdon%C%coreGivesNoEmail%1,  Larrosa%F%coreGivesNoEmail%1,  Lehrer-Coriat%E%coreGivesNoEmail%1,  L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,  Prieto%Alhambra D%coreGivesNoEmail%1,  Remacha%J%coreGivesNoEmail%1,  Ruiz-Sevilla%L%coreGivesNoEmail%1,  S\u00e1nchez%I%coreGivesNoEmail%1,  Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,          Jakub%Fronczek%NULL%1,          Peter Vernon%van Heerden%NULL%1,          Hans%Flaatten%NULL%1,          Bertrand%Guidet%NULL%1,          Dylan W.%De Lange%NULL%1,          Jesper%Fjølner%NULL%1,          Susannah%Leaver%NULL%1,          Michael%Beil%NULL%1,          Sigal%Sviri%NULL%1,          Raphael Romano%Bruno%NULL%1,          Bernhard%Wernly%NULL%1,          Antonio%Artigas%NULL%1,          Bernardo Bollen%Pinto%NULL%1,          Joerg C.%Schefold%NULL%1,          Dorota%Studzińska%NULL%1,          Michael%Joannidis%NULL%1,          Sandra%Oeyen%NULL%1,          Brian%Marsh%NULL%1,          Finn H.%Andersen%NULL%1,          Rui%Moreno%NULL%1,          Maurizio%Cecconi%NULL%1,          Christian%Jung%NULL%1,          Wojciech%Szczeklik%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,          Marc%Tobed%NULL%1,          José Miguel%Villacampa%NULL%1,          Adriana%Agüero%NULL%1,          Clara%García‐Bastida%NULL%1,          José Ignacio%Tato%NULL%1,          Laura%Rodrigáñez%NULL%1,          Victoria Duque%Holguera%NULL%1,          Estefanía%Hernández‐García%NULL%1,          Daniel%Poletti%NULL%1,          Gabriela%Simonetti%NULL%1,          Vanessa%Villarraga%NULL%1,          Carla%Meler‐Claramonte%NULL%1,          Álvaro%Sánchez Barrueco%NULL%1,          Carlos%Chiesa‐Estomba%NULL%1,          Maria%Casasayas%NULL%1,          Pablo%Parente‐Arias%NULL%1,          Nieves%Mata‐Castro%NULL%1,          Jordi%Rello%NULL%1,          Pedro%Castro%NULL%1,          Daniel%Prieto‐Alhambra%NULL%1,          Isabel%Vilaseca%NULL%1,          Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,          P.%Stritoni%NULL%1,          I.%Battel%NULL%1,          B.%Zennaro%NULL%1,          F.%Lazzari%NULL%1,          M.%Bellin%NULL%1,          L.%Michieletto%NULL%1,          G.%Spinato%NULL%1,          C.%Busatto%NULL%1,          D.%Politi%NULL%1,          R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,          Francesco%Missale%NULL%1,          Irene%Schiavetti%NULL%1,          Marta%Filauro%NULL%1,          Francesca%Iannuzzi%NULL%1,          Alessandro%Ascoli%NULL%1,          Alberto%Bertazzoli%NULL%1,          Federico%Pascucci%NULL%1,          Salvatore%Grasso%NULL%1,          Francesco%Murgolo%NULL%1,          Simone%Binda%NULL%1,          Davide%Maraggia%NULL%1,          Giorgia%Montrucchio%NULL%1,          Gabriele%Sales%NULL%1,          Giuseppe%Pascarella%NULL%1,          Felice Eugenio%Agrò%NULL%1,          Gaia%Faccio%NULL%1,          Sandra%Ferraris%NULL%1,          Savino%Spadaro%NULL%1,          Giulia%Falò%NULL%1,          Nadia%Mereto%NULL%1,          Alessandro%Uva%NULL%1,          Jessica Giuseppina%Maugeri%NULL%1,          Bellissima%Agrippino%NULL%1,          Maria%Vargas%NULL%1,          Giuseppe%Servillo%NULL%1,          Chiara%Robba%NULL%1,          Lorenzo%Ball%NULL%1,          Francesco%Mora%NULL%1,          Alessio%Signori%NULL%1,          Antoni%Torres%NULL%1,          Daniele Roberto%Giacobbe%NULL%1,          Antonio%Vena%NULL%1,          Matteo%Bassetti%NULL%1,          Giorgio%Peretti%NULL%1,          Patricia R. M.%Rocco%NULL%1,          Paolo%Pelosi%NULL%1,          Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,          Paul%Nankivell%NULL%1,          Neil%Sharma%NULL%1,          Mansoor N.%Bangash%NULL%1,          Camilla%Dawson%NULL%1,          Matthew%Idle%NULL%1,          Peter%Isherwood%NULL%1,          Christopher%Jennings%NULL%1,          Damian%Keene%NULL%1,          Mav%Manji%NULL%1,          Tim%Martin%NULL%1,          Rob%Moss%NULL%1,          Nick%Murphy%NULL%1,          Dhruv%Parekh%NULL%1,          Sat%Parmar%NULL%1,          Jaimin%Patel%NULL%1,          Paul%Pracy%NULL%1,          Prav%Praveen%NULL%1,          Carla%Richardson%NULL%1,          Alex%Richter%NULL%1,          Rajneesh%Sachdeva%NULL%1,          Adrian%Shields%NULL%1,          Somiah%Siddiq%NULL%1,          Simon%Smart%NULL%1,          Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,          Yoshihisa%Miyamoto%NULL%1,          Matsuo%So%NULL%1,          Masao%Iwagami%NULL%1,          Mai%Takahashi%NULL%1,          Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,          George Z.%Cheng%NULL%1,          Keriann%Van Nostrand%NULL%1,          Samira%Shojaee%NULL%1,          Max T.%Wayne%NULL%1,          Matthew%Abbott%NULL%1,          Darrell%Nettlow%NULL%1,          Alice%Parish%NULL%1,          Cynthia L.%Green%NULL%1,          Javeryah%Safi%NULL%1,          Michael J.%Brenner%NULL%1,          Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,          C%Tornari%NULL%1,          N%Amin%NULL%1,          D%Wyncoll%NULL%1,          S%Tricklebank%NULL%1,          A%Arora%NULL%1,          I%Ahmad%NULL%1,          R%Simo%NULL%1,          P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,          Yongran%Wu%NULL%1,          Fangfang%Zhu%NULL%1,          Xiaobo%Yang%NULL%1,          Chaolin%Huang%NULL%1,          Guo%Hou%NULL%1,          Wenhao%Xu%NULL%1,          Ming%Hu%NULL%1,          Lu%Zhang%NULL%1,          Aiguo%Cheng%NULL%1,          Zhengqin%Xu%NULL%1,          Boyi%Liu%NULL%1,          Song%Hu%NULL%1,          Guochao%Zhu%NULL%1,          Xuepeng%Fan%NULL%1,          Xijing%Zhang%NULL%1,          Yadong%Yang%NULL%1,          Huibin%Feng%NULL%1,          Lixia%Yu%NULL%1,          Bing%Wang%NULL%1,          Zhiqiang%Li%NULL%1,          Yong%Peng%NULL%1,          Zubo%Shen%NULL%1,          Shouzhi%Fu%NULL%1,          Yaqi%Ouyang%NULL%1,          Jiqian%Xu%NULL%1,          Xiaojing%Zou%NULL%1,          Minghao%Fang%NULL%1,          Zhui%Yu%NULL%1,          Bo%Hu%NULL%1,          You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,   Arancibia%C%coreGivesNoEmail%1,   Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,   Bernal-Sprekelsen%M%coreGivesNoEmail%1,   Castro%P%coreGivesNoEmail%1,   de%Oss\u00f3 J%coreGivesNoEmail%1,   Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,   Guilemany%JM%coreGivesNoEmail%1,   Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,   Langdon%C%coreGivesNoEmail%1,   Larrosa%F%coreGivesNoEmail%1,   Lehrer-Coriat%E%coreGivesNoEmail%1,   L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,   Prieto%Alhambra D%coreGivesNoEmail%1,   Remacha%J%coreGivesNoEmail%1,   Ruiz-Sevilla%L%coreGivesNoEmail%1,   S\u00e1nchez%I%coreGivesNoEmail%1,   Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,           Jakub%Fronczek%NULL%1,           Peter Vernon%van Heerden%NULL%1,           Hans%Flaatten%NULL%1,           Bertrand%Guidet%NULL%1,           Dylan W.%De Lange%NULL%1,           Jesper%Fjølner%NULL%1,           Susannah%Leaver%NULL%1,           Michael%Beil%NULL%1,           Sigal%Sviri%NULL%1,           Raphael Romano%Bruno%NULL%1,           Bernhard%Wernly%NULL%1,           Antonio%Artigas%NULL%1,           Bernardo Bollen%Pinto%NULL%1,           Joerg C.%Schefold%NULL%1,           Dorota%Studzińska%NULL%1,           Michael%Joannidis%NULL%1,           Sandra%Oeyen%NULL%1,           Brian%Marsh%NULL%1,           Finn H.%Andersen%NULL%1,           Rui%Moreno%NULL%1,           Maurizio%Cecconi%NULL%1,           Christian%Jung%NULL%1,           Wojciech%Szczeklik%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,           Marc%Tobed%NULL%1,           José Miguel%Villacampa%NULL%1,           Adriana%Agüero%NULL%1,           Clara%García‐Bastida%NULL%1,           José Ignacio%Tato%NULL%1,           Laura%Rodrigáñez%NULL%1,           Victoria Duque%Holguera%NULL%1,           Estefanía%Hernández‐García%NULL%1,           Daniel%Poletti%NULL%1,           Gabriela%Simonetti%NULL%1,           Vanessa%Villarraga%NULL%1,           Carla%Meler‐Claramonte%NULL%1,           Álvaro%Sánchez Barrueco%NULL%1,           Carlos%Chiesa‐Estomba%NULL%1,           Maria%Casasayas%NULL%1,           Pablo%Parente‐Arias%NULL%1,           Nieves%Mata‐Castro%NULL%1,           Jordi%Rello%NULL%1,           Pedro%Castro%NULL%1,           Daniel%Prieto‐Alhambra%NULL%1,           Isabel%Vilaseca%NULL%1,           Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,           P.%Stritoni%NULL%1,           I.%Battel%NULL%1,           B.%Zennaro%NULL%1,           F.%Lazzari%NULL%1,           M.%Bellin%NULL%1,           L.%Michieletto%NULL%1,           G.%Spinato%NULL%1,           C.%Busatto%NULL%1,           D.%Politi%NULL%1,           R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,           Francesco%Missale%NULL%1,           Irene%Schiavetti%NULL%1,           Marta%Filauro%NULL%1,           Francesca%Iannuzzi%NULL%1,           Alessandro%Ascoli%NULL%1,           Alberto%Bertazzoli%NULL%1,           Federico%Pascucci%NULL%1,           Salvatore%Grasso%NULL%1,           Francesco%Murgolo%NULL%1,           Simone%Binda%NULL%1,           Davide%Maraggia%NULL%1,           Giorgia%Montrucchio%NULL%1,           Gabriele%Sales%NULL%1,           Giuseppe%Pascarella%NULL%1,           Felice Eugenio%Agrò%NULL%1,           Gaia%Faccio%NULL%1,           Sandra%Ferraris%NULL%1,           Savino%Spadaro%NULL%1,           Giulia%Falò%NULL%1,           Nadia%Mereto%NULL%1,           Alessandro%Uva%NULL%1,           Jessica Giuseppina%Maugeri%NULL%1,           Bellissima%Agrippino%NULL%1,           Maria%Vargas%NULL%1,           Giuseppe%Servillo%NULL%1,           Chiara%Robba%NULL%1,           Lorenzo%Ball%NULL%1,           Francesco%Mora%NULL%1,           Alessio%Signori%NULL%1,           Antoni%Torres%NULL%1,           Daniele Roberto%Giacobbe%NULL%1,           Antonio%Vena%NULL%1,           Matteo%Bassetti%NULL%1,           Giorgio%Peretti%NULL%1,           Patricia R. M.%Rocco%NULL%1,           Paolo%Pelosi%NULL%1,           Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,           Paul%Nankivell%NULL%1,           Neil%Sharma%NULL%1,           Mansoor N.%Bangash%NULL%1,           Camilla%Dawson%NULL%1,           Matthew%Idle%NULL%1,           Peter%Isherwood%NULL%1,           Christopher%Jennings%NULL%1,           Damian%Keene%NULL%1,           Mav%Manji%NULL%1,           Tim%Martin%NULL%1,           Rob%Moss%NULL%1,           Nick%Murphy%NULL%1,           Dhruv%Parekh%NULL%1,           Sat%Parmar%NULL%1,           Jaimin%Patel%NULL%1,           Paul%Pracy%NULL%1,           Prav%Praveen%NULL%1,           Carla%Richardson%NULL%1,           Alex%Richter%NULL%1,           Rajneesh%Sachdeva%NULL%1,           Adrian%Shields%NULL%1,           Somiah%Siddiq%NULL%1,           Simon%Smart%NULL%1,           Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,           Yoshihisa%Miyamoto%NULL%1,           Matsuo%So%NULL%1,           Masao%Iwagami%NULL%1,           Mai%Takahashi%NULL%1,           Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,           George Z.%Cheng%NULL%1,           Keriann%Van Nostrand%NULL%1,           Samira%Shojaee%NULL%1,           Max T.%Wayne%NULL%1,           Matthew%Abbott%NULL%1,           Darrell%Nettlow%NULL%1,           Alice%Parish%NULL%1,           Cynthia L.%Green%NULL%1,           Javeryah%Safi%NULL%1,           Michael J.%Brenner%NULL%1,           Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,           C%Tornari%NULL%1,           N%Amin%NULL%1,           D%Wyncoll%NULL%1,           S%Tricklebank%NULL%1,           A%Arora%NULL%1,           I%Ahmad%NULL%1,           R%Simo%NULL%1,           P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,           Yongran%Wu%NULL%1,           Fangfang%Zhu%NULL%1,           Xiaobo%Yang%NULL%1,           Chaolin%Huang%NULL%1,           Guo%Hou%NULL%1,           Wenhao%Xu%NULL%1,           Ming%Hu%NULL%1,           Lu%Zhang%NULL%1,           Aiguo%Cheng%NULL%1,           Zhengqin%Xu%NULL%1,           Boyi%Liu%NULL%1,           Song%Hu%NULL%1,           Guochao%Zhu%NULL%1,           Xuepeng%Fan%NULL%1,           Xijing%Zhang%NULL%1,           Yadong%Yang%NULL%1,           Huibin%Feng%NULL%1,           Lixia%Yu%NULL%1,           Bing%Wang%NULL%1,           Zhiqiang%Li%NULL%1,           Yong%Peng%NULL%1,           Zubo%Shen%NULL%1,           Shouzhi%Fu%NULL%1,           Yaqi%Ouyang%NULL%1,           Jiqian%Xu%NULL%1,           Xiaojing%Zou%NULL%1,           Minghao%Fang%NULL%1,           Zhui%Yu%NULL%1,           Bo%Hu%NULL%1,           You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,    Arancibia%C%coreGivesNoEmail%1,    Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,    Bernal-Sprekelsen%M%coreGivesNoEmail%1,    Castro%P%coreGivesNoEmail%1,    de%Oss\u00f3 J%coreGivesNoEmail%1,    Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,    Guilemany%JM%coreGivesNoEmail%1,    Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,    Langdon%C%coreGivesNoEmail%1,    Larrosa%F%coreGivesNoEmail%1,    Lehrer-Coriat%E%coreGivesNoEmail%1,    L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,    Prieto%Alhambra D%coreGivesNoEmail%1,    Remacha%J%coreGivesNoEmail%1,    Ruiz-Sevilla%L%coreGivesNoEmail%1,    S\u00e1nchez%I%coreGivesNoEmail%1,    Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,            Jakub%Fronczek%NULL%1,            Peter Vernon%van Heerden%NULL%1,            Hans%Flaatten%NULL%1,            Bertrand%Guidet%NULL%1,            Dylan W.%De Lange%NULL%1,            Jesper%Fjølner%NULL%1,            Susannah%Leaver%NULL%1,            Michael%Beil%NULL%1,            Sigal%Sviri%NULL%1,            Raphael Romano%Bruno%NULL%1,            Bernhard%Wernly%NULL%1,            Antonio%Artigas%NULL%1,            Bernardo Bollen%Pinto%NULL%1,            Joerg C.%Schefold%NULL%1,            Dorota%Studzińska%NULL%1,            Michael%Joannidis%NULL%1,            Sandra%Oeyen%NULL%1,            Brian%Marsh%NULL%1,            Finn H.%Andersen%NULL%1,            Rui%Moreno%NULL%1,            Maurizio%Cecconi%NULL%1,            Christian%Jung%NULL%1,            Wojciech%Szczeklik%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,            Marc%Tobed%NULL%1,            José Miguel%Villacampa%NULL%1,            Adriana%Agüero%NULL%1,            Clara%García‐Bastida%NULL%1,            José Ignacio%Tato%NULL%1,            Laura%Rodrigáñez%NULL%1,            Victoria Duque%Holguera%NULL%1,            Estefanía%Hernández‐García%NULL%1,            Daniel%Poletti%NULL%1,            Gabriela%Simonetti%NULL%1,            Vanessa%Villarraga%NULL%1,            Carla%Meler‐Claramonte%NULL%1,            Álvaro%Sánchez Barrueco%NULL%1,            Carlos%Chiesa‐Estomba%NULL%1,            Maria%Casasayas%NULL%1,            Pablo%Parente‐Arias%NULL%1,            Nieves%Mata‐Castro%NULL%1,            Jordi%Rello%NULL%1,            Pedro%Castro%NULL%1,            Daniel%Prieto‐Alhambra%NULL%1,            Isabel%Vilaseca%NULL%1,            Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,            P.%Stritoni%NULL%1,            I.%Battel%NULL%1,            B.%Zennaro%NULL%1,            F.%Lazzari%NULL%1,            M.%Bellin%NULL%1,            L.%Michieletto%NULL%1,            G.%Spinato%NULL%1,            C.%Busatto%NULL%1,            D.%Politi%NULL%1,            R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,            Francesco%Missale%NULL%1,            Irene%Schiavetti%NULL%1,            Marta%Filauro%NULL%1,            Francesca%Iannuzzi%NULL%1,            Alessandro%Ascoli%NULL%1,            Alberto%Bertazzoli%NULL%1,            Federico%Pascucci%NULL%1,            Salvatore%Grasso%NULL%1,            Francesco%Murgolo%NULL%1,            Simone%Binda%NULL%1,            Davide%Maraggia%NULL%1,            Giorgia%Montrucchio%NULL%1,            Gabriele%Sales%NULL%1,            Giuseppe%Pascarella%NULL%1,            Felice Eugenio%Agrò%NULL%1,            Gaia%Faccio%NULL%1,            Sandra%Ferraris%NULL%1,            Savino%Spadaro%NULL%1,            Giulia%Falò%NULL%1,            Nadia%Mereto%NULL%1,            Alessandro%Uva%NULL%1,            Jessica Giuseppina%Maugeri%NULL%1,            Bellissima%Agrippino%NULL%1,            Maria%Vargas%NULL%1,            Giuseppe%Servillo%NULL%1,            Chiara%Robba%NULL%1,            Lorenzo%Ball%NULL%1,            Francesco%Mora%NULL%1,            Alessio%Signori%NULL%1,            Antoni%Torres%NULL%1,            Daniele Roberto%Giacobbe%NULL%1,            Antonio%Vena%NULL%1,            Matteo%Bassetti%NULL%1,            Giorgio%Peretti%NULL%1,            Patricia R. M.%Rocco%NULL%1,            Paolo%Pelosi%NULL%1,            Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,            Paul%Nankivell%NULL%1,            Neil%Sharma%NULL%1,            Mansoor N.%Bangash%NULL%1,            Camilla%Dawson%NULL%1,            Matthew%Idle%NULL%1,            Peter%Isherwood%NULL%1,            Christopher%Jennings%NULL%1,            Damian%Keene%NULL%1,            Mav%Manji%NULL%1,            Tim%Martin%NULL%1,            Rob%Moss%NULL%1,            Nick%Murphy%NULL%1,            Dhruv%Parekh%NULL%1,            Sat%Parmar%NULL%1,            Jaimin%Patel%NULL%1,            Paul%Pracy%NULL%1,            Prav%Praveen%NULL%1,            Carla%Richardson%NULL%1,            Alex%Richter%NULL%1,            Rajneesh%Sachdeva%NULL%1,            Adrian%Shields%NULL%1,            Somiah%Siddiq%NULL%1,            Simon%Smart%NULL%1,            Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,            Yoshihisa%Miyamoto%NULL%1,            Matsuo%So%NULL%1,            Masao%Iwagami%NULL%1,            Mai%Takahashi%NULL%1,            Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,            George Z.%Cheng%NULL%1,            Keriann%Van Nostrand%NULL%1,            Samira%Shojaee%NULL%1,            Max T.%Wayne%NULL%1,            Matthew%Abbott%NULL%1,            Darrell%Nettlow%NULL%1,            Alice%Parish%NULL%1,            Cynthia L.%Green%NULL%1,            Javeryah%Safi%NULL%1,            Michael J.%Brenner%NULL%1,            Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,            C%Tornari%NULL%1,            N%Amin%NULL%1,            D%Wyncoll%NULL%1,            S%Tricklebank%NULL%1,            A%Arora%NULL%1,            I%Ahmad%NULL%1,            R%Simo%NULL%1,            P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,            Yongran%Wu%NULL%1,            Fangfang%Zhu%NULL%1,            Xiaobo%Yang%NULL%1,            Chaolin%Huang%NULL%1,            Guo%Hou%NULL%1,            Wenhao%Xu%NULL%1,            Ming%Hu%NULL%1,            Lu%Zhang%NULL%1,            Aiguo%Cheng%NULL%1,            Zhengqin%Xu%NULL%1,            Boyi%Liu%NULL%1,            Song%Hu%NULL%1,            Guochao%Zhu%NULL%1,            Xuepeng%Fan%NULL%1,            Xijing%Zhang%NULL%1,            Yadong%Yang%NULL%1,            Huibin%Feng%NULL%1,            Lixia%Yu%NULL%1,            Bing%Wang%NULL%1,            Zhiqiang%Li%NULL%1,            Yong%Peng%NULL%1,            Zubo%Shen%NULL%1,            Shouzhi%Fu%NULL%1,            Yaqi%Ouyang%NULL%1,            Jiqian%Xu%NULL%1,            Xiaojing%Zou%NULL%1,            Minghao%Fang%NULL%1,            Zhui%Yu%NULL%1,            Bo%Hu%NULL%1,            You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1143,19 +1290,19 @@
         <v>44112.0</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1207,7 +1354,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1236,7 +1383,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1265,7 +1412,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1323,7 +1470,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1352,7 +1499,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1381,7 +1528,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1410,7 +1557,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1439,7 +1586,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1468,7 +1615,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="274">
   <si>
     <t>Doi</t>
   </si>
@@ -954,6 +954,93 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,            Yongran%Wu%NULL%1,            Fangfang%Zhu%NULL%1,            Xiaobo%Yang%NULL%1,            Chaolin%Huang%NULL%1,            Guo%Hou%NULL%1,            Wenhao%Xu%NULL%1,            Ming%Hu%NULL%1,            Lu%Zhang%NULL%1,            Aiguo%Cheng%NULL%1,            Zhengqin%Xu%NULL%1,            Boyi%Liu%NULL%1,            Song%Hu%NULL%1,            Guochao%Zhu%NULL%1,            Xuepeng%Fan%NULL%1,            Xijing%Zhang%NULL%1,            Yadong%Yang%NULL%1,            Huibin%Feng%NULL%1,            Lixia%Yu%NULL%1,            Bing%Wang%NULL%1,            Zhiqiang%Li%NULL%1,            Yong%Peng%NULL%1,            Zubo%Shen%NULL%1,            Shouzhi%Fu%NULL%1,            Yaqi%Ouyang%NULL%1,            Jiqian%Xu%NULL%1,            Xiaojing%Zou%NULL%1,            Minghao%Fang%NULL%1,            Zhui%Yu%NULL%1,            Bo%Hu%NULL%1,            You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,     Arancibia%C%coreGivesNoEmail%1,     Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,     Bernal-Sprekelsen%M%coreGivesNoEmail%1,     Castro%P%coreGivesNoEmail%1,     de%Oss\u00f3 J%coreGivesNoEmail%1,     Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,     Guilemany%JM%coreGivesNoEmail%1,     Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,     Langdon%C%coreGivesNoEmail%1,     Larrosa%F%coreGivesNoEmail%1,     Lehrer-Coriat%E%coreGivesNoEmail%1,     L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,     Prieto%Alhambra D%coreGivesNoEmail%1,     Remacha%J%coreGivesNoEmail%1,     Ruiz-Sevilla%L%coreGivesNoEmail%1,     S\u00e1nchez%I%coreGivesNoEmail%1,     Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>"Early Outcomes From Early Tracheostomy for Patients With COVID-19"</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1, Joseph R.%Connors%xref no email%1, Peter A.%Benedict%xref no email%1, Micah R.%Timen%xref no email%1, Binhuan%Wang%xref no email%1, Yan%Zhang%xref no email%2, Stephanie%Youlios%xref no email%1, Kimberly%Sureau%xref no email%2, Michael J.%Persky%xref no email%1, Samaan%Rafeq%xref no email%2, Luis%Angel%xref no email%1, Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,             Jakub%Fronczek%NULL%1,             Peter Vernon%van Heerden%NULL%1,             Hans%Flaatten%NULL%1,             Bertrand%Guidet%NULL%1,             Dylan W.%De Lange%NULL%1,             Jesper%Fjølner%NULL%1,             Susannah%Leaver%NULL%1,             Michael%Beil%NULL%1,             Sigal%Sviri%NULL%1,             Raphael Romano%Bruno%NULL%1,             Bernhard%Wernly%NULL%1,             Antonio%Artigas%NULL%1,             Bernardo Bollen%Pinto%NULL%1,             Joerg C.%Schefold%NULL%1,             Dorota%Studzińska%NULL%1,             Michael%Joannidis%NULL%1,             Sandra%Oeyen%NULL%1,             Brian%Marsh%NULL%1,             Finn H.%Andersen%NULL%1,             Rui%Moreno%NULL%1,             Maurizio%Cecconi%NULL%1,             Christian%Jung%NULL%1,             Wojciech%Szczeklik%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,             Marc%Tobed%NULL%1,             José Miguel%Villacampa%NULL%1,             Adriana%Agüero%NULL%1,             Clara%García‐Bastida%NULL%1,             José Ignacio%Tato%NULL%1,             Laura%Rodrigáñez%NULL%1,             Victoria Duque%Holguera%NULL%1,             Estefanía%Hernández‐García%NULL%1,             Daniel%Poletti%NULL%1,             Gabriela%Simonetti%NULL%1,             Vanessa%Villarraga%NULL%1,             Carla%Meler‐Claramonte%NULL%1,             Álvaro%Sánchez Barrueco%NULL%1,             Carlos%Chiesa‐Estomba%NULL%1,             Maria%Casasayas%NULL%1,             Pablo%Parente‐Arias%NULL%1,             Nieves%Mata‐Castro%NULL%1,             Jordi%Rello%NULL%1,             Pedro%Castro%NULL%1,             Daniel%Prieto‐Alhambra%NULL%1,             Isabel%Vilaseca%NULL%1,             Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,             P.%Stritoni%NULL%1,             I.%Battel%NULL%1,             B.%Zennaro%NULL%1,             F.%Lazzari%NULL%1,             M.%Bellin%NULL%1,             L.%Michieletto%NULL%1,             G.%Spinato%NULL%1,             C.%Busatto%NULL%1,             D.%Politi%NULL%1,             R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Percutaneous Dilational Tracheostomy for Coronavirus Disease 2019 Patients Requiring Mechanical Ventilation"</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1, Nancy E.%Amoroso%xref no email%1, Samaan%Rafeq%xref no email%0, Brian%Mitzman%xref no email%1, Ronald%Goldenberg%xref no email%1, Saketh Palasamudram%Shekar%xref no email%1, Andrea B.%Troxel%xref no email%1, Yan%Zhang%xref no email%0, Stephanie H%Chang%xref no email%1, Paul%Kwak%xref no email%1, Milan R.%Amin%xref no email%0, Kimberly%Sureau%xref no email%0, Heidi B.%Nafday%xref no email%1, Sarun%Thomas%xref no email%1, Zachary%Kon%xref no email%1, Philip M.%Sommer%xref no email%1, Leopoldo N.%Segal%xref no email%1, William H.%Moore%xref no email%1, Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,             Francesco%Missale%NULL%1,             Irene%Schiavetti%NULL%1,             Marta%Filauro%NULL%1,             Francesca%Iannuzzi%NULL%1,             Alessandro%Ascoli%NULL%1,             Alberto%Bertazzoli%NULL%1,             Federico%Pascucci%NULL%1,             Salvatore%Grasso%NULL%1,             Francesco%Murgolo%NULL%1,             Simone%Binda%NULL%1,             Davide%Maraggia%NULL%1,             Giorgia%Montrucchio%NULL%1,             Gabriele%Sales%NULL%1,             Giuseppe%Pascarella%NULL%1,             Felice Eugenio%Agrò%NULL%1,             Gaia%Faccio%NULL%1,             Sandra%Ferraris%NULL%1,             Savino%Spadaro%NULL%1,             Giulia%Falò%NULL%1,             Nadia%Mereto%NULL%1,             Alessandro%Uva%NULL%1,             Jessica Giuseppina%Maugeri%NULL%1,             Bellissima%Agrippino%NULL%1,             Maria%Vargas%NULL%1,             Giuseppe%Servillo%NULL%1,             Chiara%Robba%NULL%1,             Lorenzo%Ball%NULL%1,             Francesco%Mora%NULL%1,             Alessio%Signori%NULL%1,             Antoni%Torres%NULL%1,             Daniele Roberto%Giacobbe%NULL%1,             Antonio%Vena%NULL%1,             Matteo%Bassetti%NULL%1,             Giorgio%Peretti%NULL%1,             Patricia R. M.%Rocco%NULL%1,             Paolo%Pelosi%NULL%1,             Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,             Paul%Nankivell%NULL%1,             Neil%Sharma%NULL%1,             Mansoor N.%Bangash%NULL%1,             Camilla%Dawson%NULL%1,             Matthew%Idle%NULL%1,             Peter%Isherwood%NULL%1,             Christopher%Jennings%NULL%1,             Damian%Keene%NULL%1,             Mav%Manji%NULL%1,             Tim%Martin%NULL%1,             Rob%Moss%NULL%1,             Nick%Murphy%NULL%1,             Dhruv%Parekh%NULL%1,             Sat%Parmar%NULL%1,             Jaimin%Patel%NULL%1,             Paul%Pracy%NULL%1,             Prav%Praveen%NULL%1,             Carla%Richardson%NULL%1,             Alex%Richter%NULL%1,             Rajneesh%Sachdeva%NULL%1,             Adrian%Shields%NULL%1,             Somiah%Siddiq%NULL%1,             Simon%Smart%NULL%1,             Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,             Yoshihisa%Miyamoto%NULL%1,             Matsuo%So%NULL%1,             Masao%Iwagami%NULL%1,             Mai%Takahashi%NULL%1,             Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,             George Z.%Cheng%NULL%1,             Keriann%Van Nostrand%NULL%1,             Samira%Shojaee%NULL%1,             Max T.%Wayne%NULL%1,             Matthew%Abbott%NULL%1,             Darrell%Nettlow%NULL%1,             Alice%Parish%NULL%1,             Cynthia L.%Green%NULL%1,             Javeryah%Safi%NULL%1,             Michael J.%Brenner%NULL%1,             Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,             C%Tornari%NULL%1,             N%Amin%NULL%1,             D%Wyncoll%NULL%1,             S%Tricklebank%NULL%1,             A%Arora%NULL%1,             I%Ahmad%NULL%1,             R%Simo%NULL%1,             P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,             Yongran%Wu%NULL%1,             Fangfang%Zhu%NULL%1,             Xiaobo%Yang%NULL%1,             Chaolin%Huang%NULL%1,             Guo%Hou%NULL%1,             Wenhao%Xu%NULL%1,             Ming%Hu%NULL%1,             Lu%Zhang%NULL%1,             Aiguo%Cheng%NULL%1,             Zhengqin%Xu%NULL%1,             Boyi%Liu%NULL%1,             Song%Hu%NULL%1,             Guochao%Zhu%NULL%1,             Xuepeng%Fan%NULL%1,             Xijing%Zhang%NULL%1,             Yadong%Yang%NULL%1,             Huibin%Feng%NULL%1,             Lixia%Yu%NULL%1,             Bing%Wang%NULL%1,             Zhiqiang%Li%NULL%1,             Yong%Peng%NULL%1,             Zubo%Shen%NULL%1,             Shouzhi%Fu%NULL%1,             Yaqi%Ouyang%NULL%1,             Jiqian%Xu%NULL%1,             Xiaojing%Zou%NULL%1,             Minghao%Fang%NULL%1,             Zhui%Yu%NULL%1,             Bo%Hu%NULL%1,             You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,      Arancibia%C%coreGivesNoEmail%1,      Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,      Bernal-Sprekelsen%M%coreGivesNoEmail%1,      Castro%P%coreGivesNoEmail%1,      de%Oss\u00f3 J%coreGivesNoEmail%1,      Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,      Guilemany%JM%coreGivesNoEmail%1,      Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,      Langdon%C%coreGivesNoEmail%1,      Larrosa%F%coreGivesNoEmail%1,      Lehrer-Coriat%E%coreGivesNoEmail%1,      L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,      Prieto%Alhambra D%coreGivesNoEmail%1,      Remacha%J%coreGivesNoEmail%1,      Ruiz-Sevilla%L%coreGivesNoEmail%1,      S\u00e1nchez%I%coreGivesNoEmail%1,      Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,  Joseph R.%Connors%xref no email%1,  Peter A.%Benedict%xref no email%1,  Micah R.%Timen%xref no email%1,  Binhuan%Wang%xref no email%1,  Yan%Zhang%xref no email%2,  Stephanie%Youlios%xref no email%1,  Kimberly%Sureau%xref no email%2,  Michael J.%Persky%xref no email%1,  Samaan%Rafeq%xref no email%2,  Luis%Angel%xref no email%1,  Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,              Jakub%Fronczek%NULL%1,              Peter Vernon%van Heerden%NULL%1,              Hans%Flaatten%NULL%1,              Bertrand%Guidet%NULL%1,              Dylan W.%De Lange%NULL%1,              Jesper%Fjølner%NULL%1,              Susannah%Leaver%NULL%1,              Michael%Beil%NULL%1,              Sigal%Sviri%NULL%1,              Raphael Romano%Bruno%NULL%1,              Bernhard%Wernly%NULL%1,              Antonio%Artigas%NULL%1,              Bernardo Bollen%Pinto%NULL%1,              Joerg C.%Schefold%NULL%1,              Dorota%Studzińska%NULL%1,              Michael%Joannidis%NULL%1,              Sandra%Oeyen%NULL%1,              Brian%Marsh%NULL%1,              Finn H.%Andersen%NULL%1,              Rui%Moreno%NULL%1,              Maurizio%Cecconi%NULL%1,              Christian%Jung%NULL%1,              Wojciech%Szczeklik%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,              Marc%Tobed%NULL%1,              José Miguel%Villacampa%NULL%1,              Adriana%Agüero%NULL%1,              Clara%García‐Bastida%NULL%1,              José Ignacio%Tato%NULL%1,              Laura%Rodrigáñez%NULL%1,              Victoria Duque%Holguera%NULL%1,              Estefanía%Hernández‐García%NULL%1,              Daniel%Poletti%NULL%1,              Gabriela%Simonetti%NULL%1,              Vanessa%Villarraga%NULL%1,              Carla%Meler‐Claramonte%NULL%1,              Álvaro%Sánchez Barrueco%NULL%1,              Carlos%Chiesa‐Estomba%NULL%1,              Maria%Casasayas%NULL%1,              Pablo%Parente‐Arias%NULL%1,              Nieves%Mata‐Castro%NULL%1,              Jordi%Rello%NULL%1,              Pedro%Castro%NULL%1,              Daniel%Prieto‐Alhambra%NULL%1,              Isabel%Vilaseca%NULL%1,              Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,              P.%Stritoni%NULL%1,              I.%Battel%NULL%1,              B.%Zennaro%NULL%1,              F.%Lazzari%NULL%1,              M.%Bellin%NULL%1,              L.%Michieletto%NULL%1,              G.%Spinato%NULL%1,              C.%Busatto%NULL%1,              D.%Politi%NULL%1,              R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,  Nancy E.%Amoroso%xref no email%1,  Samaan%Rafeq%xref no email%0,  Brian%Mitzman%xref no email%1,  Ronald%Goldenberg%xref no email%1,  Saketh Palasamudram%Shekar%xref no email%1,  Andrea B.%Troxel%xref no email%1,  Yan%Zhang%xref no email%0,  Stephanie H%Chang%xref no email%1,  Paul%Kwak%xref no email%1,  Milan R.%Amin%xref no email%0,  Kimberly%Sureau%xref no email%0,  Heidi B.%Nafday%xref no email%1,  Sarun%Thomas%xref no email%1,  Zachary%Kon%xref no email%1,  Philip M.%Sommer%xref no email%1,  Leopoldo N.%Segal%xref no email%1,  William H.%Moore%xref no email%1,  Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,              Francesco%Missale%NULL%1,              Irene%Schiavetti%NULL%1,              Marta%Filauro%NULL%1,              Francesca%Iannuzzi%NULL%1,              Alessandro%Ascoli%NULL%1,              Alberto%Bertazzoli%NULL%1,              Federico%Pascucci%NULL%1,              Salvatore%Grasso%NULL%1,              Francesco%Murgolo%NULL%1,              Simone%Binda%NULL%1,              Davide%Maraggia%NULL%1,              Giorgia%Montrucchio%NULL%1,              Gabriele%Sales%NULL%1,              Giuseppe%Pascarella%NULL%1,              Felice Eugenio%Agrò%NULL%1,              Gaia%Faccio%NULL%1,              Sandra%Ferraris%NULL%1,              Savino%Spadaro%NULL%1,              Giulia%Falò%NULL%1,              Nadia%Mereto%NULL%1,              Alessandro%Uva%NULL%1,              Jessica Giuseppina%Maugeri%NULL%1,              Bellissima%Agrippino%NULL%1,              Maria%Vargas%NULL%1,              Giuseppe%Servillo%NULL%1,              Chiara%Robba%NULL%1,              Lorenzo%Ball%NULL%1,              Francesco%Mora%NULL%1,              Alessio%Signori%NULL%1,              Antoni%Torres%NULL%1,              Daniele Roberto%Giacobbe%NULL%1,              Antonio%Vena%NULL%1,              Matteo%Bassetti%NULL%1,              Giorgio%Peretti%NULL%1,              Patricia R. M.%Rocco%NULL%1,              Paolo%Pelosi%NULL%1,              Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,              Paul%Nankivell%NULL%1,              Neil%Sharma%NULL%1,              Mansoor N.%Bangash%NULL%1,              Camilla%Dawson%NULL%1,              Matthew%Idle%NULL%1,              Peter%Isherwood%NULL%1,              Christopher%Jennings%NULL%1,              Damian%Keene%NULL%1,              Mav%Manji%NULL%1,              Tim%Martin%NULL%1,              Rob%Moss%NULL%1,              Nick%Murphy%NULL%1,              Dhruv%Parekh%NULL%1,              Sat%Parmar%NULL%1,              Jaimin%Patel%NULL%1,              Paul%Pracy%NULL%1,              Prav%Praveen%NULL%1,              Carla%Richardson%NULL%1,              Alex%Richter%NULL%1,              Rajneesh%Sachdeva%NULL%1,              Adrian%Shields%NULL%1,              Somiah%Siddiq%NULL%1,              Simon%Smart%NULL%1,              Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,              Yoshihisa%Miyamoto%NULL%1,              Matsuo%So%NULL%1,              Masao%Iwagami%NULL%1,              Mai%Takahashi%NULL%1,              Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,              George Z.%Cheng%NULL%1,              Keriann%Van Nostrand%NULL%1,              Samira%Shojaee%NULL%1,              Max T.%Wayne%NULL%1,              Matthew%Abbott%NULL%1,              Darrell%Nettlow%NULL%1,              Alice%Parish%NULL%1,              Cynthia L.%Green%NULL%1,              Javeryah%Safi%NULL%1,              Michael J.%Brenner%NULL%1,              Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,              C%Tornari%NULL%1,              N%Amin%NULL%1,              D%Wyncoll%NULL%1,              S%Tricklebank%NULL%1,              A%Arora%NULL%1,              I%Ahmad%NULL%1,              R%Simo%NULL%1,              P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,              Yongran%Wu%NULL%1,              Fangfang%Zhu%NULL%1,              Xiaobo%Yang%NULL%1,              Chaolin%Huang%NULL%1,              Guo%Hou%NULL%1,              Wenhao%Xu%NULL%1,              Ming%Hu%NULL%1,              Lu%Zhang%NULL%1,              Aiguo%Cheng%NULL%1,              Zhengqin%Xu%NULL%1,              Boyi%Liu%NULL%1,              Song%Hu%NULL%1,              Guochao%Zhu%NULL%1,              Xuepeng%Fan%NULL%1,              Xijing%Zhang%NULL%1,              Yadong%Yang%NULL%1,              Huibin%Feng%NULL%1,              Lixia%Yu%NULL%1,              Bing%Wang%NULL%1,              Zhiqiang%Li%NULL%1,              Yong%Peng%NULL%1,              Zubo%Shen%NULL%1,              Shouzhi%Fu%NULL%1,              Yaqi%Ouyang%NULL%1,              Jiqian%Xu%NULL%1,              Xiaojing%Zou%NULL%1,              Minghao%Fang%NULL%1,              Zhui%Yu%NULL%1,              Bo%Hu%NULL%1,              You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1383,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1319,22 +1406,22 @@
         <v>44182.0</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="I3" t="s">
         <v>189</v>
@@ -1354,7 +1441,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1383,7 +1470,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1412,7 +1499,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1435,22 +1522,22 @@
         <v>44378.0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
         <v>189</v>
@@ -1470,7 +1557,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1499,7 +1586,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1528,7 +1615,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1557,7 +1644,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1586,7 +1673,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1615,7 +1702,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="298">
   <si>
     <t>Doi</t>
   </si>
@@ -1041,6 +1041,78 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,              Yongran%Wu%NULL%1,              Fangfang%Zhu%NULL%1,              Xiaobo%Yang%NULL%1,              Chaolin%Huang%NULL%1,              Guo%Hou%NULL%1,              Wenhao%Xu%NULL%1,              Ming%Hu%NULL%1,              Lu%Zhang%NULL%1,              Aiguo%Cheng%NULL%1,              Zhengqin%Xu%NULL%1,              Boyi%Liu%NULL%1,              Song%Hu%NULL%1,              Guochao%Zhu%NULL%1,              Xuepeng%Fan%NULL%1,              Xijing%Zhang%NULL%1,              Yadong%Yang%NULL%1,              Huibin%Feng%NULL%1,              Lixia%Yu%NULL%1,              Bing%Wang%NULL%1,              Zhiqiang%Li%NULL%1,              Yong%Peng%NULL%1,              Zubo%Shen%NULL%1,              Shouzhi%Fu%NULL%1,              Yaqi%Ouyang%NULL%1,              Jiqian%Xu%NULL%1,              Xiaojing%Zou%NULL%1,              Minghao%Fang%NULL%1,              Zhui%Yu%NULL%1,              Bo%Hu%NULL%1,              You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,       Arancibia%C%coreGivesNoEmail%1,       Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,       Bernal-Sprekelsen%M%coreGivesNoEmail%1,       Castro%P%coreGivesNoEmail%1,       de%Oss\u00f3 J%coreGivesNoEmail%1,       Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,       Guilemany%JM%coreGivesNoEmail%1,       Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,       Langdon%C%coreGivesNoEmail%1,       Larrosa%F%coreGivesNoEmail%1,       Lehrer-Coriat%E%coreGivesNoEmail%1,       L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,       Prieto%Alhambra D%coreGivesNoEmail%1,       Remacha%J%coreGivesNoEmail%1,       Ruiz-Sevilla%L%coreGivesNoEmail%1,       S\u00e1nchez%I%coreGivesNoEmail%1,       Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,   Joseph R.%Connors%xref no email%1,   Peter A.%Benedict%xref no email%1,   Micah R.%Timen%xref no email%1,   Binhuan%Wang%xref no email%1,   Yan%Zhang%xref no email%2,   Stephanie%Youlios%xref no email%1,   Kimberly%Sureau%xref no email%2,   Michael J.%Persky%xref no email%1,   Samaan%Rafeq%xref no email%2,   Luis%Angel%xref no email%1,   Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,               Jakub%Fronczek%NULL%1,               Peter Vernon%van Heerden%NULL%1,               Hans%Flaatten%NULL%1,               Bertrand%Guidet%NULL%1,               Dylan W.%De Lange%NULL%1,               Jesper%Fjølner%NULL%1,               Susannah%Leaver%NULL%1,               Michael%Beil%NULL%1,               Sigal%Sviri%NULL%1,               Raphael Romano%Bruno%NULL%1,               Bernhard%Wernly%NULL%1,               Antonio%Artigas%NULL%1,               Bernardo Bollen%Pinto%NULL%1,               Joerg C.%Schefold%NULL%1,               Dorota%Studzińska%NULL%1,               Michael%Joannidis%NULL%1,               Sandra%Oeyen%NULL%1,               Brian%Marsh%NULL%1,               Finn H.%Andersen%NULL%1,               Rui%Moreno%NULL%1,               Maurizio%Cecconi%NULL%1,               Christian%Jung%NULL%1,               Wojciech%Szczeklik%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,               Marc%Tobed%NULL%1,               José Miguel%Villacampa%NULL%1,               Adriana%Agüero%NULL%1,               Clara%García‐Bastida%NULL%1,               José Ignacio%Tato%NULL%1,               Laura%Rodrigáñez%NULL%1,               Victoria Duque%Holguera%NULL%1,               Estefanía%Hernández‐García%NULL%1,               Daniel%Poletti%NULL%1,               Gabriela%Simonetti%NULL%1,               Vanessa%Villarraga%NULL%1,               Carla%Meler‐Claramonte%NULL%1,               Álvaro%Sánchez Barrueco%NULL%1,               Carlos%Chiesa‐Estomba%NULL%1,               Maria%Casasayas%NULL%1,               Pablo%Parente‐Arias%NULL%1,               Nieves%Mata‐Castro%NULL%1,               Jordi%Rello%NULL%1,               Pedro%Castro%NULL%1,               Daniel%Prieto‐Alhambra%NULL%1,               Isabel%Vilaseca%NULL%1,               Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,               P.%Stritoni%NULL%1,               I.%Battel%NULL%1,               B.%Zennaro%NULL%1,               F.%Lazzari%NULL%1,               M.%Bellin%NULL%1,               L.%Michieletto%NULL%1,               G.%Spinato%NULL%1,               C.%Busatto%NULL%1,               D.%Politi%NULL%1,               R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,   Nancy E.%Amoroso%xref no email%1,   Samaan%Rafeq%xref no email%0,   Brian%Mitzman%xref no email%1,   Ronald%Goldenberg%xref no email%1,   Saketh Palasamudram%Shekar%xref no email%1,   Andrea B.%Troxel%xref no email%1,   Yan%Zhang%xref no email%0,   Stephanie H%Chang%xref no email%1,   Paul%Kwak%xref no email%1,   Milan R.%Amin%xref no email%0,   Kimberly%Sureau%xref no email%0,   Heidi B.%Nafday%xref no email%1,   Sarun%Thomas%xref no email%1,   Zachary%Kon%xref no email%1,   Philip M.%Sommer%xref no email%1,   Leopoldo N.%Segal%xref no email%1,   William H.%Moore%xref no email%1,   Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,               Francesco%Missale%NULL%1,               Irene%Schiavetti%NULL%1,               Marta%Filauro%NULL%1,               Francesca%Iannuzzi%NULL%1,               Alessandro%Ascoli%NULL%1,               Alberto%Bertazzoli%NULL%1,               Federico%Pascucci%NULL%1,               Salvatore%Grasso%NULL%1,               Francesco%Murgolo%NULL%1,               Simone%Binda%NULL%1,               Davide%Maraggia%NULL%1,               Giorgia%Montrucchio%NULL%1,               Gabriele%Sales%NULL%1,               Giuseppe%Pascarella%NULL%1,               Felice Eugenio%Agrò%NULL%1,               Gaia%Faccio%NULL%1,               Sandra%Ferraris%NULL%1,               Savino%Spadaro%NULL%1,               Giulia%Falò%NULL%1,               Nadia%Mereto%NULL%1,               Alessandro%Uva%NULL%1,               Jessica Giuseppina%Maugeri%NULL%1,               Bellissima%Agrippino%NULL%1,               Maria%Vargas%NULL%1,               Giuseppe%Servillo%NULL%1,               Chiara%Robba%NULL%1,               Lorenzo%Ball%NULL%1,               Francesco%Mora%NULL%1,               Alessio%Signori%NULL%1,               Antoni%Torres%NULL%1,               Daniele Roberto%Giacobbe%NULL%1,               Antonio%Vena%NULL%1,               Matteo%Bassetti%NULL%1,               Giorgio%Peretti%NULL%1,               Patricia R. M.%Rocco%NULL%1,               Paolo%Pelosi%NULL%1,               Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,               Paul%Nankivell%NULL%1,               Neil%Sharma%NULL%1,               Mansoor N.%Bangash%NULL%1,               Camilla%Dawson%NULL%1,               Matthew%Idle%NULL%1,               Peter%Isherwood%NULL%1,               Christopher%Jennings%NULL%1,               Damian%Keene%NULL%1,               Mav%Manji%NULL%1,               Tim%Martin%NULL%1,               Rob%Moss%NULL%1,               Nick%Murphy%NULL%1,               Dhruv%Parekh%NULL%1,               Sat%Parmar%NULL%1,               Jaimin%Patel%NULL%1,               Paul%Pracy%NULL%1,               Prav%Praveen%NULL%1,               Carla%Richardson%NULL%1,               Alex%Richter%NULL%1,               Rajneesh%Sachdeva%NULL%1,               Adrian%Shields%NULL%1,               Somiah%Siddiq%NULL%1,               Simon%Smart%NULL%1,               Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,               Yoshihisa%Miyamoto%NULL%1,               Matsuo%So%NULL%1,               Masao%Iwagami%NULL%1,               Mai%Takahashi%NULL%1,               Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,               George Z.%Cheng%NULL%1,               Keriann%Van Nostrand%NULL%1,               Samira%Shojaee%NULL%1,               Max T.%Wayne%NULL%1,               Matthew%Abbott%NULL%1,               Darrell%Nettlow%NULL%1,               Alice%Parish%NULL%1,               Cynthia L.%Green%NULL%1,               Javeryah%Safi%NULL%1,               Michael J.%Brenner%NULL%1,               Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,               C%Tornari%NULL%1,               N%Amin%NULL%1,               D%Wyncoll%NULL%1,               S%Tricklebank%NULL%1,               A%Arora%NULL%1,               I%Ahmad%NULL%1,               R%Simo%NULL%1,               P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,               Yongran%Wu%NULL%1,               Fangfang%Zhu%NULL%1,               Xiaobo%Yang%NULL%1,               Chaolin%Huang%NULL%1,               Guo%Hou%NULL%1,               Wenhao%Xu%NULL%1,               Ming%Hu%NULL%1,               Lu%Zhang%NULL%1,               Aiguo%Cheng%NULL%1,               Zhengqin%Xu%NULL%1,               Boyi%Liu%NULL%1,               Song%Hu%NULL%1,               Guochao%Zhu%NULL%1,               Xuepeng%Fan%NULL%1,               Xijing%Zhang%NULL%1,               Yadong%Yang%NULL%1,               Huibin%Feng%NULL%1,               Lixia%Yu%NULL%1,               Bing%Wang%NULL%1,               Zhiqiang%Li%NULL%1,               Yong%Peng%NULL%1,               Zubo%Shen%NULL%1,               Shouzhi%Fu%NULL%1,               Yaqi%Ouyang%NULL%1,               Jiqian%Xu%NULL%1,               Xiaojing%Zou%NULL%1,               Minghao%Fang%NULL%1,               Zhui%Yu%NULL%1,               Bo%Hu%NULL%1,               You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,        Arancibia%C%coreGivesNoEmail%1,        Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,        Bernal-Sprekelsen%M%coreGivesNoEmail%1,        Castro%P%coreGivesNoEmail%1,        de%Oss\u00f3 J%coreGivesNoEmail%1,        Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,        Guilemany%JM%coreGivesNoEmail%1,        Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,        Langdon%C%coreGivesNoEmail%1,        Larrosa%F%coreGivesNoEmail%1,        Lehrer-Coriat%E%coreGivesNoEmail%1,        L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,        Prieto%Alhambra D%coreGivesNoEmail%1,        Remacha%J%coreGivesNoEmail%1,        Ruiz-Sevilla%L%coreGivesNoEmail%1,        S\u00e1nchez%I%coreGivesNoEmail%1,        Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,    Joseph R.%Connors%xref no email%1,    Peter A.%Benedict%xref no email%1,    Micah R.%Timen%xref no email%1,    Binhuan%Wang%xref no email%1,    Yan%Zhang%xref no email%2,    Stephanie%Youlios%xref no email%1,    Kimberly%Sureau%xref no email%2,    Michael J.%Persky%xref no email%1,    Samaan%Rafeq%xref no email%2,    Luis%Angel%xref no email%1,    Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                Jakub%Fronczek%NULL%1,                Peter Vernon%van Heerden%NULL%1,                Hans%Flaatten%NULL%1,                Bertrand%Guidet%NULL%1,                Dylan W.%De Lange%NULL%1,                Jesper%Fjølner%NULL%1,                Susannah%Leaver%NULL%1,                Michael%Beil%NULL%1,                Sigal%Sviri%NULL%1,                Raphael Romano%Bruno%NULL%1,                Bernhard%Wernly%NULL%1,                Antonio%Artigas%NULL%1,                Bernardo Bollen%Pinto%NULL%1,                Joerg C.%Schefold%NULL%1,                Dorota%Studzińska%NULL%1,                Michael%Joannidis%NULL%1,                Sandra%Oeyen%NULL%1,                Brian%Marsh%NULL%1,                Finn H.%Andersen%NULL%1,                Rui%Moreno%NULL%1,                Maurizio%Cecconi%NULL%1,                Christian%Jung%NULL%1,                Wojciech%Szczeklik%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                Marc%Tobed%NULL%1,                José Miguel%Villacampa%NULL%1,                Adriana%Agüero%NULL%1,                Clara%García‐Bastida%NULL%1,                José Ignacio%Tato%NULL%1,                Laura%Rodrigáñez%NULL%1,                Victoria Duque%Holguera%NULL%1,                Estefanía%Hernández‐García%NULL%1,                Daniel%Poletti%NULL%1,                Gabriela%Simonetti%NULL%1,                Vanessa%Villarraga%NULL%1,                Carla%Meler‐Claramonte%NULL%1,                Álvaro%Sánchez Barrueco%NULL%1,                Carlos%Chiesa‐Estomba%NULL%1,                Maria%Casasayas%NULL%1,                Pablo%Parente‐Arias%NULL%1,                Nieves%Mata‐Castro%NULL%1,                Jordi%Rello%NULL%1,                Pedro%Castro%NULL%1,                Daniel%Prieto‐Alhambra%NULL%1,                Isabel%Vilaseca%NULL%1,                Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                P.%Stritoni%NULL%1,                I.%Battel%NULL%1,                B.%Zennaro%NULL%1,                F.%Lazzari%NULL%1,                M.%Bellin%NULL%1,                L.%Michieletto%NULL%1,                G.%Spinato%NULL%1,                C.%Busatto%NULL%1,                D.%Politi%NULL%1,                R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,    Nancy E.%Amoroso%xref no email%1,    Samaan%Rafeq%xref no email%0,    Brian%Mitzman%xref no email%1,    Ronald%Goldenberg%xref no email%1,    Saketh Palasamudram%Shekar%xref no email%1,    Andrea B.%Troxel%xref no email%1,    Yan%Zhang%xref no email%0,    Stephanie H%Chang%xref no email%1,    Paul%Kwak%xref no email%1,    Milan R.%Amin%xref no email%0,    Kimberly%Sureau%xref no email%0,    Heidi B.%Nafday%xref no email%1,    Sarun%Thomas%xref no email%1,    Zachary%Kon%xref no email%1,    Philip M.%Sommer%xref no email%1,    Leopoldo N.%Segal%xref no email%1,    William H.%Moore%xref no email%1,    Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                Francesco%Missale%NULL%1,                Irene%Schiavetti%NULL%1,                Marta%Filauro%NULL%1,                Francesca%Iannuzzi%NULL%1,                Alessandro%Ascoli%NULL%1,                Alberto%Bertazzoli%NULL%1,                Federico%Pascucci%NULL%1,                Salvatore%Grasso%NULL%1,                Francesco%Murgolo%NULL%1,                Simone%Binda%NULL%1,                Davide%Maraggia%NULL%1,                Giorgia%Montrucchio%NULL%1,                Gabriele%Sales%NULL%1,                Giuseppe%Pascarella%NULL%1,                Felice Eugenio%Agrò%NULL%1,                Gaia%Faccio%NULL%1,                Sandra%Ferraris%NULL%1,                Savino%Spadaro%NULL%1,                Giulia%Falò%NULL%1,                Nadia%Mereto%NULL%1,                Alessandro%Uva%NULL%1,                Jessica Giuseppina%Maugeri%NULL%1,                Bellissima%Agrippino%NULL%1,                Maria%Vargas%NULL%1,                Giuseppe%Servillo%NULL%1,                Chiara%Robba%NULL%1,                Lorenzo%Ball%NULL%1,                Francesco%Mora%NULL%1,                Alessio%Signori%NULL%1,                Antoni%Torres%NULL%1,                Daniele Roberto%Giacobbe%NULL%1,                Antonio%Vena%NULL%1,                Matteo%Bassetti%NULL%1,                Giorgio%Peretti%NULL%1,                Patricia R. M.%Rocco%NULL%1,                Paolo%Pelosi%NULL%1,                Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                Paul%Nankivell%NULL%1,                Neil%Sharma%NULL%1,                Mansoor N.%Bangash%NULL%1,                Camilla%Dawson%NULL%1,                Matthew%Idle%NULL%1,                Peter%Isherwood%NULL%1,                Christopher%Jennings%NULL%1,                Damian%Keene%NULL%1,                Mav%Manji%NULL%1,                Tim%Martin%NULL%1,                Rob%Moss%NULL%1,                Nick%Murphy%NULL%1,                Dhruv%Parekh%NULL%1,                Sat%Parmar%NULL%1,                Jaimin%Patel%NULL%1,                Paul%Pracy%NULL%1,                Prav%Praveen%NULL%1,                Carla%Richardson%NULL%1,                Alex%Richter%NULL%1,                Rajneesh%Sachdeva%NULL%1,                Adrian%Shields%NULL%1,                Somiah%Siddiq%NULL%1,                Simon%Smart%NULL%1,                Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                Yoshihisa%Miyamoto%NULL%1,                Matsuo%So%NULL%1,                Masao%Iwagami%NULL%1,                Mai%Takahashi%NULL%1,                Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                George Z.%Cheng%NULL%1,                Keriann%Van Nostrand%NULL%1,                Samira%Shojaee%NULL%1,                Max T.%Wayne%NULL%1,                Matthew%Abbott%NULL%1,                Darrell%Nettlow%NULL%1,                Alice%Parish%NULL%1,                Cynthia L.%Green%NULL%1,                Javeryah%Safi%NULL%1,                Michael J.%Brenner%NULL%1,                Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                C%Tornari%NULL%1,                N%Amin%NULL%1,                D%Wyncoll%NULL%1,                S%Tricklebank%NULL%1,                A%Arora%NULL%1,                I%Ahmad%NULL%1,                R%Simo%NULL%1,                P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                Yongran%Wu%NULL%1,                Fangfang%Zhu%NULL%1,                Xiaobo%Yang%NULL%1,                Chaolin%Huang%NULL%1,                Guo%Hou%NULL%1,                Wenhao%Xu%NULL%1,                Ming%Hu%NULL%1,                Lu%Zhang%NULL%1,                Aiguo%Cheng%NULL%1,                Zhengqin%Xu%NULL%1,                Boyi%Liu%NULL%1,                Song%Hu%NULL%1,                Guochao%Zhu%NULL%1,                Xuepeng%Fan%NULL%1,                Xijing%Zhang%NULL%1,                Yadong%Yang%NULL%1,                Huibin%Feng%NULL%1,                Lixia%Yu%NULL%1,                Bing%Wang%NULL%1,                Zhiqiang%Li%NULL%1,                Yong%Peng%NULL%1,                Zubo%Shen%NULL%1,                Shouzhi%Fu%NULL%1,                Yaqi%Ouyang%NULL%1,                Jiqian%Xu%NULL%1,                Xiaojing%Zou%NULL%1,                Minghao%Fang%NULL%1,                Zhui%Yu%NULL%1,                Bo%Hu%NULL%1,                You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1455,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1412,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1441,7 +1513,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1470,7 +1542,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1499,7 +1571,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1528,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1557,7 +1629,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1586,7 +1658,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1615,7 +1687,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1644,7 +1716,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1673,7 +1745,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1702,7 +1774,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="324">
   <si>
     <t>Doi</t>
   </si>
@@ -1113,6 +1113,103 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                Yongran%Wu%NULL%1,                Fangfang%Zhu%NULL%1,                Xiaobo%Yang%NULL%1,                Chaolin%Huang%NULL%1,                Guo%Hou%NULL%1,                Wenhao%Xu%NULL%1,                Ming%Hu%NULL%1,                Lu%Zhang%NULL%1,                Aiguo%Cheng%NULL%1,                Zhengqin%Xu%NULL%1,                Boyi%Liu%NULL%1,                Song%Hu%NULL%1,                Guochao%Zhu%NULL%1,                Xuepeng%Fan%NULL%1,                Xijing%Zhang%NULL%1,                Yadong%Yang%NULL%1,                Huibin%Feng%NULL%1,                Lixia%Yu%NULL%1,                Bing%Wang%NULL%1,                Zhiqiang%Li%NULL%1,                Yong%Peng%NULL%1,                Zubo%Shen%NULL%1,                Shouzhi%Fu%NULL%1,                Yaqi%Ouyang%NULL%1,                Jiqian%Xu%NULL%1,                Xiaojing%Zou%NULL%1,                Minghao%Fang%NULL%1,                Zhui%Yu%NULL%1,                Bo%Hu%NULL%1,                You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,         Arancibia%C%coreGivesNoEmail%1,         Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,         Bernal-Sprekelsen%M%coreGivesNoEmail%1,         Castro%P%coreGivesNoEmail%1,         de%Oss\u00f3 J%coreGivesNoEmail%1,         Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,         Guilemany%JM%coreGivesNoEmail%1,         Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,         Langdon%C%coreGivesNoEmail%1,         Larrosa%F%coreGivesNoEmail%1,         Lehrer-Coriat%E%coreGivesNoEmail%1,         L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,         Prieto%Alhambra D%coreGivesNoEmail%1,         Remacha%J%coreGivesNoEmail%1,         Ruiz-Sevilla%L%coreGivesNoEmail%1,         S\u00e1nchez%I%coreGivesNoEmail%1,         Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,     Joseph R.%Connors%xref no email%1,     Peter A.%Benedict%xref no email%1,     Micah R.%Timen%xref no email%1,     Binhuan%Wang%xref no email%1,     Yan%Zhang%xref no email%2,     Stephanie%Youlios%xref no email%1,     Kimberly%Sureau%xref no email%2,     Michael J.%Persky%xref no email%1,     Samaan%Rafeq%xref no email%2,     Luis%Angel%xref no email%1,     Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                 Jakub%Fronczek%NULL%1,                 Peter Vernon%van Heerden%NULL%1,                 Hans%Flaatten%NULL%1,                 Bertrand%Guidet%NULL%1,                 Dylan W.%De Lange%NULL%1,                 Jesper%Fjølner%NULL%1,                 Susannah%Leaver%NULL%1,                 Michael%Beil%NULL%1,                 Sigal%Sviri%NULL%1,                 Raphael Romano%Bruno%NULL%1,                 Bernhard%Wernly%NULL%1,                 Antonio%Artigas%NULL%1,                 Bernardo Bollen%Pinto%NULL%1,                 Joerg C.%Schefold%NULL%1,                 Dorota%Studzińska%NULL%1,                 Michael%Joannidis%NULL%1,                 Sandra%Oeyen%NULL%1,                 Brian%Marsh%NULL%1,                 Finn H.%Andersen%NULL%1,                 Rui%Moreno%NULL%1,                 Maurizio%Cecconi%NULL%1,                 Christian%Jung%NULL%1,                 Wojciech%Szczeklik%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                 Marc%Tobed%NULL%1,                 José Miguel%Villacampa%NULL%1,                 Adriana%Agüero%NULL%1,                 Clara%García‐Bastida%NULL%1,                 José Ignacio%Tato%NULL%1,                 Laura%Rodrigáñez%NULL%1,                 Victoria Duque%Holguera%NULL%1,                 Estefanía%Hernández‐García%NULL%1,                 Daniel%Poletti%NULL%1,                 Gabriela%Simonetti%NULL%1,                 Vanessa%Villarraga%NULL%1,                 Carla%Meler‐Claramonte%NULL%1,                 Álvaro%Sánchez Barrueco%NULL%1,                 Carlos%Chiesa‐Estomba%NULL%1,                 Maria%Casasayas%NULL%1,                 Pablo%Parente‐Arias%NULL%1,                 Nieves%Mata‐Castro%NULL%1,                 Jordi%Rello%NULL%1,                 Pedro%Castro%NULL%1,                 Daniel%Prieto‐Alhambra%NULL%1,                 Isabel%Vilaseca%NULL%1,                 Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+The need for prolonged invasive mechanical ventilation in COVID-19 patients is placing the otorhinolaryngologist in front of an increasing request for tracheostomy.
+ Nowadays, there is uncertainty regarding the timing of tracheostomy, the prognosis of these patients and the safety of healthcare workers.
+ The aim of this study is to evaluate the efficacy and safety of tracheostomy placement in patients with COVID-19.
+Methods
+A retrospective cohort study on 23 COVID 19 patients, to analyse the timing of tracheostomy, the risk factors associated with in-hospital death and the infection of the involved health care workers.
+ Early tracheostomy was defined as ≤ 10 days and late ones &amp;gt; 10 days.
+Results
+The mortality rate of COVID-19 patients admitted to ICU that underwent tracheostomy was 18%.
+ The overall mortality of patients admitted to ICU was 53%.
+ The univariate analysis revealed that early tracheostomy, SOFA score &amp;gt; 6, and D-dimer level &amp;gt; 4 were significantly associated with a greater risk of death.
+ At the multivariate analysis SOFA score &amp;gt; 6 and D-dimer level &amp;gt; 4 resulted as significant factors for a higher risk of death.
+ No health care workers associated with tracheostomy are confirmed to be infected by SARS-CoV2.
+Conclusion
+We suggest to wait at least 14 days to perform tracheostomy.
+ In patients with SOFA score &amp;gt; 6 and D dimer &amp;gt; 4, tracheostomy should not be performed or should be postponed.
+ Optimized procedures and enhanced personal protective equipment can make the tracheostomy safe and beneficial in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                 P.%Stritoni%NULL%1,                 I.%Battel%NULL%1,                 B.%Zennaro%NULL%1,                 F.%Lazzari%NULL%1,                 M.%Bellin%NULL%1,                 L.%Michieletto%NULL%1,                 G.%Spinato%NULL%1,                 C.%Busatto%NULL%1,                 D.%Politi%NULL%1,                 R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,     Nancy E.%Amoroso%xref no email%1,     Samaan%Rafeq%xref no email%0,     Brian%Mitzman%xref no email%1,     Ronald%Goldenberg%xref no email%1,     Saketh Palasamudram%Shekar%xref no email%1,     Andrea B.%Troxel%xref no email%1,     Yan%Zhang%xref no email%0,     Stephanie H%Chang%xref no email%1,     Paul%Kwak%xref no email%1,     Milan R.%Amin%xref no email%0,     Kimberly%Sureau%xref no email%0,     Heidi B.%Nafday%xref no email%1,     Sarun%Thomas%xref no email%1,     Zachary%Kon%xref no email%1,     Philip M.%Sommer%xref no email%1,     Leopoldo N.%Segal%xref no email%1,     William H.%Moore%xref no email%1,     Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                 Francesco%Missale%NULL%1,                 Irene%Schiavetti%NULL%1,                 Marta%Filauro%NULL%1,                 Francesca%Iannuzzi%NULL%1,                 Alessandro%Ascoli%NULL%1,                 Alberto%Bertazzoli%NULL%1,                 Federico%Pascucci%NULL%1,                 Salvatore%Grasso%NULL%1,                 Francesco%Murgolo%NULL%1,                 Simone%Binda%NULL%1,                 Davide%Maraggia%NULL%1,                 Giorgia%Montrucchio%NULL%1,                 Gabriele%Sales%NULL%1,                 Giuseppe%Pascarella%NULL%1,                 Felice Eugenio%Agrò%NULL%1,                 Gaia%Faccio%NULL%1,                 Sandra%Ferraris%NULL%1,                 Savino%Spadaro%NULL%1,                 Giulia%Falò%NULL%1,                 Nadia%Mereto%NULL%1,                 Alessandro%Uva%NULL%1,                 Jessica Giuseppina%Maugeri%NULL%1,                 Bellissima%Agrippino%NULL%1,                 Maria%Vargas%NULL%1,                 Giuseppe%Servillo%NULL%1,                 Chiara%Robba%NULL%1,                 Lorenzo%Ball%NULL%1,                 Francesco%Mora%NULL%1,                 Alessio%Signori%NULL%1,                 Antoni%Torres%NULL%1,                 Daniele Roberto%Giacobbe%NULL%1,                 Antonio%Vena%NULL%1,                 Matteo%Bassetti%NULL%1,                 Giorgio%Peretti%NULL%1,                 Patricia R. M.%Rocco%NULL%1,                 Paolo%Pelosi%NULL%1,                 Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                 Paul%Nankivell%NULL%1,                 Neil%Sharma%NULL%1,                 Mansoor N.%Bangash%NULL%1,                 Camilla%Dawson%NULL%1,                 Matthew%Idle%NULL%1,                 Peter%Isherwood%NULL%1,                 Christopher%Jennings%NULL%1,                 Damian%Keene%NULL%1,                 Mav%Manji%NULL%1,                 Tim%Martin%NULL%1,                 Rob%Moss%NULL%1,                 Nick%Murphy%NULL%1,                 Dhruv%Parekh%NULL%1,                 Sat%Parmar%NULL%1,                 Jaimin%Patel%NULL%1,                 Paul%Pracy%NULL%1,                 Prav%Praveen%NULL%1,                 Carla%Richardson%NULL%1,                 Alex%Richter%NULL%1,                 Rajneesh%Sachdeva%NULL%1,                 Adrian%Shields%NULL%1,                 Somiah%Siddiq%NULL%1,                 Simon%Smart%NULL%1,                 Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>Tracheostomy is performed for critically ill patients with prolonged endotracheal intubation including COVID-19 to mitigate the risk of airway complications.
+ We analyzed the difference in mortality of COVID-19 patients undergoing early tracheostomy within 14 days of intubation compared to later tracheostomy than 14 days after intubation.
+ The mortality was not significantly higher in early tracheostomy compared to later tracheostomy</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                 Yoshihisa%Miyamoto%NULL%1,                 Matsuo%So%NULL%1,                 Masao%Iwagami%NULL%1,                 Mai%Takahashi%NULL%1,                 Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                 George Z.%Cheng%NULL%1,                 Keriann%Van Nostrand%NULL%1,                 Samira%Shojaee%NULL%1,                 Max T.%Wayne%NULL%1,                 Matthew%Abbott%NULL%1,                 Darrell%Nettlow%NULL%1,                 Alice%Parish%NULL%1,                 Cynthia L.%Green%NULL%1,                 Javeryah%Safi%NULL%1,                 Michael J.%Brenner%NULL%1,                 Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                 C%Tornari%NULL%1,                 N%Amin%NULL%1,                 D%Wyncoll%NULL%1,                 S%Tricklebank%NULL%1,                 A%Arora%NULL%1,                 I%Ahmad%NULL%1,                 R%Simo%NULL%1,                 P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                 Yongran%Wu%NULL%1,                 Fangfang%Zhu%NULL%1,                 Xiaobo%Yang%NULL%1,                 Chaolin%Huang%NULL%1,                 Guo%Hou%NULL%1,                 Wenhao%Xu%NULL%1,                 Ming%Hu%NULL%1,                 Lu%Zhang%NULL%1,                 Aiguo%Cheng%NULL%1,                 Zhengqin%Xu%NULL%1,                 Boyi%Liu%NULL%1,                 Song%Hu%NULL%1,                 Guochao%Zhu%NULL%1,                 Xuepeng%Fan%NULL%1,                 Xijing%Zhang%NULL%1,                 Yadong%Yang%NULL%1,                 Huibin%Feng%NULL%1,                 Lixia%Yu%NULL%1,                 Bing%Wang%NULL%1,                 Zhiqiang%Li%NULL%1,                 Yong%Peng%NULL%1,                 Zubo%Shen%NULL%1,                 Shouzhi%Fu%NULL%1,                 Yaqi%Ouyang%NULL%1,                 Jiqian%Xu%NULL%1,                 Xiaojing%Zou%NULL%1,                 Minghao%Fang%NULL%1,                 Zhui%Yu%NULL%1,                 Bo%Hu%NULL%1,                 You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,          Arancibia%C%coreGivesNoEmail%1,          Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,          Bernal-Sprekelsen%M%coreGivesNoEmail%1,          Castro%P%coreGivesNoEmail%1,          de%Oss\u00f3 J%coreGivesNoEmail%1,          Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,          Guilemany%JM%coreGivesNoEmail%1,          Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,          Langdon%C%coreGivesNoEmail%1,          Larrosa%F%coreGivesNoEmail%1,          Lehrer-Coriat%E%coreGivesNoEmail%1,          L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,          Prieto%Alhambra D%coreGivesNoEmail%1,          Remacha%J%coreGivesNoEmail%1,          Ruiz-Sevilla%L%coreGivesNoEmail%1,          S\u00e1nchez%I%coreGivesNoEmail%1,          Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,      Joseph R.%Connors%xref no email%1,      Peter A.%Benedict%xref no email%1,      Micah R.%Timen%xref no email%1,      Binhuan%Wang%xref no email%1,      Yan%Zhang%xref no email%2,      Stephanie%Youlios%xref no email%1,      Kimberly%Sureau%xref no email%2,      Michael J.%Persky%xref no email%1,      Samaan%Rafeq%xref no email%2,      Luis%Angel%xref no email%1,      Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                  Jakub%Fronczek%NULL%1,                  Peter Vernon%van Heerden%NULL%1,                  Hans%Flaatten%NULL%1,                  Bertrand%Guidet%NULL%1,                  Dylan W.%De Lange%NULL%1,                  Jesper%Fjølner%NULL%1,                  Susannah%Leaver%NULL%1,                  Michael%Beil%NULL%1,                  Sigal%Sviri%NULL%1,                  Raphael Romano%Bruno%NULL%1,                  Bernhard%Wernly%NULL%1,                  Antonio%Artigas%NULL%1,                  Bernardo Bollen%Pinto%NULL%1,                  Joerg C.%Schefold%NULL%1,                  Dorota%Studzińska%NULL%1,                  Michael%Joannidis%NULL%1,                  Sandra%Oeyen%NULL%1,                  Brian%Marsh%NULL%1,                  Finn H.%Andersen%NULL%1,                  Rui%Moreno%NULL%1,                  Maurizio%Cecconi%NULL%1,                  Christian%Jung%NULL%1,                  Wojciech%Szczeklik%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                  Marc%Tobed%NULL%1,                  José Miguel%Villacampa%NULL%1,                  Adriana%Agüero%NULL%1,                  Clara%García‐Bastida%NULL%1,                  José Ignacio%Tato%NULL%1,                  Laura%Rodrigáñez%NULL%1,                  Victoria Duque%Holguera%NULL%1,                  Estefanía%Hernández‐García%NULL%1,                  Daniel%Poletti%NULL%1,                  Gabriela%Simonetti%NULL%1,                  Vanessa%Villarraga%NULL%1,                  Carla%Meler‐Claramonte%NULL%1,                  Álvaro%Sánchez Barrueco%NULL%1,                  Carlos%Chiesa‐Estomba%NULL%1,                  Maria%Casasayas%NULL%1,                  Pablo%Parente‐Arias%NULL%1,                  Nieves%Mata‐Castro%NULL%1,                  Jordi%Rello%NULL%1,                  Pedro%Castro%NULL%1,                  Daniel%Prieto‐Alhambra%NULL%1,                  Isabel%Vilaseca%NULL%1,                  Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                  P.%Stritoni%NULL%1,                  I.%Battel%NULL%1,                  B.%Zennaro%NULL%1,                  F.%Lazzari%NULL%1,                  M.%Bellin%NULL%1,                  L.%Michieletto%NULL%1,                  G.%Spinato%NULL%1,                  C.%Busatto%NULL%1,                  D.%Politi%NULL%1,                  R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,      Nancy E.%Amoroso%xref no email%1,      Samaan%Rafeq%xref no email%0,      Brian%Mitzman%xref no email%1,      Ronald%Goldenberg%xref no email%1,      Saketh Palasamudram%Shekar%xref no email%1,      Andrea B.%Troxel%xref no email%1,      Yan%Zhang%xref no email%0,      Stephanie H%Chang%xref no email%1,      Paul%Kwak%xref no email%1,      Milan R.%Amin%xref no email%0,      Kimberly%Sureau%xref no email%0,      Heidi B.%Nafday%xref no email%1,      Sarun%Thomas%xref no email%1,      Zachary%Kon%xref no email%1,      Philip M.%Sommer%xref no email%1,      Leopoldo N.%Segal%xref no email%1,      William H.%Moore%xref no email%1,      Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                  Francesco%Missale%NULL%1,                  Irene%Schiavetti%NULL%1,                  Marta%Filauro%NULL%1,                  Francesca%Iannuzzi%NULL%1,                  Alessandro%Ascoli%NULL%1,                  Alberto%Bertazzoli%NULL%1,                  Federico%Pascucci%NULL%1,                  Salvatore%Grasso%NULL%1,                  Francesco%Murgolo%NULL%1,                  Simone%Binda%NULL%1,                  Davide%Maraggia%NULL%1,                  Giorgia%Montrucchio%NULL%1,                  Gabriele%Sales%NULL%1,                  Giuseppe%Pascarella%NULL%1,                  Felice Eugenio%Agrò%NULL%1,                  Gaia%Faccio%NULL%1,                  Sandra%Ferraris%NULL%1,                  Savino%Spadaro%NULL%1,                  Giulia%Falò%NULL%1,                  Nadia%Mereto%NULL%1,                  Alessandro%Uva%NULL%1,                  Jessica Giuseppina%Maugeri%NULL%1,                  Bellissima%Agrippino%NULL%1,                  Maria%Vargas%NULL%1,                  Giuseppe%Servillo%NULL%1,                  Chiara%Robba%NULL%1,                  Lorenzo%Ball%NULL%1,                  Francesco%Mora%NULL%1,                  Alessio%Signori%NULL%1,                  Antoni%Torres%NULL%1,                  Daniele Roberto%Giacobbe%NULL%1,                  Antonio%Vena%NULL%1,                  Matteo%Bassetti%NULL%1,                  Giorgio%Peretti%NULL%1,                  Patricia R. M.%Rocco%NULL%1,                  Paolo%Pelosi%NULL%1,                  Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                  Paul%Nankivell%NULL%1,                  Neil%Sharma%NULL%1,                  Mansoor N.%Bangash%NULL%1,                  Camilla%Dawson%NULL%1,                  Matthew%Idle%NULL%1,                  Peter%Isherwood%NULL%1,                  Christopher%Jennings%NULL%1,                  Damian%Keene%NULL%1,                  Mav%Manji%NULL%1,                  Tim%Martin%NULL%1,                  Rob%Moss%NULL%1,                  Nick%Murphy%NULL%1,                  Dhruv%Parekh%NULL%1,                  Sat%Parmar%NULL%1,                  Jaimin%Patel%NULL%1,                  Paul%Pracy%NULL%1,                  Prav%Praveen%NULL%1,                  Carla%Richardson%NULL%1,                  Alex%Richter%NULL%1,                  Rajneesh%Sachdeva%NULL%1,                  Adrian%Shields%NULL%1,                  Somiah%Siddiq%NULL%1,                  Simon%Smart%NULL%1,                  Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                  Yoshihisa%Miyamoto%NULL%1,                  Matsuo%So%NULL%1,                  Masao%Iwagami%NULL%1,                  Mai%Takahashi%NULL%1,                  Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                  George Z.%Cheng%NULL%1,                  Keriann%Van Nostrand%NULL%1,                  Samira%Shojaee%NULL%1,                  Max T.%Wayne%NULL%1,                  Matthew%Abbott%NULL%1,                  Darrell%Nettlow%NULL%1,                  Alice%Parish%NULL%1,                  Cynthia L.%Green%NULL%1,                  Javeryah%Safi%NULL%1,                  Michael J.%Brenner%NULL%1,                  Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                  C%Tornari%NULL%1,                  N%Amin%NULL%1,                  D%Wyncoll%NULL%1,                  S%Tricklebank%NULL%1,                  A%Arora%NULL%1,                  I%Ahmad%NULL%1,                  R%Simo%NULL%1,                  P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                  Yongran%Wu%NULL%1,                  Fangfang%Zhu%NULL%1,                  Xiaobo%Yang%NULL%1,                  Chaolin%Huang%NULL%1,                  Guo%Hou%NULL%1,                  Wenhao%Xu%NULL%1,                  Ming%Hu%NULL%1,                  Lu%Zhang%NULL%1,                  Aiguo%Cheng%NULL%1,                  Zhengqin%Xu%NULL%1,                  Boyi%Liu%NULL%1,                  Song%Hu%NULL%1,                  Guochao%Zhu%NULL%1,                  Xuepeng%Fan%NULL%1,                  Xijing%Zhang%NULL%1,                  Yadong%Yang%NULL%1,                  Huibin%Feng%NULL%1,                  Lixia%Yu%NULL%1,                  Bing%Wang%NULL%1,                  Zhiqiang%Li%NULL%1,                  Yong%Peng%NULL%1,                  Zubo%Shen%NULL%1,                  Shouzhi%Fu%NULL%1,                  Yaqi%Ouyang%NULL%1,                  Jiqian%Xu%NULL%1,                  Xiaojing%Zou%NULL%1,                  Minghao%Fang%NULL%1,                  Zhui%Yu%NULL%1,                  Bo%Hu%NULL%1,                  You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1552,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1484,7 +1581,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1513,7 +1610,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1542,7 +1639,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1568,10 +1665,10 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1600,7 +1697,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1629,7 +1726,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1658,7 +1755,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1684,10 +1781,10 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1716,7 +1813,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1745,7 +1842,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1774,7 +1871,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="336">
   <si>
     <t>Doi</t>
   </si>
@@ -1210,6 +1210,42 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                  Yongran%Wu%NULL%1,                  Fangfang%Zhu%NULL%1,                  Xiaobo%Yang%NULL%1,                  Chaolin%Huang%NULL%1,                  Guo%Hou%NULL%1,                  Wenhao%Xu%NULL%1,                  Ming%Hu%NULL%1,                  Lu%Zhang%NULL%1,                  Aiguo%Cheng%NULL%1,                  Zhengqin%Xu%NULL%1,                  Boyi%Liu%NULL%1,                  Song%Hu%NULL%1,                  Guochao%Zhu%NULL%1,                  Xuepeng%Fan%NULL%1,                  Xijing%Zhang%NULL%1,                  Yadong%Yang%NULL%1,                  Huibin%Feng%NULL%1,                  Lixia%Yu%NULL%1,                  Bing%Wang%NULL%1,                  Zhiqiang%Li%NULL%1,                  Yong%Peng%NULL%1,                  Zubo%Shen%NULL%1,                  Shouzhi%Fu%NULL%1,                  Yaqi%Ouyang%NULL%1,                  Jiqian%Xu%NULL%1,                  Xiaojing%Zou%NULL%1,                  Minghao%Fang%NULL%1,                  Zhui%Yu%NULL%1,                  Bo%Hu%NULL%1,                  You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,           Arancibia%C%coreGivesNoEmail%1,           Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,           Bernal-Sprekelsen%M%coreGivesNoEmail%1,           Castro%P%coreGivesNoEmail%1,           de%Oss\u00f3 J%coreGivesNoEmail%1,           Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,           Guilemany%JM%coreGivesNoEmail%1,           Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,           Langdon%C%coreGivesNoEmail%1,           Larrosa%F%coreGivesNoEmail%1,           Lehrer-Coriat%E%coreGivesNoEmail%1,           L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,           Prieto%Alhambra D%coreGivesNoEmail%1,           Remacha%J%coreGivesNoEmail%1,           Ruiz-Sevilla%L%coreGivesNoEmail%1,           S\u00e1nchez%I%coreGivesNoEmail%1,           Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,       Joseph R.%Connors%xref no email%1,       Peter A.%Benedict%xref no email%1,       Micah R.%Timen%xref no email%1,       Binhuan%Wang%xref no email%1,       Yan%Zhang%xref no email%2,       Stephanie%Youlios%xref no email%1,       Kimberly%Sureau%xref no email%2,       Michael J.%Persky%xref no email%1,       Samaan%Rafeq%xref no email%2,       Luis%Angel%xref no email%1,       Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                   Jakub%Fronczek%NULL%1,                   Peter Vernon%van Heerden%NULL%1,                   Hans%Flaatten%NULL%1,                   Bertrand%Guidet%NULL%1,                   Dylan W.%De Lange%NULL%1,                   Jesper%Fjølner%NULL%1,                   Susannah%Leaver%NULL%1,                   Michael%Beil%NULL%1,                   Sigal%Sviri%NULL%1,                   Raphael Romano%Bruno%NULL%1,                   Bernhard%Wernly%NULL%1,                   Antonio%Artigas%NULL%1,                   Bernardo Bollen%Pinto%NULL%1,                   Joerg C.%Schefold%NULL%1,                   Dorota%Studzińska%NULL%1,                   Michael%Joannidis%NULL%1,                   Sandra%Oeyen%NULL%1,                   Brian%Marsh%NULL%1,                   Finn H.%Andersen%NULL%1,                   Rui%Moreno%NULL%1,                   Maurizio%Cecconi%NULL%1,                   Christian%Jung%NULL%1,                   Wojciech%Szczeklik%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                   Marc%Tobed%NULL%1,                   José Miguel%Villacampa%NULL%1,                   Adriana%Agüero%NULL%1,                   Clara%García‐Bastida%NULL%1,                   José Ignacio%Tato%NULL%1,                   Laura%Rodrigáñez%NULL%1,                   Victoria Duque%Holguera%NULL%1,                   Estefanía%Hernández‐García%NULL%1,                   Daniel%Poletti%NULL%1,                   Gabriela%Simonetti%NULL%1,                   Vanessa%Villarraga%NULL%1,                   Carla%Meler‐Claramonte%NULL%1,                   Álvaro%Sánchez Barrueco%NULL%1,                   Carlos%Chiesa‐Estomba%NULL%1,                   Maria%Casasayas%NULL%1,                   Pablo%Parente‐Arias%NULL%1,                   Nieves%Mata‐Castro%NULL%1,                   Jordi%Rello%NULL%1,                   Pedro%Castro%NULL%1,                   Daniel%Prieto‐Alhambra%NULL%1,                   Isabel%Vilaseca%NULL%1,                   Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                   P.%Stritoni%NULL%1,                   I.%Battel%NULL%1,                   B.%Zennaro%NULL%1,                   F.%Lazzari%NULL%1,                   M.%Bellin%NULL%1,                   L.%Michieletto%NULL%1,                   G.%Spinato%NULL%1,                   C.%Busatto%NULL%1,                   D.%Politi%NULL%1,                   R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,       Nancy E.%Amoroso%xref no email%1,       Samaan%Rafeq%xref no email%0,       Brian%Mitzman%xref no email%1,       Ronald%Goldenberg%xref no email%1,       Saketh Palasamudram%Shekar%xref no email%1,       Andrea B.%Troxel%xref no email%1,       Yan%Zhang%xref no email%0,       Stephanie H%Chang%xref no email%1,       Paul%Kwak%xref no email%1,       Milan R.%Amin%xref no email%0,       Kimberly%Sureau%xref no email%0,       Heidi B.%Nafday%xref no email%1,       Sarun%Thomas%xref no email%1,       Zachary%Kon%xref no email%1,       Philip M.%Sommer%xref no email%1,       Leopoldo N.%Segal%xref no email%1,       William H.%Moore%xref no email%1,       Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                   Francesco%Missale%NULL%1,                   Irene%Schiavetti%NULL%1,                   Marta%Filauro%NULL%1,                   Francesca%Iannuzzi%NULL%1,                   Alessandro%Ascoli%NULL%1,                   Alberto%Bertazzoli%NULL%1,                   Federico%Pascucci%NULL%1,                   Salvatore%Grasso%NULL%1,                   Francesco%Murgolo%NULL%1,                   Simone%Binda%NULL%1,                   Davide%Maraggia%NULL%1,                   Giorgia%Montrucchio%NULL%1,                   Gabriele%Sales%NULL%1,                   Giuseppe%Pascarella%NULL%1,                   Felice Eugenio%Agrò%NULL%1,                   Gaia%Faccio%NULL%1,                   Sandra%Ferraris%NULL%1,                   Savino%Spadaro%NULL%1,                   Giulia%Falò%NULL%1,                   Nadia%Mereto%NULL%1,                   Alessandro%Uva%NULL%1,                   Jessica Giuseppina%Maugeri%NULL%1,                   Bellissima%Agrippino%NULL%1,                   Maria%Vargas%NULL%1,                   Giuseppe%Servillo%NULL%1,                   Chiara%Robba%NULL%1,                   Lorenzo%Ball%NULL%1,                   Francesco%Mora%NULL%1,                   Alessio%Signori%NULL%1,                   Antoni%Torres%NULL%1,                   Daniele Roberto%Giacobbe%NULL%1,                   Antonio%Vena%NULL%1,                   Matteo%Bassetti%NULL%1,                   Giorgio%Peretti%NULL%1,                   Patricia R. M.%Rocco%NULL%1,                   Paolo%Pelosi%NULL%1,                   Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                   Paul%Nankivell%NULL%1,                   Neil%Sharma%NULL%1,                   Mansoor N.%Bangash%NULL%1,                   Camilla%Dawson%NULL%1,                   Matthew%Idle%NULL%1,                   Peter%Isherwood%NULL%1,                   Christopher%Jennings%NULL%1,                   Damian%Keene%NULL%1,                   Mav%Manji%NULL%1,                   Tim%Martin%NULL%1,                   Rob%Moss%NULL%1,                   Nick%Murphy%NULL%1,                   Dhruv%Parekh%NULL%1,                   Sat%Parmar%NULL%1,                   Jaimin%Patel%NULL%1,                   Paul%Pracy%NULL%1,                   Prav%Praveen%NULL%1,                   Carla%Richardson%NULL%1,                   Alex%Richter%NULL%1,                   Rajneesh%Sachdeva%NULL%1,                   Adrian%Shields%NULL%1,                   Somiah%Siddiq%NULL%1,                   Simon%Smart%NULL%1,                   Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                   Yoshihisa%Miyamoto%NULL%1,                   Matsuo%So%NULL%1,                   Masao%Iwagami%NULL%1,                   Mai%Takahashi%NULL%1,                   Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                   George Z.%Cheng%NULL%1,                   Keriann%Van Nostrand%NULL%1,                   Samira%Shojaee%NULL%1,                   Max T.%Wayne%NULL%1,                   Matthew%Abbott%NULL%1,                   Darrell%Nettlow%NULL%1,                   Alice%Parish%NULL%1,                   Cynthia L.%Green%NULL%1,                   Javeryah%Safi%NULL%1,                   Michael J.%Brenner%NULL%1,                   Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                   C%Tornari%NULL%1,                   N%Amin%NULL%1,                   D%Wyncoll%NULL%1,                   S%Tricklebank%NULL%1,                   A%Arora%NULL%1,                   I%Ahmad%NULL%1,                   R%Simo%NULL%1,                   P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                   Yongran%Wu%NULL%1,                   Fangfang%Zhu%NULL%1,                   Xiaobo%Yang%NULL%1,                   Chaolin%Huang%NULL%1,                   Guo%Hou%NULL%1,                   Wenhao%Xu%NULL%1,                   Ming%Hu%NULL%1,                   Lu%Zhang%NULL%1,                   Aiguo%Cheng%NULL%1,                   Zhengqin%Xu%NULL%1,                   Boyi%Liu%NULL%1,                   Song%Hu%NULL%1,                   Guochao%Zhu%NULL%1,                   Xuepeng%Fan%NULL%1,                   Xijing%Zhang%NULL%1,                   Yadong%Yang%NULL%1,                   Huibin%Feng%NULL%1,                   Lixia%Yu%NULL%1,                   Bing%Wang%NULL%1,                   Zhiqiang%Li%NULL%1,                   Yong%Peng%NULL%1,                   Zubo%Shen%NULL%1,                   Shouzhi%Fu%NULL%1,                   Yaqi%Ouyang%NULL%1,                   Jiqian%Xu%NULL%1,                   Xiaojing%Zou%NULL%1,                   Minghao%Fang%NULL%1,                   Zhui%Yu%NULL%1,                   Bo%Hu%NULL%1,                   You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1588,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1581,7 +1617,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1610,7 +1646,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1639,7 +1675,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1668,7 +1704,7 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1697,7 +1733,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1726,7 +1762,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1755,7 +1791,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1784,7 +1820,7 @@
         <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1813,7 +1849,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1842,7 +1878,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1871,7 +1907,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="348">
   <si>
     <t>Doi</t>
   </si>
@@ -1246,6 +1246,42 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                   Yongran%Wu%NULL%1,                   Fangfang%Zhu%NULL%1,                   Xiaobo%Yang%NULL%1,                   Chaolin%Huang%NULL%1,                   Guo%Hou%NULL%1,                   Wenhao%Xu%NULL%1,                   Ming%Hu%NULL%1,                   Lu%Zhang%NULL%1,                   Aiguo%Cheng%NULL%1,                   Zhengqin%Xu%NULL%1,                   Boyi%Liu%NULL%1,                   Song%Hu%NULL%1,                   Guochao%Zhu%NULL%1,                   Xuepeng%Fan%NULL%1,                   Xijing%Zhang%NULL%1,                   Yadong%Yang%NULL%1,                   Huibin%Feng%NULL%1,                   Lixia%Yu%NULL%1,                   Bing%Wang%NULL%1,                   Zhiqiang%Li%NULL%1,                   Yong%Peng%NULL%1,                   Zubo%Shen%NULL%1,                   Shouzhi%Fu%NULL%1,                   Yaqi%Ouyang%NULL%1,                   Jiqian%Xu%NULL%1,                   Xiaojing%Zou%NULL%1,                   Minghao%Fang%NULL%1,                   Zhui%Yu%NULL%1,                   Bo%Hu%NULL%1,                   You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,            Arancibia%C%coreGivesNoEmail%1,            Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,            Bernal-Sprekelsen%M%coreGivesNoEmail%1,            Castro%P%coreGivesNoEmail%1,            de%Oss\u00f3 J%coreGivesNoEmail%1,            Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,            Guilemany%JM%coreGivesNoEmail%1,            Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,            Langdon%C%coreGivesNoEmail%1,            Larrosa%F%coreGivesNoEmail%1,            Lehrer-Coriat%E%coreGivesNoEmail%1,            L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,            Prieto%Alhambra D%coreGivesNoEmail%1,            Remacha%J%coreGivesNoEmail%1,            Ruiz-Sevilla%L%coreGivesNoEmail%1,            S\u00e1nchez%I%coreGivesNoEmail%1,            Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,        Joseph R.%Connors%xref no email%1,        Peter A.%Benedict%xref no email%1,        Micah R.%Timen%xref no email%1,        Binhuan%Wang%xref no email%1,        Yan%Zhang%xref no email%2,        Stephanie%Youlios%xref no email%1,        Kimberly%Sureau%xref no email%2,        Michael J.%Persky%xref no email%1,        Samaan%Rafeq%xref no email%2,        Luis%Angel%xref no email%1,        Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                    Jakub%Fronczek%NULL%1,                    Peter Vernon%van Heerden%NULL%1,                    Hans%Flaatten%NULL%1,                    Bertrand%Guidet%NULL%1,                    Dylan W.%De Lange%NULL%1,                    Jesper%Fjølner%NULL%1,                    Susannah%Leaver%NULL%1,                    Michael%Beil%NULL%1,                    Sigal%Sviri%NULL%1,                    Raphael Romano%Bruno%NULL%1,                    Bernhard%Wernly%NULL%1,                    Antonio%Artigas%NULL%1,                    Bernardo Bollen%Pinto%NULL%1,                    Joerg C.%Schefold%NULL%1,                    Dorota%Studzińska%NULL%1,                    Michael%Joannidis%NULL%1,                    Sandra%Oeyen%NULL%1,                    Brian%Marsh%NULL%1,                    Finn H.%Andersen%NULL%1,                    Rui%Moreno%NULL%1,                    Maurizio%Cecconi%NULL%1,                    Christian%Jung%NULL%1,                    Wojciech%Szczeklik%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                    Marc%Tobed%NULL%1,                    José Miguel%Villacampa%NULL%1,                    Adriana%Agüero%NULL%1,                    Clara%García‐Bastida%NULL%1,                    José Ignacio%Tato%NULL%1,                    Laura%Rodrigáñez%NULL%1,                    Victoria Duque%Holguera%NULL%1,                    Estefanía%Hernández‐García%NULL%1,                    Daniel%Poletti%NULL%1,                    Gabriela%Simonetti%NULL%1,                    Vanessa%Villarraga%NULL%1,                    Carla%Meler‐Claramonte%NULL%1,                    Álvaro%Sánchez Barrueco%NULL%1,                    Carlos%Chiesa‐Estomba%NULL%1,                    Maria%Casasayas%NULL%1,                    Pablo%Parente‐Arias%NULL%1,                    Nieves%Mata‐Castro%NULL%1,                    Jordi%Rello%NULL%1,                    Pedro%Castro%NULL%1,                    Daniel%Prieto‐Alhambra%NULL%1,                    Isabel%Vilaseca%NULL%1,                    Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                    P.%Stritoni%NULL%1,                    I.%Battel%NULL%1,                    B.%Zennaro%NULL%1,                    F.%Lazzari%NULL%1,                    M.%Bellin%NULL%1,                    L.%Michieletto%NULL%1,                    G.%Spinato%NULL%1,                    C.%Busatto%NULL%1,                    D.%Politi%NULL%1,                    R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,        Nancy E.%Amoroso%xref no email%1,        Samaan%Rafeq%xref no email%0,        Brian%Mitzman%xref no email%1,        Ronald%Goldenberg%xref no email%1,        Saketh Palasamudram%Shekar%xref no email%1,        Andrea B.%Troxel%xref no email%1,        Yan%Zhang%xref no email%0,        Stephanie H%Chang%xref no email%1,        Paul%Kwak%xref no email%1,        Milan R.%Amin%xref no email%0,        Kimberly%Sureau%xref no email%0,        Heidi B.%Nafday%xref no email%1,        Sarun%Thomas%xref no email%1,        Zachary%Kon%xref no email%1,        Philip M.%Sommer%xref no email%1,        Leopoldo N.%Segal%xref no email%1,        William H.%Moore%xref no email%1,        Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                    Francesco%Missale%NULL%1,                    Irene%Schiavetti%NULL%1,                    Marta%Filauro%NULL%1,                    Francesca%Iannuzzi%NULL%1,                    Alessandro%Ascoli%NULL%1,                    Alberto%Bertazzoli%NULL%1,                    Federico%Pascucci%NULL%1,                    Salvatore%Grasso%NULL%1,                    Francesco%Murgolo%NULL%1,                    Simone%Binda%NULL%1,                    Davide%Maraggia%NULL%1,                    Giorgia%Montrucchio%NULL%1,                    Gabriele%Sales%NULL%1,                    Giuseppe%Pascarella%NULL%1,                    Felice Eugenio%Agrò%NULL%1,                    Gaia%Faccio%NULL%1,                    Sandra%Ferraris%NULL%1,                    Savino%Spadaro%NULL%1,                    Giulia%Falò%NULL%1,                    Nadia%Mereto%NULL%1,                    Alessandro%Uva%NULL%1,                    Jessica Giuseppina%Maugeri%NULL%1,                    Bellissima%Agrippino%NULL%1,                    Maria%Vargas%NULL%1,                    Giuseppe%Servillo%NULL%1,                    Chiara%Robba%NULL%1,                    Lorenzo%Ball%NULL%1,                    Francesco%Mora%NULL%1,                    Alessio%Signori%NULL%1,                    Antoni%Torres%NULL%1,                    Daniele Roberto%Giacobbe%NULL%1,                    Antonio%Vena%NULL%1,                    Matteo%Bassetti%NULL%1,                    Giorgio%Peretti%NULL%1,                    Patricia R. M.%Rocco%NULL%1,                    Paolo%Pelosi%NULL%1,                    Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                    Paul%Nankivell%NULL%1,                    Neil%Sharma%NULL%1,                    Mansoor N.%Bangash%NULL%1,                    Camilla%Dawson%NULL%1,                    Matthew%Idle%NULL%1,                    Peter%Isherwood%NULL%1,                    Christopher%Jennings%NULL%1,                    Damian%Keene%NULL%1,                    Mav%Manji%NULL%1,                    Tim%Martin%NULL%1,                    Rob%Moss%NULL%1,                    Nick%Murphy%NULL%1,                    Dhruv%Parekh%NULL%1,                    Sat%Parmar%NULL%1,                    Jaimin%Patel%NULL%1,                    Paul%Pracy%NULL%1,                    Prav%Praveen%NULL%1,                    Carla%Richardson%NULL%1,                    Alex%Richter%NULL%1,                    Rajneesh%Sachdeva%NULL%1,                    Adrian%Shields%NULL%1,                    Somiah%Siddiq%NULL%1,                    Simon%Smart%NULL%1,                    Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                    Yoshihisa%Miyamoto%NULL%1,                    Matsuo%So%NULL%1,                    Masao%Iwagami%NULL%1,                    Mai%Takahashi%NULL%1,                    Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                    George Z.%Cheng%NULL%1,                    Keriann%Van Nostrand%NULL%1,                    Samira%Shojaee%NULL%1,                    Max T.%Wayne%NULL%1,                    Matthew%Abbott%NULL%1,                    Darrell%Nettlow%NULL%1,                    Alice%Parish%NULL%1,                    Cynthia L.%Green%NULL%1,                    Javeryah%Safi%NULL%1,                    Michael J.%Brenner%NULL%1,                    Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                    C%Tornari%NULL%1,                    N%Amin%NULL%1,                    D%Wyncoll%NULL%1,                    S%Tricklebank%NULL%1,                    A%Arora%NULL%1,                    I%Ahmad%NULL%1,                    R%Simo%NULL%1,                    P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                    Yongran%Wu%NULL%1,                    Fangfang%Zhu%NULL%1,                    Xiaobo%Yang%NULL%1,                    Chaolin%Huang%NULL%1,                    Guo%Hou%NULL%1,                    Wenhao%Xu%NULL%1,                    Ming%Hu%NULL%1,                    Lu%Zhang%NULL%1,                    Aiguo%Cheng%NULL%1,                    Zhengqin%Xu%NULL%1,                    Boyi%Liu%NULL%1,                    Song%Hu%NULL%1,                    Guochao%Zhu%NULL%1,                    Xuepeng%Fan%NULL%1,                    Xijing%Zhang%NULL%1,                    Yadong%Yang%NULL%1,                    Huibin%Feng%NULL%1,                    Lixia%Yu%NULL%1,                    Bing%Wang%NULL%1,                    Zhiqiang%Li%NULL%1,                    Yong%Peng%NULL%1,                    Zubo%Shen%NULL%1,                    Shouzhi%Fu%NULL%1,                    Yaqi%Ouyang%NULL%1,                    Jiqian%Xu%NULL%1,                    Xiaojing%Zou%NULL%1,                    Minghao%Fang%NULL%1,                    Zhui%Yu%NULL%1,                    Bo%Hu%NULL%1,                    You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1624,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1617,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1646,7 +1682,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1675,7 +1711,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1704,7 +1740,7 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1733,7 +1769,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1762,7 +1798,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1791,7 +1827,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1820,7 +1856,7 @@
         <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1849,7 +1885,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1878,7 +1914,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1907,7 +1943,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="372">
   <si>
     <t>Doi</t>
   </si>
@@ -1282,6 +1282,78 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                    Yongran%Wu%NULL%1,                    Fangfang%Zhu%NULL%1,                    Xiaobo%Yang%NULL%1,                    Chaolin%Huang%NULL%1,                    Guo%Hou%NULL%1,                    Wenhao%Xu%NULL%1,                    Ming%Hu%NULL%1,                    Lu%Zhang%NULL%1,                    Aiguo%Cheng%NULL%1,                    Zhengqin%Xu%NULL%1,                    Boyi%Liu%NULL%1,                    Song%Hu%NULL%1,                    Guochao%Zhu%NULL%1,                    Xuepeng%Fan%NULL%1,                    Xijing%Zhang%NULL%1,                    Yadong%Yang%NULL%1,                    Huibin%Feng%NULL%1,                    Lixia%Yu%NULL%1,                    Bing%Wang%NULL%1,                    Zhiqiang%Li%NULL%1,                    Yong%Peng%NULL%1,                    Zubo%Shen%NULL%1,                    Shouzhi%Fu%NULL%1,                    Yaqi%Ouyang%NULL%1,                    Jiqian%Xu%NULL%1,                    Xiaojing%Zou%NULL%1,                    Minghao%Fang%NULL%1,                    Zhui%Yu%NULL%1,                    Bo%Hu%NULL%1,                    You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,             Arancibia%C%coreGivesNoEmail%1,             Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,             Bernal-Sprekelsen%M%coreGivesNoEmail%1,             Castro%P%coreGivesNoEmail%1,             de%Oss\u00f3 J%coreGivesNoEmail%1,             Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,             Guilemany%JM%coreGivesNoEmail%1,             Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,             Langdon%C%coreGivesNoEmail%1,             Larrosa%F%coreGivesNoEmail%1,             Lehrer-Coriat%E%coreGivesNoEmail%1,             L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,             Prieto%Alhambra D%coreGivesNoEmail%1,             Remacha%J%coreGivesNoEmail%1,             Ruiz-Sevilla%L%coreGivesNoEmail%1,             S\u00e1nchez%I%coreGivesNoEmail%1,             Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,         Joseph R.%Connors%xref no email%1,         Peter A.%Benedict%xref no email%1,         Micah R.%Timen%xref no email%1,         Binhuan%Wang%xref no email%1,         Yan%Zhang%xref no email%2,         Stephanie%Youlios%xref no email%1,         Kimberly%Sureau%xref no email%2,         Michael J.%Persky%xref no email%1,         Samaan%Rafeq%xref no email%2,         Luis%Angel%xref no email%1,         Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                     Jakub%Fronczek%NULL%1,                     Peter Vernon%van Heerden%NULL%1,                     Hans%Flaatten%NULL%1,                     Bertrand%Guidet%NULL%1,                     Dylan W.%De Lange%NULL%1,                     Jesper%Fjølner%NULL%1,                     Susannah%Leaver%NULL%1,                     Michael%Beil%NULL%1,                     Sigal%Sviri%NULL%1,                     Raphael Romano%Bruno%NULL%1,                     Bernhard%Wernly%NULL%1,                     Antonio%Artigas%NULL%1,                     Bernardo Bollen%Pinto%NULL%1,                     Joerg C.%Schefold%NULL%1,                     Dorota%Studzińska%NULL%1,                     Michael%Joannidis%NULL%1,                     Sandra%Oeyen%NULL%1,                     Brian%Marsh%NULL%1,                     Finn H.%Andersen%NULL%1,                     Rui%Moreno%NULL%1,                     Maurizio%Cecconi%NULL%1,                     Christian%Jung%NULL%1,                     Wojciech%Szczeklik%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                     Marc%Tobed%NULL%1,                     José Miguel%Villacampa%NULL%1,                     Adriana%Agüero%NULL%1,                     Clara%García‐Bastida%NULL%1,                     José Ignacio%Tato%NULL%1,                     Laura%Rodrigáñez%NULL%1,                     Victoria Duque%Holguera%NULL%1,                     Estefanía%Hernández‐García%NULL%1,                     Daniel%Poletti%NULL%1,                     Gabriela%Simonetti%NULL%1,                     Vanessa%Villarraga%NULL%1,                     Carla%Meler‐Claramonte%NULL%1,                     Álvaro%Sánchez Barrueco%NULL%1,                     Carlos%Chiesa‐Estomba%NULL%1,                     Maria%Casasayas%NULL%1,                     Pablo%Parente‐Arias%NULL%1,                     Nieves%Mata‐Castro%NULL%1,                     Jordi%Rello%NULL%1,                     Pedro%Castro%NULL%1,                     Daniel%Prieto‐Alhambra%NULL%1,                     Isabel%Vilaseca%NULL%1,                     Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                     P.%Stritoni%NULL%1,                     I.%Battel%NULL%1,                     B.%Zennaro%NULL%1,                     F.%Lazzari%NULL%1,                     M.%Bellin%NULL%1,                     L.%Michieletto%NULL%1,                     G.%Spinato%NULL%1,                     C.%Busatto%NULL%1,                     D.%Politi%NULL%1,                     R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,         Nancy E.%Amoroso%xref no email%1,         Samaan%Rafeq%xref no email%0,         Brian%Mitzman%xref no email%1,         Ronald%Goldenberg%xref no email%1,         Saketh Palasamudram%Shekar%xref no email%1,         Andrea B.%Troxel%xref no email%1,         Yan%Zhang%xref no email%0,         Stephanie H%Chang%xref no email%1,         Paul%Kwak%xref no email%1,         Milan R.%Amin%xref no email%0,         Kimberly%Sureau%xref no email%0,         Heidi B.%Nafday%xref no email%1,         Sarun%Thomas%xref no email%1,         Zachary%Kon%xref no email%1,         Philip M.%Sommer%xref no email%1,         Leopoldo N.%Segal%xref no email%1,         William H.%Moore%xref no email%1,         Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                     Francesco%Missale%NULL%1,                     Irene%Schiavetti%NULL%1,                     Marta%Filauro%NULL%1,                     Francesca%Iannuzzi%NULL%1,                     Alessandro%Ascoli%NULL%1,                     Alberto%Bertazzoli%NULL%1,                     Federico%Pascucci%NULL%1,                     Salvatore%Grasso%NULL%1,                     Francesco%Murgolo%NULL%1,                     Simone%Binda%NULL%1,                     Davide%Maraggia%NULL%1,                     Giorgia%Montrucchio%NULL%1,                     Gabriele%Sales%NULL%1,                     Giuseppe%Pascarella%NULL%1,                     Felice Eugenio%Agrò%NULL%1,                     Gaia%Faccio%NULL%1,                     Sandra%Ferraris%NULL%1,                     Savino%Spadaro%NULL%1,                     Giulia%Falò%NULL%1,                     Nadia%Mereto%NULL%1,                     Alessandro%Uva%NULL%1,                     Jessica Giuseppina%Maugeri%NULL%1,                     Bellissima%Agrippino%NULL%1,                     Maria%Vargas%NULL%1,                     Giuseppe%Servillo%NULL%1,                     Chiara%Robba%NULL%1,                     Lorenzo%Ball%NULL%1,                     Francesco%Mora%NULL%1,                     Alessio%Signori%NULL%1,                     Antoni%Torres%NULL%1,                     Daniele Roberto%Giacobbe%NULL%1,                     Antonio%Vena%NULL%1,                     Matteo%Bassetti%NULL%1,                     Giorgio%Peretti%NULL%1,                     Patricia R. M.%Rocco%NULL%1,                     Paolo%Pelosi%NULL%1,                     Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                     Paul%Nankivell%NULL%1,                     Neil%Sharma%NULL%1,                     Mansoor N.%Bangash%NULL%1,                     Camilla%Dawson%NULL%1,                     Matthew%Idle%NULL%1,                     Peter%Isherwood%NULL%1,                     Christopher%Jennings%NULL%1,                     Damian%Keene%NULL%1,                     Mav%Manji%NULL%1,                     Tim%Martin%NULL%1,                     Rob%Moss%NULL%1,                     Nick%Murphy%NULL%1,                     Dhruv%Parekh%NULL%1,                     Sat%Parmar%NULL%1,                     Jaimin%Patel%NULL%1,                     Paul%Pracy%NULL%1,                     Prav%Praveen%NULL%1,                     Carla%Richardson%NULL%1,                     Alex%Richter%NULL%1,                     Rajneesh%Sachdeva%NULL%1,                     Adrian%Shields%NULL%1,                     Somiah%Siddiq%NULL%1,                     Simon%Smart%NULL%1,                     Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                     Yoshihisa%Miyamoto%NULL%1,                     Matsuo%So%NULL%1,                     Masao%Iwagami%NULL%1,                     Mai%Takahashi%NULL%1,                     Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                     George Z.%Cheng%NULL%1,                     Keriann%Van Nostrand%NULL%1,                     Samira%Shojaee%NULL%1,                     Max T.%Wayne%NULL%1,                     Matthew%Abbott%NULL%1,                     Darrell%Nettlow%NULL%1,                     Alice%Parish%NULL%1,                     Cynthia L.%Green%NULL%1,                     Javeryah%Safi%NULL%1,                     Michael J.%Brenner%NULL%1,                     Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                     C%Tornari%NULL%1,                     N%Amin%NULL%1,                     D%Wyncoll%NULL%1,                     S%Tricklebank%NULL%1,                     A%Arora%NULL%1,                     I%Ahmad%NULL%1,                     R%Simo%NULL%1,                     P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                     Yongran%Wu%NULL%1,                     Fangfang%Zhu%NULL%1,                     Xiaobo%Yang%NULL%1,                     Chaolin%Huang%NULL%1,                     Guo%Hou%NULL%1,                     Wenhao%Xu%NULL%1,                     Ming%Hu%NULL%1,                     Lu%Zhang%NULL%1,                     Aiguo%Cheng%NULL%1,                     Zhengqin%Xu%NULL%1,                     Boyi%Liu%NULL%1,                     Song%Hu%NULL%1,                     Guochao%Zhu%NULL%1,                     Xuepeng%Fan%NULL%1,                     Xijing%Zhang%NULL%1,                     Yadong%Yang%NULL%1,                     Huibin%Feng%NULL%1,                     Lixia%Yu%NULL%1,                     Bing%Wang%NULL%1,                     Zhiqiang%Li%NULL%1,                     Yong%Peng%NULL%1,                     Zubo%Shen%NULL%1,                     Shouzhi%Fu%NULL%1,                     Yaqi%Ouyang%NULL%1,                     Jiqian%Xu%NULL%1,                     Xiaojing%Zou%NULL%1,                     Minghao%Fang%NULL%1,                     Zhui%Yu%NULL%1,                     Bo%Hu%NULL%1,                     You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,              Arancibia%C%coreGivesNoEmail%1,              Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,              Bernal-Sprekelsen%M%coreGivesNoEmail%1,              Castro%P%coreGivesNoEmail%1,              de%Oss\u00f3 J%coreGivesNoEmail%1,              Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,              Guilemany%JM%coreGivesNoEmail%1,              Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,              Langdon%C%coreGivesNoEmail%1,              Larrosa%F%coreGivesNoEmail%1,              Lehrer-Coriat%E%coreGivesNoEmail%1,              L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,              Prieto%Alhambra D%coreGivesNoEmail%1,              Remacha%J%coreGivesNoEmail%1,              Ruiz-Sevilla%L%coreGivesNoEmail%1,              S\u00e1nchez%I%coreGivesNoEmail%1,              Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,          Joseph R.%Connors%xref no email%1,          Peter A.%Benedict%xref no email%1,          Micah R.%Timen%xref no email%1,          Binhuan%Wang%xref no email%1,          Yan%Zhang%xref no email%2,          Stephanie%Youlios%xref no email%1,          Kimberly%Sureau%xref no email%2,          Michael J.%Persky%xref no email%1,          Samaan%Rafeq%xref no email%2,          Luis%Angel%xref no email%1,          Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                      Jakub%Fronczek%NULL%1,                      Peter Vernon%van Heerden%NULL%1,                      Hans%Flaatten%NULL%1,                      Bertrand%Guidet%NULL%1,                      Dylan W.%De Lange%NULL%1,                      Jesper%Fjølner%NULL%1,                      Susannah%Leaver%NULL%1,                      Michael%Beil%NULL%1,                      Sigal%Sviri%NULL%1,                      Raphael Romano%Bruno%NULL%1,                      Bernhard%Wernly%NULL%1,                      Antonio%Artigas%NULL%1,                      Bernardo Bollen%Pinto%NULL%1,                      Joerg C.%Schefold%NULL%1,                      Dorota%Studzińska%NULL%1,                      Michael%Joannidis%NULL%1,                      Sandra%Oeyen%NULL%1,                      Brian%Marsh%NULL%1,                      Finn H.%Andersen%NULL%1,                      Rui%Moreno%NULL%1,                      Maurizio%Cecconi%NULL%1,                      Christian%Jung%NULL%1,                      Wojciech%Szczeklik%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                      Marc%Tobed%NULL%1,                      José Miguel%Villacampa%NULL%1,                      Adriana%Agüero%NULL%1,                      Clara%García‐Bastida%NULL%1,                      José Ignacio%Tato%NULL%1,                      Laura%Rodrigáñez%NULL%1,                      Victoria Duque%Holguera%NULL%1,                      Estefanía%Hernández‐García%NULL%1,                      Daniel%Poletti%NULL%1,                      Gabriela%Simonetti%NULL%1,                      Vanessa%Villarraga%NULL%1,                      Carla%Meler‐Claramonte%NULL%1,                      Álvaro%Sánchez Barrueco%NULL%1,                      Carlos%Chiesa‐Estomba%NULL%1,                      Maria%Casasayas%NULL%1,                      Pablo%Parente‐Arias%NULL%1,                      Nieves%Mata‐Castro%NULL%1,                      Jordi%Rello%NULL%1,                      Pedro%Castro%NULL%1,                      Daniel%Prieto‐Alhambra%NULL%1,                      Isabel%Vilaseca%NULL%1,                      Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                      P.%Stritoni%NULL%1,                      I.%Battel%NULL%1,                      B.%Zennaro%NULL%1,                      F.%Lazzari%NULL%1,                      M.%Bellin%NULL%1,                      L.%Michieletto%NULL%1,                      G.%Spinato%NULL%1,                      C.%Busatto%NULL%1,                      D.%Politi%NULL%1,                      R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,          Nancy E.%Amoroso%xref no email%1,          Samaan%Rafeq%xref no email%0,          Brian%Mitzman%xref no email%1,          Ronald%Goldenberg%xref no email%1,          Saketh Palasamudram%Shekar%xref no email%1,          Andrea B.%Troxel%xref no email%1,          Yan%Zhang%xref no email%0,          Stephanie H%Chang%xref no email%1,          Paul%Kwak%xref no email%1,          Milan R.%Amin%xref no email%0,          Kimberly%Sureau%xref no email%0,          Heidi B.%Nafday%xref no email%1,          Sarun%Thomas%xref no email%1,          Zachary%Kon%xref no email%1,          Philip M.%Sommer%xref no email%1,          Leopoldo N.%Segal%xref no email%1,          William H.%Moore%xref no email%1,          Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                      Francesco%Missale%NULL%1,                      Irene%Schiavetti%NULL%1,                      Marta%Filauro%NULL%1,                      Francesca%Iannuzzi%NULL%1,                      Alessandro%Ascoli%NULL%1,                      Alberto%Bertazzoli%NULL%1,                      Federico%Pascucci%NULL%1,                      Salvatore%Grasso%NULL%1,                      Francesco%Murgolo%NULL%1,                      Simone%Binda%NULL%1,                      Davide%Maraggia%NULL%1,                      Giorgia%Montrucchio%NULL%1,                      Gabriele%Sales%NULL%1,                      Giuseppe%Pascarella%NULL%1,                      Felice Eugenio%Agrò%NULL%1,                      Gaia%Faccio%NULL%1,                      Sandra%Ferraris%NULL%1,                      Savino%Spadaro%NULL%1,                      Giulia%Falò%NULL%1,                      Nadia%Mereto%NULL%1,                      Alessandro%Uva%NULL%1,                      Jessica Giuseppina%Maugeri%NULL%1,                      Bellissima%Agrippino%NULL%1,                      Maria%Vargas%NULL%1,                      Giuseppe%Servillo%NULL%1,                      Chiara%Robba%NULL%1,                      Lorenzo%Ball%NULL%1,                      Francesco%Mora%NULL%1,                      Alessio%Signori%NULL%1,                      Antoni%Torres%NULL%1,                      Daniele Roberto%Giacobbe%NULL%1,                      Antonio%Vena%NULL%1,                      Matteo%Bassetti%NULL%1,                      Giorgio%Peretti%NULL%1,                      Patricia R. M.%Rocco%NULL%1,                      Paolo%Pelosi%NULL%1,                      Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                      Paul%Nankivell%NULL%1,                      Neil%Sharma%NULL%1,                      Mansoor N.%Bangash%NULL%1,                      Camilla%Dawson%NULL%1,                      Matthew%Idle%NULL%1,                      Peter%Isherwood%NULL%1,                      Christopher%Jennings%NULL%1,                      Damian%Keene%NULL%1,                      Mav%Manji%NULL%1,                      Tim%Martin%NULL%1,                      Rob%Moss%NULL%1,                      Nick%Murphy%NULL%1,                      Dhruv%Parekh%NULL%1,                      Sat%Parmar%NULL%1,                      Jaimin%Patel%NULL%1,                      Paul%Pracy%NULL%1,                      Prav%Praveen%NULL%1,                      Carla%Richardson%NULL%1,                      Alex%Richter%NULL%1,                      Rajneesh%Sachdeva%NULL%1,                      Adrian%Shields%NULL%1,                      Somiah%Siddiq%NULL%1,                      Simon%Smart%NULL%1,                      Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                      Yoshihisa%Miyamoto%NULL%1,                      Matsuo%So%NULL%1,                      Masao%Iwagami%NULL%1,                      Mai%Takahashi%NULL%1,                      Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                      George Z.%Cheng%NULL%1,                      Keriann%Van Nostrand%NULL%1,                      Samira%Shojaee%NULL%1,                      Max T.%Wayne%NULL%1,                      Matthew%Abbott%NULL%1,                      Darrell%Nettlow%NULL%1,                      Alice%Parish%NULL%1,                      Cynthia L.%Green%NULL%1,                      Javeryah%Safi%NULL%1,                      Michael J.%Brenner%NULL%1,                      Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                      C%Tornari%NULL%1,                      N%Amin%NULL%1,                      D%Wyncoll%NULL%1,                      S%Tricklebank%NULL%1,                      A%Arora%NULL%1,                      I%Ahmad%NULL%1,                      R%Simo%NULL%1,                      P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                      Yongran%Wu%NULL%1,                      Fangfang%Zhu%NULL%1,                      Xiaobo%Yang%NULL%1,                      Chaolin%Huang%NULL%1,                      Guo%Hou%NULL%1,                      Wenhao%Xu%NULL%1,                      Ming%Hu%NULL%1,                      Lu%Zhang%NULL%1,                      Aiguo%Cheng%NULL%1,                      Zhengqin%Xu%NULL%1,                      Boyi%Liu%NULL%1,                      Song%Hu%NULL%1,                      Guochao%Zhu%NULL%1,                      Xuepeng%Fan%NULL%1,                      Xijing%Zhang%NULL%1,                      Yadong%Yang%NULL%1,                      Huibin%Feng%NULL%1,                      Lixia%Yu%NULL%1,                      Bing%Wang%NULL%1,                      Zhiqiang%Li%NULL%1,                      Yong%Peng%NULL%1,                      Zubo%Shen%NULL%1,                      Shouzhi%Fu%NULL%1,                      Yaqi%Ouyang%NULL%1,                      Jiqian%Xu%NULL%1,                      Xiaojing%Zou%NULL%1,                      Minghao%Fang%NULL%1,                      Zhui%Yu%NULL%1,                      Bo%Hu%NULL%1,                      You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1696,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1653,7 +1725,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1682,7 +1754,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1711,7 +1783,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1740,7 +1812,7 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1769,7 +1841,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1798,7 +1870,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1827,7 +1899,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1856,7 +1928,7 @@
         <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1885,7 +1957,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1914,7 +1986,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1943,7 +2015,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="384">
   <si>
     <t>Doi</t>
   </si>
@@ -1354,6 +1354,42 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                      Yongran%Wu%NULL%1,                      Fangfang%Zhu%NULL%1,                      Xiaobo%Yang%NULL%1,                      Chaolin%Huang%NULL%1,                      Guo%Hou%NULL%1,                      Wenhao%Xu%NULL%1,                      Ming%Hu%NULL%1,                      Lu%Zhang%NULL%1,                      Aiguo%Cheng%NULL%1,                      Zhengqin%Xu%NULL%1,                      Boyi%Liu%NULL%1,                      Song%Hu%NULL%1,                      Guochao%Zhu%NULL%1,                      Xuepeng%Fan%NULL%1,                      Xijing%Zhang%NULL%1,                      Yadong%Yang%NULL%1,                      Huibin%Feng%NULL%1,                      Lixia%Yu%NULL%1,                      Bing%Wang%NULL%1,                      Zhiqiang%Li%NULL%1,                      Yong%Peng%NULL%1,                      Zubo%Shen%NULL%1,                      Shouzhi%Fu%NULL%1,                      Yaqi%Ouyang%NULL%1,                      Jiqian%Xu%NULL%1,                      Xiaojing%Zou%NULL%1,                      Minghao%Fang%NULL%1,                      Zhui%Yu%NULL%1,                      Bo%Hu%NULL%1,                      You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,               Arancibia%C%coreGivesNoEmail%1,               Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,               Bernal-Sprekelsen%M%coreGivesNoEmail%1,               Castro%P%coreGivesNoEmail%1,               de%Oss\u00f3 J%coreGivesNoEmail%1,               Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,               Guilemany%JM%coreGivesNoEmail%1,               Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,               Langdon%C%coreGivesNoEmail%1,               Larrosa%F%coreGivesNoEmail%1,               Lehrer-Coriat%E%coreGivesNoEmail%1,               L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,               Prieto%Alhambra D%coreGivesNoEmail%1,               Remacha%J%coreGivesNoEmail%1,               Ruiz-Sevilla%L%coreGivesNoEmail%1,               S\u00e1nchez%I%coreGivesNoEmail%1,               Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,           Joseph R.%Connors%xref no email%1,           Peter A.%Benedict%xref no email%1,           Micah R.%Timen%xref no email%1,           Binhuan%Wang%xref no email%1,           Yan%Zhang%xref no email%2,           Stephanie%Youlios%xref no email%1,           Kimberly%Sureau%xref no email%2,           Michael J.%Persky%xref no email%1,           Samaan%Rafeq%xref no email%2,           Luis%Angel%xref no email%1,           Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                       Jakub%Fronczek%NULL%1,                       Peter Vernon%van Heerden%NULL%1,                       Hans%Flaatten%NULL%1,                       Bertrand%Guidet%NULL%1,                       Dylan W.%De Lange%NULL%1,                       Jesper%Fjølner%NULL%1,                       Susannah%Leaver%NULL%1,                       Michael%Beil%NULL%1,                       Sigal%Sviri%NULL%1,                       Raphael Romano%Bruno%NULL%1,                       Bernhard%Wernly%NULL%1,                       Antonio%Artigas%NULL%1,                       Bernardo Bollen%Pinto%NULL%1,                       Joerg C.%Schefold%NULL%1,                       Dorota%Studzińska%NULL%1,                       Michael%Joannidis%NULL%1,                       Sandra%Oeyen%NULL%1,                       Brian%Marsh%NULL%1,                       Finn H.%Andersen%NULL%1,                       Rui%Moreno%NULL%1,                       Maurizio%Cecconi%NULL%1,                       Christian%Jung%NULL%1,                       Wojciech%Szczeklik%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                       Marc%Tobed%NULL%1,                       José Miguel%Villacampa%NULL%1,                       Adriana%Agüero%NULL%1,                       Clara%García‐Bastida%NULL%1,                       José Ignacio%Tato%NULL%1,                       Laura%Rodrigáñez%NULL%1,                       Victoria Duque%Holguera%NULL%1,                       Estefanía%Hernández‐García%NULL%1,                       Daniel%Poletti%NULL%1,                       Gabriela%Simonetti%NULL%1,                       Vanessa%Villarraga%NULL%1,                       Carla%Meler‐Claramonte%NULL%1,                       Álvaro%Sánchez Barrueco%NULL%1,                       Carlos%Chiesa‐Estomba%NULL%1,                       Maria%Casasayas%NULL%1,                       Pablo%Parente‐Arias%NULL%1,                       Nieves%Mata‐Castro%NULL%1,                       Jordi%Rello%NULL%1,                       Pedro%Castro%NULL%1,                       Daniel%Prieto‐Alhambra%NULL%1,                       Isabel%Vilaseca%NULL%1,                       Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                       P.%Stritoni%NULL%1,                       I.%Battel%NULL%1,                       B.%Zennaro%NULL%1,                       F.%Lazzari%NULL%1,                       M.%Bellin%NULL%1,                       L.%Michieletto%NULL%1,                       G.%Spinato%NULL%1,                       C.%Busatto%NULL%1,                       D.%Politi%NULL%1,                       R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,           Nancy E.%Amoroso%xref no email%1,           Samaan%Rafeq%xref no email%0,           Brian%Mitzman%xref no email%1,           Ronald%Goldenberg%xref no email%1,           Saketh Palasamudram%Shekar%xref no email%1,           Andrea B.%Troxel%xref no email%1,           Yan%Zhang%xref no email%0,           Stephanie H%Chang%xref no email%1,           Paul%Kwak%xref no email%1,           Milan R.%Amin%xref no email%0,           Kimberly%Sureau%xref no email%0,           Heidi B.%Nafday%xref no email%1,           Sarun%Thomas%xref no email%1,           Zachary%Kon%xref no email%1,           Philip M.%Sommer%xref no email%1,           Leopoldo N.%Segal%xref no email%1,           William H.%Moore%xref no email%1,           Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                       Francesco%Missale%NULL%1,                       Irene%Schiavetti%NULL%1,                       Marta%Filauro%NULL%1,                       Francesca%Iannuzzi%NULL%1,                       Alessandro%Ascoli%NULL%1,                       Alberto%Bertazzoli%NULL%1,                       Federico%Pascucci%NULL%1,                       Salvatore%Grasso%NULL%1,                       Francesco%Murgolo%NULL%1,                       Simone%Binda%NULL%1,                       Davide%Maraggia%NULL%1,                       Giorgia%Montrucchio%NULL%1,                       Gabriele%Sales%NULL%1,                       Giuseppe%Pascarella%NULL%1,                       Felice Eugenio%Agrò%NULL%1,                       Gaia%Faccio%NULL%1,                       Sandra%Ferraris%NULL%1,                       Savino%Spadaro%NULL%1,                       Giulia%Falò%NULL%1,                       Nadia%Mereto%NULL%1,                       Alessandro%Uva%NULL%1,                       Jessica Giuseppina%Maugeri%NULL%1,                       Bellissima%Agrippino%NULL%1,                       Maria%Vargas%NULL%1,                       Giuseppe%Servillo%NULL%1,                       Chiara%Robba%NULL%1,                       Lorenzo%Ball%NULL%1,                       Francesco%Mora%NULL%1,                       Alessio%Signori%NULL%1,                       Antoni%Torres%NULL%1,                       Daniele Roberto%Giacobbe%NULL%1,                       Antonio%Vena%NULL%1,                       Matteo%Bassetti%NULL%1,                       Giorgio%Peretti%NULL%1,                       Patricia R. M.%Rocco%NULL%1,                       Paolo%Pelosi%NULL%1,                       Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                       Paul%Nankivell%NULL%1,                       Neil%Sharma%NULL%1,                       Mansoor N.%Bangash%NULL%1,                       Camilla%Dawson%NULL%1,                       Matthew%Idle%NULL%1,                       Peter%Isherwood%NULL%1,                       Christopher%Jennings%NULL%1,                       Damian%Keene%NULL%1,                       Mav%Manji%NULL%1,                       Tim%Martin%NULL%1,                       Rob%Moss%NULL%1,                       Nick%Murphy%NULL%1,                       Dhruv%Parekh%NULL%1,                       Sat%Parmar%NULL%1,                       Jaimin%Patel%NULL%1,                       Paul%Pracy%NULL%1,                       Prav%Praveen%NULL%1,                       Carla%Richardson%NULL%1,                       Alex%Richter%NULL%1,                       Rajneesh%Sachdeva%NULL%1,                       Adrian%Shields%NULL%1,                       Somiah%Siddiq%NULL%1,                       Simon%Smart%NULL%1,                       Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                       Yoshihisa%Miyamoto%NULL%1,                       Matsuo%So%NULL%1,                       Masao%Iwagami%NULL%1,                       Mai%Takahashi%NULL%1,                       Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                       George Z.%Cheng%NULL%1,                       Keriann%Van Nostrand%NULL%1,                       Samira%Shojaee%NULL%1,                       Max T.%Wayne%NULL%1,                       Matthew%Abbott%NULL%1,                       Darrell%Nettlow%NULL%1,                       Alice%Parish%NULL%1,                       Cynthia L.%Green%NULL%1,                       Javeryah%Safi%NULL%1,                       Michael J.%Brenner%NULL%1,                       Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                       C%Tornari%NULL%1,                       N%Amin%NULL%1,                       D%Wyncoll%NULL%1,                       S%Tricklebank%NULL%1,                       A%Arora%NULL%1,                       I%Ahmad%NULL%1,                       R%Simo%NULL%1,                       P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                       Yongran%Wu%NULL%1,                       Fangfang%Zhu%NULL%1,                       Xiaobo%Yang%NULL%1,                       Chaolin%Huang%NULL%1,                       Guo%Hou%NULL%1,                       Wenhao%Xu%NULL%1,                       Ming%Hu%NULL%1,                       Lu%Zhang%NULL%1,                       Aiguo%Cheng%NULL%1,                       Zhengqin%Xu%NULL%1,                       Boyi%Liu%NULL%1,                       Song%Hu%NULL%1,                       Guochao%Zhu%NULL%1,                       Xuepeng%Fan%NULL%1,                       Xijing%Zhang%NULL%1,                       Yadong%Yang%NULL%1,                       Huibin%Feng%NULL%1,                       Lixia%Yu%NULL%1,                       Bing%Wang%NULL%1,                       Zhiqiang%Li%NULL%1,                       Yong%Peng%NULL%1,                       Zubo%Shen%NULL%1,                       Shouzhi%Fu%NULL%1,                       Yaqi%Ouyang%NULL%1,                       Jiqian%Xu%NULL%1,                       Xiaojing%Zou%NULL%1,                       Minghao%Fang%NULL%1,                       Zhui%Yu%NULL%1,                       Bo%Hu%NULL%1,                       You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1732,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1725,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1754,7 +1790,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1783,7 +1819,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1812,7 +1848,7 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1841,7 +1877,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1870,7 +1906,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1899,7 +1935,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1928,7 +1964,7 @@
         <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1957,7 +1993,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1986,7 +2022,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2015,7 +2051,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="400">
   <si>
     <t>Doi</t>
   </si>
@@ -1390,6 +1390,54 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                       Yongran%Wu%NULL%1,                       Fangfang%Zhu%NULL%1,                       Xiaobo%Yang%NULL%1,                       Chaolin%Huang%NULL%1,                       Guo%Hou%NULL%1,                       Wenhao%Xu%NULL%1,                       Ming%Hu%NULL%1,                       Lu%Zhang%NULL%1,                       Aiguo%Cheng%NULL%1,                       Zhengqin%Xu%NULL%1,                       Boyi%Liu%NULL%1,                       Song%Hu%NULL%1,                       Guochao%Zhu%NULL%1,                       Xuepeng%Fan%NULL%1,                       Xijing%Zhang%NULL%1,                       Yadong%Yang%NULL%1,                       Huibin%Feng%NULL%1,                       Lixia%Yu%NULL%1,                       Bing%Wang%NULL%1,                       Zhiqiang%Li%NULL%1,                       Yong%Peng%NULL%1,                       Zubo%Shen%NULL%1,                       Shouzhi%Fu%NULL%1,                       Yaqi%Ouyang%NULL%1,                       Jiqian%Xu%NULL%1,                       Xiaojing%Zou%NULL%1,                       Minghao%Fang%NULL%1,                       Zhui%Yu%NULL%1,                       Bo%Hu%NULL%1,                       You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                Arancibia%C%coreGivesNoEmail%1,                Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                Bernal-Sprekelsen%M%coreGivesNoEmail%1,                Castro%P%coreGivesNoEmail%1,                de%Oss\u00f3 J%coreGivesNoEmail%1,                Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                Guilemany%JM%coreGivesNoEmail%1,                Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                Langdon%C%coreGivesNoEmail%1,                Larrosa%F%coreGivesNoEmail%1,                Lehrer-Coriat%E%coreGivesNoEmail%1,                L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                Prieto%Alhambra D%coreGivesNoEmail%1,                Remacha%J%coreGivesNoEmail%1,                Ruiz-Sevilla%L%coreGivesNoEmail%1,                S\u00e1nchez%I%coreGivesNoEmail%1,                Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,            Joseph R.%Connors%xref no email%1,            Peter A.%Benedict%xref no email%1,            Micah R.%Timen%xref no email%1,            Binhuan%Wang%xref no email%1,            Yan%Zhang%xref no email%2,            Stephanie%Youlios%xref no email%1,            Kimberly%Sureau%xref no email%2,            Michael J.%Persky%xref no email%1,            Samaan%Rafeq%xref no email%2,            Luis%Angel%xref no email%1,            Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                        Jakub%Fronczek%NULL%1,                        Peter Vernon%van Heerden%NULL%1,                        Hans%Flaatten%NULL%1,                        Bertrand%Guidet%NULL%1,                        Dylan W.%De Lange%NULL%1,                        Jesper%Fjølner%NULL%1,                        Susannah%Leaver%NULL%1,                        Michael%Beil%NULL%1,                        Sigal%Sviri%NULL%1,                        Raphael Romano%Bruno%NULL%1,                        Bernhard%Wernly%NULL%1,                        Antonio%Artigas%NULL%1,                        Bernardo Bollen%Pinto%NULL%1,                        Joerg C.%Schefold%NULL%1,                        Dorota%Studzińska%NULL%1,                        Michael%Joannidis%NULL%1,                        Sandra%Oeyen%NULL%1,                        Brian%Marsh%NULL%1,                        Finn H.%Andersen%NULL%1,                        Rui%Moreno%NULL%1,                        Maurizio%Cecconi%NULL%1,                        Christian%Jung%NULL%1,                        Wojciech%Szczeklik%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                        Marc%Tobed%NULL%1,                        José Miguel%Villacampa%NULL%1,                        Adriana%Agüero%NULL%1,                        Clara%García‐Bastida%NULL%1,                        José Ignacio%Tato%NULL%1,                        Laura%Rodrigáñez%NULL%1,                        Victoria Duque%Holguera%NULL%1,                        Estefanía%Hernández‐García%NULL%1,                        Daniel%Poletti%NULL%1,                        Gabriela%Simonetti%NULL%1,                        Vanessa%Villarraga%NULL%1,                        Carla%Meler‐Claramonte%NULL%1,                        Álvaro%Sánchez Barrueco%NULL%1,                        Carlos%Chiesa‐Estomba%NULL%1,                        Maria%Casasayas%NULL%1,                        Pablo%Parente‐Arias%NULL%1,                        Nieves%Mata‐Castro%NULL%1,                        Jordi%Rello%NULL%1,                        Pedro%Castro%NULL%1,                        Daniel%Prieto‐Alhambra%NULL%1,                        Isabel%Vilaseca%NULL%1,                        Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                        P.%Stritoni%NULL%1,                        I.%Battel%NULL%1,                        B.%Zennaro%NULL%1,                        F.%Lazzari%NULL%1,                        M.%Bellin%NULL%1,                        L.%Michieletto%NULL%1,                        G.%Spinato%NULL%1,                        C.%Busatto%NULL%1,                        D.%Politi%NULL%1,                        R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,            Nancy E.%Amoroso%xref no email%1,            Samaan%Rafeq%xref no email%0,            Brian%Mitzman%xref no email%1,            Ronald%Goldenberg%xref no email%1,            Saketh Palasamudram%Shekar%xref no email%1,            Andrea B.%Troxel%xref no email%1,            Yan%Zhang%xref no email%0,            Stephanie H%Chang%xref no email%1,            Paul%Kwak%xref no email%1,            Milan R.%Amin%xref no email%0,            Kimberly%Sureau%xref no email%0,            Heidi B.%Nafday%xref no email%1,            Sarun%Thomas%xref no email%1,            Zachary%Kon%xref no email%1,            Philip M.%Sommer%xref no email%1,            Leopoldo N.%Segal%xref no email%1,            William H.%Moore%xref no email%1,            Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                        Francesco%Missale%NULL%1,                        Irene%Schiavetti%NULL%1,                        Marta%Filauro%NULL%1,                        Francesca%Iannuzzi%NULL%1,                        Alessandro%Ascoli%NULL%1,                        Alberto%Bertazzoli%NULL%1,                        Federico%Pascucci%NULL%1,                        Salvatore%Grasso%NULL%1,                        Francesco%Murgolo%NULL%1,                        Simone%Binda%NULL%1,                        Davide%Maraggia%NULL%1,                        Giorgia%Montrucchio%NULL%1,                        Gabriele%Sales%NULL%1,                        Giuseppe%Pascarella%NULL%1,                        Felice Eugenio%Agrò%NULL%1,                        Gaia%Faccio%NULL%1,                        Sandra%Ferraris%NULL%1,                        Savino%Spadaro%NULL%1,                        Giulia%Falò%NULL%1,                        Nadia%Mereto%NULL%1,                        Alessandro%Uva%NULL%1,                        Jessica Giuseppina%Maugeri%NULL%1,                        Bellissima%Agrippino%NULL%1,                        Maria%Vargas%NULL%1,                        Giuseppe%Servillo%NULL%1,                        Chiara%Robba%NULL%1,                        Lorenzo%Ball%NULL%1,                        Francesco%Mora%NULL%1,                        Alessio%Signori%NULL%1,                        Antoni%Torres%NULL%1,                        Daniele Roberto%Giacobbe%NULL%1,                        Antonio%Vena%NULL%1,                        Matteo%Bassetti%NULL%1,                        Giorgio%Peretti%NULL%1,                        Patricia R. M.%Rocco%NULL%1,                        Paolo%Pelosi%NULL%1,                        Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                        Paul%Nankivell%NULL%1,                        Neil%Sharma%NULL%1,                        Mansoor N.%Bangash%NULL%1,                        Camilla%Dawson%NULL%1,                        Matthew%Idle%NULL%1,                        Peter%Isherwood%NULL%1,                        Christopher%Jennings%NULL%1,                        Damian%Keene%NULL%1,                        Mav%Manji%NULL%1,                        Tim%Martin%NULL%1,                        Rob%Moss%NULL%1,                        Nick%Murphy%NULL%1,                        Dhruv%Parekh%NULL%1,                        Sat%Parmar%NULL%1,                        Jaimin%Patel%NULL%1,                        Paul%Pracy%NULL%1,                        Prav%Praveen%NULL%1,                        Carla%Richardson%NULL%1,                        Alex%Richter%NULL%1,                        Rajneesh%Sachdeva%NULL%1,                        Adrian%Shields%NULL%1,                        Somiah%Siddiq%NULL%1,                        Simon%Smart%NULL%1,                        Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                        Yoshihisa%Miyamoto%NULL%1,                        Matsuo%So%NULL%1,                        Masao%Iwagami%NULL%1,                        Mai%Takahashi%NULL%1,                        Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                        George Z.%Cheng%NULL%1,                        Keriann%Van Nostrand%NULL%1,                        Samira%Shojaee%NULL%1,                        Max T.%Wayne%NULL%1,                        Matthew%Abbott%NULL%1,                        Darrell%Nettlow%NULL%1,                        Alice%Parish%NULL%1,                        Cynthia L.%Green%NULL%1,                        Javeryah%Safi%NULL%1,                        Michael J.%Brenner%NULL%1,                        Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                        C%Tornari%NULL%1,                        N%Amin%NULL%1,                        D%Wyncoll%NULL%1,                        S%Tricklebank%NULL%1,                        A%Arora%NULL%1,                        I%Ahmad%NULL%1,                        R%Simo%NULL%1,                        P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                        Yongran%Wu%NULL%1,                        Fangfang%Zhu%NULL%1,                        Xiaobo%Yang%NULL%1,                        Chaolin%Huang%NULL%1,                        Guo%Hou%NULL%1,                        Wenhao%Xu%NULL%1,                        Ming%Hu%NULL%1,                        Lu%Zhang%NULL%1,                        Aiguo%Cheng%NULL%1,                        Zhengqin%Xu%NULL%1,                        Boyi%Liu%NULL%1,                        Song%Hu%NULL%1,                        Guochao%Zhu%NULL%1,                        Xuepeng%Fan%NULL%1,                        Xijing%Zhang%NULL%1,                        Yadong%Yang%NULL%1,                        Huibin%Feng%NULL%1,                        Lixia%Yu%NULL%1,                        Bing%Wang%NULL%1,                        Zhiqiang%Li%NULL%1,                        Yong%Peng%NULL%1,                        Zubo%Shen%NULL%1,                        Shouzhi%Fu%NULL%1,                        Yaqi%Ouyang%NULL%1,                        Jiqian%Xu%NULL%1,                        Xiaojing%Zou%NULL%1,                        Minghao%Fang%NULL%1,                        Zhui%Yu%NULL%1,                        Bo%Hu%NULL%1,                        You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1780,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1744,7 +1792,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1809,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1773,7 +1821,7 @@
         <v>249</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
@@ -1790,7 +1838,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1802,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5">
@@ -1819,7 +1867,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1831,7 +1879,7 @@
         <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>193</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
@@ -1848,7 +1896,7 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1860,7 +1908,7 @@
         <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>195</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
@@ -1877,7 +1925,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1889,7 +1937,7 @@
         <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
@@ -1906,7 +1954,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1918,7 +1966,7 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>193</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
@@ -1935,7 +1983,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1947,7 +1995,7 @@
         <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
@@ -1964,7 +2012,7 @@
         <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1976,7 +2024,7 @@
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11">
@@ -1993,7 +2041,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -2005,7 +2053,7 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>193</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12">
@@ -2022,7 +2070,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2034,7 +2082,7 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +2099,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>
@@ -2063,7 +2111,7 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>193</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="412">
   <si>
     <t>Doi</t>
   </si>
@@ -1438,6 +1438,42 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                        Yongran%Wu%NULL%1,                        Fangfang%Zhu%NULL%1,                        Xiaobo%Yang%NULL%1,                        Chaolin%Huang%NULL%1,                        Guo%Hou%NULL%1,                        Wenhao%Xu%NULL%1,                        Ming%Hu%NULL%1,                        Lu%Zhang%NULL%1,                        Aiguo%Cheng%NULL%1,                        Zhengqin%Xu%NULL%1,                        Boyi%Liu%NULL%1,                        Song%Hu%NULL%1,                        Guochao%Zhu%NULL%1,                        Xuepeng%Fan%NULL%1,                        Xijing%Zhang%NULL%1,                        Yadong%Yang%NULL%1,                        Huibin%Feng%NULL%1,                        Lixia%Yu%NULL%1,                        Bing%Wang%NULL%1,                        Zhiqiang%Li%NULL%1,                        Yong%Peng%NULL%1,                        Zubo%Shen%NULL%1,                        Shouzhi%Fu%NULL%1,                        Yaqi%Ouyang%NULL%1,                        Jiqian%Xu%NULL%1,                        Xiaojing%Zou%NULL%1,                        Minghao%Fang%NULL%1,                        Zhui%Yu%NULL%1,                        Bo%Hu%NULL%1,                        You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                 Arancibia%C%coreGivesNoEmail%1,                 Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                 Bernal-Sprekelsen%M%coreGivesNoEmail%1,                 Castro%P%coreGivesNoEmail%1,                 de%Oss\u00f3 J%coreGivesNoEmail%1,                 Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                 Guilemany%JM%coreGivesNoEmail%1,                 Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                 Langdon%C%coreGivesNoEmail%1,                 Larrosa%F%coreGivesNoEmail%1,                 Lehrer-Coriat%E%coreGivesNoEmail%1,                 L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                 Prieto%Alhambra D%coreGivesNoEmail%1,                 Remacha%J%coreGivesNoEmail%1,                 Ruiz-Sevilla%L%coreGivesNoEmail%1,                 S\u00e1nchez%I%coreGivesNoEmail%1,                 Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%1,             Joseph R.%Connors%xref no email%1,             Peter A.%Benedict%xref no email%1,             Micah R.%Timen%xref no email%1,             Binhuan%Wang%xref no email%1,             Yan%Zhang%xref no email%2,             Stephanie%Youlios%xref no email%1,             Kimberly%Sureau%xref no email%2,             Michael J.%Persky%xref no email%1,             Samaan%Rafeq%xref no email%2,             Luis%Angel%xref no email%1,             Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                         Jakub%Fronczek%NULL%1,                         Peter Vernon%van Heerden%NULL%1,                         Hans%Flaatten%NULL%1,                         Bertrand%Guidet%NULL%1,                         Dylan W.%De Lange%NULL%1,                         Jesper%Fjølner%NULL%1,                         Susannah%Leaver%NULL%1,                         Michael%Beil%NULL%1,                         Sigal%Sviri%NULL%1,                         Raphael Romano%Bruno%NULL%1,                         Bernhard%Wernly%NULL%1,                         Antonio%Artigas%NULL%1,                         Bernardo Bollen%Pinto%NULL%1,                         Joerg C.%Schefold%NULL%1,                         Dorota%Studzińska%NULL%1,                         Michael%Joannidis%NULL%1,                         Sandra%Oeyen%NULL%1,                         Brian%Marsh%NULL%1,                         Finn H.%Andersen%NULL%1,                         Rui%Moreno%NULL%1,                         Maurizio%Cecconi%NULL%1,                         Christian%Jung%NULL%1,                         Wojciech%Szczeklik%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                         Marc%Tobed%NULL%1,                         José Miguel%Villacampa%NULL%1,                         Adriana%Agüero%NULL%1,                         Clara%García‐Bastida%NULL%1,                         José Ignacio%Tato%NULL%1,                         Laura%Rodrigáñez%NULL%1,                         Victoria Duque%Holguera%NULL%1,                         Estefanía%Hernández‐García%NULL%1,                         Daniel%Poletti%NULL%1,                         Gabriela%Simonetti%NULL%1,                         Vanessa%Villarraga%NULL%1,                         Carla%Meler‐Claramonte%NULL%1,                         Álvaro%Sánchez Barrueco%NULL%1,                         Carlos%Chiesa‐Estomba%NULL%1,                         Maria%Casasayas%NULL%1,                         Pablo%Parente‐Arias%NULL%1,                         Nieves%Mata‐Castro%NULL%1,                         Jordi%Rello%NULL%1,                         Pedro%Castro%NULL%1,                         Daniel%Prieto‐Alhambra%NULL%1,                         Isabel%Vilaseca%NULL%1,                         Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                         P.%Stritoni%NULL%1,                         I.%Battel%NULL%1,                         B.%Zennaro%NULL%1,                         F.%Lazzari%NULL%1,                         M.%Bellin%NULL%1,                         L.%Michieletto%NULL%1,                         G.%Spinato%NULL%1,                         C.%Busatto%NULL%1,                         D.%Politi%NULL%1,                         R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%1,             Nancy E.%Amoroso%xref no email%1,             Samaan%Rafeq%xref no email%0,             Brian%Mitzman%xref no email%1,             Ronald%Goldenberg%xref no email%1,             Saketh Palasamudram%Shekar%xref no email%1,             Andrea B.%Troxel%xref no email%1,             Yan%Zhang%xref no email%0,             Stephanie H%Chang%xref no email%1,             Paul%Kwak%xref no email%1,             Milan R.%Amin%xref no email%0,             Kimberly%Sureau%xref no email%0,             Heidi B.%Nafday%xref no email%1,             Sarun%Thomas%xref no email%1,             Zachary%Kon%xref no email%1,             Philip M.%Sommer%xref no email%1,             Leopoldo N.%Segal%xref no email%1,             William H.%Moore%xref no email%1,             Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                         Francesco%Missale%NULL%1,                         Irene%Schiavetti%NULL%1,                         Marta%Filauro%NULL%1,                         Francesca%Iannuzzi%NULL%1,                         Alessandro%Ascoli%NULL%1,                         Alberto%Bertazzoli%NULL%1,                         Federico%Pascucci%NULL%1,                         Salvatore%Grasso%NULL%1,                         Francesco%Murgolo%NULL%1,                         Simone%Binda%NULL%1,                         Davide%Maraggia%NULL%1,                         Giorgia%Montrucchio%NULL%1,                         Gabriele%Sales%NULL%1,                         Giuseppe%Pascarella%NULL%1,                         Felice Eugenio%Agrò%NULL%1,                         Gaia%Faccio%NULL%1,                         Sandra%Ferraris%NULL%1,                         Savino%Spadaro%NULL%1,                         Giulia%Falò%NULL%1,                         Nadia%Mereto%NULL%1,                         Alessandro%Uva%NULL%1,                         Jessica Giuseppina%Maugeri%NULL%1,                         Bellissima%Agrippino%NULL%1,                         Maria%Vargas%NULL%1,                         Giuseppe%Servillo%NULL%1,                         Chiara%Robba%NULL%1,                         Lorenzo%Ball%NULL%1,                         Francesco%Mora%NULL%1,                         Alessio%Signori%NULL%1,                         Antoni%Torres%NULL%1,                         Daniele Roberto%Giacobbe%NULL%1,                         Antonio%Vena%NULL%1,                         Matteo%Bassetti%NULL%1,                         Giorgio%Peretti%NULL%1,                         Patricia R. M.%Rocco%NULL%1,                         Paolo%Pelosi%NULL%1,                         Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                         Paul%Nankivell%NULL%1,                         Neil%Sharma%NULL%1,                         Mansoor N.%Bangash%NULL%1,                         Camilla%Dawson%NULL%1,                         Matthew%Idle%NULL%1,                         Peter%Isherwood%NULL%1,                         Christopher%Jennings%NULL%1,                         Damian%Keene%NULL%1,                         Mav%Manji%NULL%1,                         Tim%Martin%NULL%1,                         Rob%Moss%NULL%1,                         Nick%Murphy%NULL%1,                         Dhruv%Parekh%NULL%1,                         Sat%Parmar%NULL%1,                         Jaimin%Patel%NULL%1,                         Paul%Pracy%NULL%1,                         Prav%Praveen%NULL%1,                         Carla%Richardson%NULL%1,                         Alex%Richter%NULL%1,                         Rajneesh%Sachdeva%NULL%1,                         Adrian%Shields%NULL%1,                         Somiah%Siddiq%NULL%1,                         Simon%Smart%NULL%1,                         Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                         Yoshihisa%Miyamoto%NULL%1,                         Matsuo%So%NULL%1,                         Masao%Iwagami%NULL%1,                         Mai%Takahashi%NULL%1,                         Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                         George Z.%Cheng%NULL%1,                         Keriann%Van Nostrand%NULL%1,                         Samira%Shojaee%NULL%1,                         Max T.%Wayne%NULL%1,                         Matthew%Abbott%NULL%1,                         Darrell%Nettlow%NULL%1,                         Alice%Parish%NULL%1,                         Cynthia L.%Green%NULL%1,                         Javeryah%Safi%NULL%1,                         Michael J.%Brenner%NULL%1,                         Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                         C%Tornari%NULL%1,                         N%Amin%NULL%1,                         D%Wyncoll%NULL%1,                         S%Tricklebank%NULL%1,                         A%Arora%NULL%1,                         I%Ahmad%NULL%1,                         R%Simo%NULL%1,                         P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                         Yongran%Wu%NULL%1,                         Fangfang%Zhu%NULL%1,                         Xiaobo%Yang%NULL%1,                         Chaolin%Huang%NULL%1,                         Guo%Hou%NULL%1,                         Wenhao%Xu%NULL%1,                         Ming%Hu%NULL%1,                         Lu%Zhang%NULL%1,                         Aiguo%Cheng%NULL%1,                         Zhengqin%Xu%NULL%1,                         Boyi%Liu%NULL%1,                         Song%Hu%NULL%1,                         Guochao%Zhu%NULL%1,                         Xuepeng%Fan%NULL%1,                         Xijing%Zhang%NULL%1,                         Yadong%Yang%NULL%1,                         Huibin%Feng%NULL%1,                         Lixia%Yu%NULL%1,                         Bing%Wang%NULL%1,                         Zhiqiang%Li%NULL%1,                         Yong%Peng%NULL%1,                         Zubo%Shen%NULL%1,                         Shouzhi%Fu%NULL%1,                         Yaqi%Ouyang%NULL%1,                         Jiqian%Xu%NULL%1,                         Xiaojing%Zou%NULL%1,                         Minghao%Fang%NULL%1,                         Zhui%Yu%NULL%1,                         Bo%Hu%NULL%1,                         You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1816,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1809,7 +1845,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1838,7 +1874,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1867,7 +1903,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1896,7 +1932,7 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1925,7 +1961,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1954,7 +1990,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -1983,7 +2019,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -2012,7 +2048,7 @@
         <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -2041,7 +2077,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -2070,7 +2106,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2099,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="467">
   <si>
     <t>Doi</t>
   </si>
@@ -1474,6 +1474,171 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                         Yongran%Wu%NULL%1,                         Fangfang%Zhu%NULL%1,                         Xiaobo%Yang%NULL%1,                         Chaolin%Huang%NULL%1,                         Guo%Hou%NULL%1,                         Wenhao%Xu%NULL%1,                         Ming%Hu%NULL%1,                         Lu%Zhang%NULL%1,                         Aiguo%Cheng%NULL%1,                         Zhengqin%Xu%NULL%1,                         Boyi%Liu%NULL%1,                         Song%Hu%NULL%1,                         Guochao%Zhu%NULL%1,                         Xuepeng%Fan%NULL%1,                         Xijing%Zhang%NULL%1,                         Yadong%Yang%NULL%1,                         Huibin%Feng%NULL%1,                         Lixia%Yu%NULL%1,                         Bing%Wang%NULL%1,                         Zhiqiang%Li%NULL%1,                         Yong%Peng%NULL%1,                         Zubo%Shen%NULL%1,                         Shouzhi%Fu%NULL%1,                         Yaqi%Ouyang%NULL%1,                         Jiqian%Xu%NULL%1,                         Xiaojing%Zou%NULL%1,                         Minghao%Fang%NULL%1,                         Zhui%Yu%NULL%1,                         Bo%Hu%NULL%1,                         You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                  Arancibia%C%coreGivesNoEmail%1,                  Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                  Bernal-Sprekelsen%M%coreGivesNoEmail%1,                  Castro%P%coreGivesNoEmail%1,                  de%Oss\u00f3 J%coreGivesNoEmail%1,                  Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                  Guilemany%JM%coreGivesNoEmail%1,                  Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                  Langdon%C%coreGivesNoEmail%1,                  Larrosa%F%coreGivesNoEmail%1,                  Lehrer-Coriat%E%coreGivesNoEmail%1,                  L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                  Prieto%Alhambra D%coreGivesNoEmail%1,                  Remacha%J%coreGivesNoEmail%1,                  Ruiz-Sevilla%L%coreGivesNoEmail%1,                  S\u00e1nchez%I%coreGivesNoEmail%1,                  Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Paul E.%Kwak%xref no email%0, Joseph R.%Connors%xref no email%1, Peter A.%Benedict%xref no email%1, Micah R.%Timen%xref no email%1, Binhuan%Wang%xref no email%1, Yan%Zhang%xref no email%2, Stephanie%Youlios%xref no email%1, Kimberly%Sureau%xref no email%2, Michael J.%Persky%xref no email%1, Samaan%Rafeq%xref no email%2, Luis%Angel%xref no email%1, Milan R.%Amin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                          Jakub%Fronczek%NULL%1,                          Peter Vernon%van Heerden%NULL%1,                          Hans%Flaatten%NULL%1,                          Bertrand%Guidet%NULL%1,                          Dylan W.%De Lange%NULL%1,                          Jesper%Fjølner%NULL%1,                          Susannah%Leaver%NULL%1,                          Michael%Beil%NULL%1,                          Sigal%Sviri%NULL%1,                          Raphael Romano%Bruno%NULL%1,                          Bernhard%Wernly%NULL%1,                          Antonio%Artigas%NULL%1,                          Bernardo Bollen%Pinto%NULL%1,                          Joerg C.%Schefold%NULL%1,                          Dorota%Studzińska%NULL%1,                          Michael%Joannidis%NULL%1,                          Sandra%Oeyen%NULL%1,                          Brian%Marsh%NULL%1,                          Finn H.%Andersen%NULL%1,                          Rui%Moreno%NULL%1,                          Maurizio%Cecconi%NULL%1,                          Christian%Jung%NULL%1,                          Wojciech%Szczeklik%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                          Marc%Tobed%NULL%1,                          José Miguel%Villacampa%NULL%1,                          Adriana%Agüero%NULL%1,                          Clara%García‐Bastida%NULL%1,                          José Ignacio%Tato%NULL%1,                          Laura%Rodrigáñez%NULL%1,                          Victoria Duque%Holguera%NULL%1,                          Estefanía%Hernández‐García%NULL%1,                          Daniel%Poletti%NULL%1,                          Gabriela%Simonetti%NULL%1,                          Vanessa%Villarraga%NULL%1,                          Carla%Meler‐Claramonte%NULL%1,                          Álvaro%Sánchez Barrueco%NULL%1,                          Carlos%Chiesa‐Estomba%NULL%1,                          Maria%Casasayas%NULL%1,                          Pablo%Parente‐Arias%NULL%1,                          Nieves%Mata‐Castro%NULL%1,                          Jordi%Rello%NULL%1,                          Pedro%Castro%NULL%1,                          Daniel%Prieto‐Alhambra%NULL%1,                          Isabel%Vilaseca%NULL%1,                          Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                          P.%Stritoni%NULL%1,                          I.%Battel%NULL%1,                          B.%Zennaro%NULL%1,                          F.%Lazzari%NULL%1,                          M.%Bellin%NULL%1,                          L.%Michieletto%NULL%1,                          G.%Spinato%NULL%1,                          C.%Busatto%NULL%1,                          D.%Politi%NULL%1,                          R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luis F.%Angel%xref no email%0, Nancy E.%Amoroso%xref no email%1, Samaan%Rafeq%xref no email%0, Brian%Mitzman%xref no email%1, Ronald%Goldenberg%xref no email%1, Saketh Palasamudram%Shekar%xref no email%1, Andrea B.%Troxel%xref no email%1, Yan%Zhang%xref no email%0, Stephanie H%Chang%xref no email%1, Paul%Kwak%xref no email%1, Milan R.%Amin%xref no email%0, Kimberly%Sureau%xref no email%0, Heidi B.%Nafday%xref no email%1, Sarun%Thomas%xref no email%1, Zachary%Kon%xref no email%1, Philip M.%Sommer%xref no email%1, Leopoldo N.%Segal%xref no email%1, William H.%Moore%xref no email%1, Robert%Cerfolio%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                          Francesco%Missale%NULL%1,                          Irene%Schiavetti%NULL%1,                          Marta%Filauro%NULL%1,                          Francesca%Iannuzzi%NULL%1,                          Alessandro%Ascoli%NULL%1,                          Alberto%Bertazzoli%NULL%1,                          Federico%Pascucci%NULL%1,                          Salvatore%Grasso%NULL%1,                          Francesco%Murgolo%NULL%1,                          Simone%Binda%NULL%1,                          Davide%Maraggia%NULL%1,                          Giorgia%Montrucchio%NULL%1,                          Gabriele%Sales%NULL%1,                          Giuseppe%Pascarella%NULL%1,                          Felice Eugenio%Agrò%NULL%1,                          Gaia%Faccio%NULL%1,                          Sandra%Ferraris%NULL%1,                          Savino%Spadaro%NULL%1,                          Giulia%Falò%NULL%1,                          Nadia%Mereto%NULL%1,                          Alessandro%Uva%NULL%1,                          Jessica Giuseppina%Maugeri%NULL%1,                          Bellissima%Agrippino%NULL%1,                          Maria%Vargas%NULL%1,                          Giuseppe%Servillo%NULL%1,                          Chiara%Robba%NULL%1,                          Lorenzo%Ball%NULL%1,                          Francesco%Mora%NULL%1,                          Alessio%Signori%NULL%1,                          Antoni%Torres%NULL%1,                          Daniele Roberto%Giacobbe%NULL%1,                          Antonio%Vena%NULL%1,                          Matteo%Bassetti%NULL%1,                          Giorgio%Peretti%NULL%1,                          Patricia R. M.%Rocco%NULL%1,                          Paolo%Pelosi%NULL%1,                          Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                          Paul%Nankivell%NULL%1,                          Neil%Sharma%NULL%1,                          Mansoor N.%Bangash%NULL%1,                          Camilla%Dawson%NULL%1,                          Matthew%Idle%NULL%1,                          Peter%Isherwood%NULL%1,                          Christopher%Jennings%NULL%1,                          Damian%Keene%NULL%1,                          Mav%Manji%NULL%1,                          Tim%Martin%NULL%1,                          Rob%Moss%NULL%1,                          Nick%Murphy%NULL%1,                          Dhruv%Parekh%NULL%1,                          Sat%Parmar%NULL%1,                          Jaimin%Patel%NULL%1,                          Paul%Pracy%NULL%1,                          Prav%Praveen%NULL%1,                          Carla%Richardson%NULL%1,                          Alex%Richter%NULL%1,                          Rajneesh%Sachdeva%NULL%1,                          Adrian%Shields%NULL%1,                          Somiah%Siddiq%NULL%1,                          Simon%Smart%NULL%1,                          Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                          Yoshihisa%Miyamoto%NULL%1,                          Matsuo%So%NULL%1,                          Masao%Iwagami%NULL%1,                          Mai%Takahashi%NULL%1,                          Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                          George Z.%Cheng%NULL%1,                          Keriann%Van Nostrand%NULL%1,                          Samira%Shojaee%NULL%1,                          Max T.%Wayne%NULL%1,                          Matthew%Abbott%NULL%1,                          Darrell%Nettlow%NULL%1,                          Alice%Parish%NULL%1,                          Cynthia L.%Green%NULL%1,                          Javeryah%Safi%NULL%1,                          Michael J.%Brenner%NULL%1,                          Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                          C%Tornari%NULL%1,                          N%Amin%NULL%1,                          D%Wyncoll%NULL%1,                          S%Tricklebank%NULL%1,                          A%Arora%NULL%1,                          I%Ahmad%NULL%1,                          R%Simo%NULL%1,                          P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                          Yongran%Wu%NULL%1,                          Fangfang%Zhu%NULL%1,                          Xiaobo%Yang%NULL%1,                          Chaolin%Huang%NULL%1,                          Guo%Hou%NULL%1,                          Wenhao%Xu%NULL%1,                          Ming%Hu%NULL%1,                          Lu%Zhang%NULL%1,                          Aiguo%Cheng%NULL%1,                          Zhengqin%Xu%NULL%1,                          Boyi%Liu%NULL%1,                          Song%Hu%NULL%1,                          Guochao%Zhu%NULL%1,                          Xuepeng%Fan%NULL%1,                          Xijing%Zhang%NULL%1,                          Yadong%Yang%NULL%1,                          Huibin%Feng%NULL%1,                          Lixia%Yu%NULL%1,                          Bing%Wang%NULL%1,                          Zhiqiang%Li%NULL%1,                          Yong%Peng%NULL%1,                          Zubo%Shen%NULL%1,                          Shouzhi%Fu%NULL%1,                          Yaqi%Ouyang%NULL%1,                          Jiqian%Xu%NULL%1,                          Xiaojing%Zou%NULL%1,                          Minghao%Fang%NULL%1,                          Zhui%Yu%NULL%1,                          Bo%Hu%NULL%1,                          You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                   Arancibia%C%coreGivesNoEmail%1,                   Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                   Bernal-Sprekelsen%M%coreGivesNoEmail%1,                   Castro%P%coreGivesNoEmail%1,                   de%Oss\u00f3 J%coreGivesNoEmail%1,                   Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                   Guilemany%JM%coreGivesNoEmail%1,                   Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                   Langdon%C%coreGivesNoEmail%1,                   Larrosa%F%coreGivesNoEmail%1,                   Lehrer-Coriat%E%coreGivesNoEmail%1,                   L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                   Prieto%Alhambra D%coreGivesNoEmail%1,                   Remacha%J%coreGivesNoEmail%1,                   Ruiz-Sevilla%L%coreGivesNoEmail%1,                   S\u00e1nchez%I%coreGivesNoEmail%1,                   Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                           Jakub%Fronczek%NULL%1,                           Peter Vernon%van Heerden%NULL%1,                           Hans%Flaatten%NULL%1,                           Bertrand%Guidet%NULL%1,                           Dylan W.%De Lange%NULL%1,                           Jesper%Fjølner%NULL%1,                           Susannah%Leaver%NULL%1,                           Michael%Beil%NULL%1,                           Sigal%Sviri%NULL%1,                           Raphael Romano%Bruno%NULL%1,                           Bernhard%Wernly%NULL%1,                           Antonio%Artigas%NULL%1,                           Bernardo Bollen%Pinto%NULL%1,                           Joerg C.%Schefold%NULL%1,                           Dorota%Studzińska%NULL%1,                           Michael%Joannidis%NULL%1,                           Sandra%Oeyen%NULL%1,                           Brian%Marsh%NULL%1,                           Finn H.%Andersen%NULL%1,                           Rui%Moreno%NULL%1,                           Maurizio%Cecconi%NULL%1,                           Christian%Jung%NULL%1,                           Wojciech%Szczeklik%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                           Marc%Tobed%NULL%1,                           José Miguel%Villacampa%NULL%1,                           Adriana%Agüero%NULL%1,                           Clara%García‐Bastida%NULL%1,                           José Ignacio%Tato%NULL%1,                           Laura%Rodrigáñez%NULL%1,                           Victoria Duque%Holguera%NULL%1,                           Estefanía%Hernández‐García%NULL%1,                           Daniel%Poletti%NULL%1,                           Gabriela%Simonetti%NULL%1,                           Vanessa%Villarraga%NULL%1,                           Carla%Meler‐Claramonte%NULL%1,                           Álvaro%Sánchez Barrueco%NULL%1,                           Carlos%Chiesa‐Estomba%NULL%1,                           Maria%Casasayas%NULL%1,                           Pablo%Parente‐Arias%NULL%1,                           Nieves%Mata‐Castro%NULL%1,                           Jordi%Rello%NULL%1,                           Pedro%Castro%NULL%1,                           Daniel%Prieto‐Alhambra%NULL%1,                           Isabel%Vilaseca%NULL%1,                           Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                           P.%Stritoni%NULL%1,                           I.%Battel%NULL%1,                           B.%Zennaro%NULL%1,                           F.%Lazzari%NULL%1,                           M.%Bellin%NULL%1,                           L.%Michieletto%NULL%1,                           G.%Spinato%NULL%1,                           C.%Busatto%NULL%1,                           D.%Politi%NULL%1,                           R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                           Francesco%Missale%NULL%1,                           Irene%Schiavetti%NULL%1,                           Marta%Filauro%NULL%1,                           Francesca%Iannuzzi%NULL%1,                           Alessandro%Ascoli%NULL%1,                           Alberto%Bertazzoli%NULL%1,                           Federico%Pascucci%NULL%1,                           Salvatore%Grasso%NULL%1,                           Francesco%Murgolo%NULL%1,                           Simone%Binda%NULL%1,                           Davide%Maraggia%NULL%1,                           Giorgia%Montrucchio%NULL%1,                           Gabriele%Sales%NULL%1,                           Giuseppe%Pascarella%NULL%1,                           Felice Eugenio%Agrò%NULL%1,                           Gaia%Faccio%NULL%1,                           Sandra%Ferraris%NULL%1,                           Savino%Spadaro%NULL%1,                           Giulia%Falò%NULL%1,                           Nadia%Mereto%NULL%1,                           Alessandro%Uva%NULL%1,                           Jessica Giuseppina%Maugeri%NULL%1,                           Bellissima%Agrippino%NULL%1,                           Maria%Vargas%NULL%1,                           Giuseppe%Servillo%NULL%1,                           Chiara%Robba%NULL%1,                           Lorenzo%Ball%NULL%1,                           Francesco%Mora%NULL%1,                           Alessio%Signori%NULL%1,                           Antoni%Torres%NULL%1,                           Daniele Roberto%Giacobbe%NULL%1,                           Antonio%Vena%NULL%1,                           Matteo%Bassetti%NULL%1,                           Giorgio%Peretti%NULL%1,                           Patricia R. M.%Rocco%NULL%1,                           Paolo%Pelosi%NULL%1,                           Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                           Paul%Nankivell%NULL%1,                           Neil%Sharma%NULL%1,                           Mansoor N.%Bangash%NULL%1,                           Camilla%Dawson%NULL%1,                           Matthew%Idle%NULL%1,                           Peter%Isherwood%NULL%1,                           Christopher%Jennings%NULL%1,                           Damian%Keene%NULL%1,                           Mav%Manji%NULL%1,                           Tim%Martin%NULL%1,                           Rob%Moss%NULL%1,                           Nick%Murphy%NULL%1,                           Dhruv%Parekh%NULL%1,                           Sat%Parmar%NULL%1,                           Jaimin%Patel%NULL%1,                           Paul%Pracy%NULL%1,                           Prav%Praveen%NULL%1,                           Carla%Richardson%NULL%1,                           Alex%Richter%NULL%1,                           Rajneesh%Sachdeva%NULL%1,                           Adrian%Shields%NULL%1,                           Somiah%Siddiq%NULL%1,                           Simon%Smart%NULL%1,                           Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                           Yoshihisa%Miyamoto%NULL%1,                           Matsuo%So%NULL%1,                           Masao%Iwagami%NULL%1,                           Mai%Takahashi%NULL%1,                           Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                           George Z.%Cheng%NULL%1,                           Keriann%Van Nostrand%NULL%1,                           Samira%Shojaee%NULL%1,                           Max T.%Wayne%NULL%1,                           Matthew%Abbott%NULL%1,                           Darrell%Nettlow%NULL%1,                           Alice%Parish%NULL%1,                           Cynthia L.%Green%NULL%1,                           Javeryah%Safi%NULL%1,                           Michael J.%Brenner%NULL%1,                           Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                           C%Tornari%NULL%1,                           N%Amin%NULL%1,                           D%Wyncoll%NULL%1,                           S%Tricklebank%NULL%1,                           A%Arora%NULL%1,                           I%Ahmad%NULL%1,                           R%Simo%NULL%1,                           P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                           Yongran%Wu%NULL%1,                           Fangfang%Zhu%NULL%1,                           Xiaobo%Yang%NULL%1,                           Chaolin%Huang%NULL%1,                           Guo%Hou%NULL%1,                           Wenhao%Xu%NULL%1,                           Ming%Hu%NULL%1,                           Lu%Zhang%NULL%1,                           Aiguo%Cheng%NULL%1,                           Zhengqin%Xu%NULL%1,                           Boyi%Liu%NULL%1,                           Song%Hu%NULL%1,                           Guochao%Zhu%NULL%1,                           Xuepeng%Fan%NULL%1,                           Xijing%Zhang%NULL%1,                           Yadong%Yang%NULL%1,                           Huibin%Feng%NULL%1,                           Lixia%Yu%NULL%1,                           Bing%Wang%NULL%1,                           Zhiqiang%Li%NULL%1,                           Yong%Peng%NULL%1,                           Zubo%Shen%NULL%1,                           Shouzhi%Fu%NULL%1,                           Yaqi%Ouyang%NULL%1,                           Jiqian%Xu%NULL%1,                           Xiaojing%Zou%NULL%1,                           Minghao%Fang%NULL%1,                           Zhui%Yu%NULL%1,                           Bo%Hu%NULL%1,                           You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                    Arancibia%C%coreGivesNoEmail%1,                    Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                    Bernal-Sprekelsen%M%coreGivesNoEmail%1,                    Castro%P%coreGivesNoEmail%1,                    de%Oss\u00f3 J%coreGivesNoEmail%1,                    Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                    Guilemany%JM%coreGivesNoEmail%1,                    Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                    Langdon%C%coreGivesNoEmail%1,                    Larrosa%F%coreGivesNoEmail%1,                    Lehrer-Coriat%E%coreGivesNoEmail%1,                    L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                    Prieto%Alhambra D%coreGivesNoEmail%1,                    Remacha%J%coreGivesNoEmail%1,                    Ruiz-Sevilla%L%coreGivesNoEmail%1,                    S\u00e1nchez%I%coreGivesNoEmail%1,                    Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                            Jakub%Fronczek%NULL%1,                            Peter Vernon%van Heerden%NULL%1,                            Hans%Flaatten%NULL%1,                            Bertrand%Guidet%NULL%1,                            Dylan W.%De Lange%NULL%1,                            Jesper%Fjølner%NULL%1,                            Susannah%Leaver%NULL%1,                            Michael%Beil%NULL%1,                            Sigal%Sviri%NULL%1,                            Raphael Romano%Bruno%NULL%1,                            Bernhard%Wernly%NULL%1,                            Antonio%Artigas%NULL%1,                            Bernardo Bollen%Pinto%NULL%1,                            Joerg C.%Schefold%NULL%1,                            Dorota%Studzińska%NULL%1,                            Michael%Joannidis%NULL%1,                            Sandra%Oeyen%NULL%1,                            Brian%Marsh%NULL%1,                            Finn H.%Andersen%NULL%1,                            Rui%Moreno%NULL%1,                            Maurizio%Cecconi%NULL%1,                            Christian%Jung%NULL%1,                            Wojciech%Szczeklik%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                            Marc%Tobed%NULL%1,                            José Miguel%Villacampa%NULL%1,                            Adriana%Agüero%NULL%1,                            Clara%García‐Bastida%NULL%1,                            José Ignacio%Tato%NULL%1,                            Laura%Rodrigáñez%NULL%1,                            Victoria Duque%Holguera%NULL%1,                            Estefanía%Hernández‐García%NULL%1,                            Daniel%Poletti%NULL%1,                            Gabriela%Simonetti%NULL%1,                            Vanessa%Villarraga%NULL%1,                            Carla%Meler‐Claramonte%NULL%1,                            Álvaro%Sánchez Barrueco%NULL%1,                            Carlos%Chiesa‐Estomba%NULL%1,                            Maria%Casasayas%NULL%1,                            Pablo%Parente‐Arias%NULL%1,                            Nieves%Mata‐Castro%NULL%1,                            Jordi%Rello%NULL%1,                            Pedro%Castro%NULL%1,                            Daniel%Prieto‐Alhambra%NULL%1,                            Isabel%Vilaseca%NULL%1,                            Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                            P.%Stritoni%NULL%1,                            I.%Battel%NULL%1,                            B.%Zennaro%NULL%1,                            F.%Lazzari%NULL%1,                            M.%Bellin%NULL%1,                            L.%Michieletto%NULL%1,                            G.%Spinato%NULL%1,                            C.%Busatto%NULL%1,                            D.%Politi%NULL%1,                            R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                            Francesco%Missale%NULL%1,                            Irene%Schiavetti%NULL%1,                            Marta%Filauro%NULL%1,                            Francesca%Iannuzzi%NULL%1,                            Alessandro%Ascoli%NULL%1,                            Alberto%Bertazzoli%NULL%1,                            Federico%Pascucci%NULL%1,                            Salvatore%Grasso%NULL%1,                            Francesco%Murgolo%NULL%1,                            Simone%Binda%NULL%1,                            Davide%Maraggia%NULL%1,                            Giorgia%Montrucchio%NULL%1,                            Gabriele%Sales%NULL%1,                            Giuseppe%Pascarella%NULL%1,                            Felice Eugenio%Agrò%NULL%1,                            Gaia%Faccio%NULL%1,                            Sandra%Ferraris%NULL%1,                            Savino%Spadaro%NULL%1,                            Giulia%Falò%NULL%1,                            Nadia%Mereto%NULL%1,                            Alessandro%Uva%NULL%1,                            Jessica Giuseppina%Maugeri%NULL%1,                            Bellissima%Agrippino%NULL%1,                            Maria%Vargas%NULL%1,                            Giuseppe%Servillo%NULL%1,                            Chiara%Robba%NULL%1,                            Lorenzo%Ball%NULL%1,                            Francesco%Mora%NULL%1,                            Alessio%Signori%NULL%1,                            Antoni%Torres%NULL%1,                            Daniele Roberto%Giacobbe%NULL%1,                            Antonio%Vena%NULL%1,                            Matteo%Bassetti%NULL%1,                            Giorgio%Peretti%NULL%1,                            Patricia R. M.%Rocco%NULL%1,                            Paolo%Pelosi%NULL%1,                            Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                            Paul%Nankivell%NULL%1,                            Neil%Sharma%NULL%1,                            Mansoor N.%Bangash%NULL%1,                            Camilla%Dawson%NULL%1,                            Matthew%Idle%NULL%1,                            Peter%Isherwood%NULL%1,                            Christopher%Jennings%NULL%1,                            Damian%Keene%NULL%1,                            Mav%Manji%NULL%1,                            Tim%Martin%NULL%1,                            Rob%Moss%NULL%1,                            Nick%Murphy%NULL%1,                            Dhruv%Parekh%NULL%1,                            Sat%Parmar%NULL%1,                            Jaimin%Patel%NULL%1,                            Paul%Pracy%NULL%1,                            Prav%Praveen%NULL%1,                            Carla%Richardson%NULL%1,                            Alex%Richter%NULL%1,                            Rajneesh%Sachdeva%NULL%1,                            Adrian%Shields%NULL%1,                            Somiah%Siddiq%NULL%1,                            Simon%Smart%NULL%1,                            Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                            Yoshihisa%Miyamoto%NULL%1,                            Matsuo%So%NULL%1,                            Masao%Iwagami%NULL%1,                            Mai%Takahashi%NULL%1,                            Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                            George Z.%Cheng%NULL%1,                            Keriann%Van Nostrand%NULL%1,                            Samira%Shojaee%NULL%1,                            Max T.%Wayne%NULL%1,                            Matthew%Abbott%NULL%1,                            Darrell%Nettlow%NULL%1,                            Alice%Parish%NULL%1,                            Cynthia L.%Green%NULL%1,                            Javeryah%Safi%NULL%1,                            Michael J.%Brenner%NULL%1,                            Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                            C%Tornari%NULL%1,                            N%Amin%NULL%1,                            D%Wyncoll%NULL%1,                            S%Tricklebank%NULL%1,                            A%Arora%NULL%1,                            I%Ahmad%NULL%1,                            R%Simo%NULL%1,                            P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                            Yongran%Wu%NULL%1,                            Fangfang%Zhu%NULL%1,                            Xiaobo%Yang%NULL%1,                            Chaolin%Huang%NULL%1,                            Guo%Hou%NULL%1,                            Wenhao%Xu%NULL%1,                            Ming%Hu%NULL%1,                            Lu%Zhang%NULL%1,                            Aiguo%Cheng%NULL%1,                            Zhengqin%Xu%NULL%1,                            Boyi%Liu%NULL%1,                            Song%Hu%NULL%1,                            Guochao%Zhu%NULL%1,                            Xuepeng%Fan%NULL%1,                            Xijing%Zhang%NULL%1,                            Yadong%Yang%NULL%1,                            Huibin%Feng%NULL%1,                            Lixia%Yu%NULL%1,                            Bing%Wang%NULL%1,                            Zhiqiang%Li%NULL%1,                            Yong%Peng%NULL%1,                            Zubo%Shen%NULL%1,                            Shouzhi%Fu%NULL%1,                            Yaqi%Ouyang%NULL%1,                            Jiqian%Xu%NULL%1,                            Xiaojing%Zou%NULL%1,                            Minghao%Fang%NULL%1,                            Zhui%Yu%NULL%1,                            Bo%Hu%NULL%1,                            You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                     Arancibia%C%coreGivesNoEmail%1,                     Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                     Bernal-Sprekelsen%M%coreGivesNoEmail%1,                     Castro%P%coreGivesNoEmail%1,                     de%Oss\u00f3 J%coreGivesNoEmail%1,                     Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                     Guilemany%JM%coreGivesNoEmail%1,                     Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                     Langdon%C%coreGivesNoEmail%1,                     Larrosa%F%coreGivesNoEmail%1,                     Lehrer-Coriat%E%coreGivesNoEmail%1,                     L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                     Prieto%Alhambra D%coreGivesNoEmail%1,                     Remacha%J%coreGivesNoEmail%1,                     Ruiz-Sevilla%L%coreGivesNoEmail%1,                     S\u00e1nchez%I%coreGivesNoEmail%1,                     Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                             Jakub%Fronczek%NULL%1,                             Peter Vernon%van Heerden%NULL%1,                             Hans%Flaatten%NULL%1,                             Bertrand%Guidet%NULL%1,                             Dylan W.%De Lange%NULL%1,                             Jesper%Fjølner%NULL%1,                             Susannah%Leaver%NULL%1,                             Michael%Beil%NULL%1,                             Sigal%Sviri%NULL%1,                             Raphael Romano%Bruno%NULL%1,                             Bernhard%Wernly%NULL%1,                             Antonio%Artigas%NULL%1,                             Bernardo Bollen%Pinto%NULL%1,                             Joerg C.%Schefold%NULL%1,                             Dorota%Studzińska%NULL%1,                             Michael%Joannidis%NULL%1,                             Sandra%Oeyen%NULL%1,                             Brian%Marsh%NULL%1,                             Finn H.%Andersen%NULL%1,                             Rui%Moreno%NULL%1,                             Maurizio%Cecconi%NULL%1,                             Christian%Jung%NULL%1,                             Wojciech%Szczeklik%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                             Marc%Tobed%NULL%1,                             José Miguel%Villacampa%NULL%1,                             Adriana%Agüero%NULL%1,                             Clara%García‐Bastida%NULL%1,                             José Ignacio%Tato%NULL%1,                             Laura%Rodrigáñez%NULL%1,                             Victoria Duque%Holguera%NULL%1,                             Estefanía%Hernández‐García%NULL%1,                             Daniel%Poletti%NULL%1,                             Gabriela%Simonetti%NULL%1,                             Vanessa%Villarraga%NULL%1,                             Carla%Meler‐Claramonte%NULL%1,                             Álvaro%Sánchez Barrueco%NULL%1,                             Carlos%Chiesa‐Estomba%NULL%1,                             Maria%Casasayas%NULL%1,                             Pablo%Parente‐Arias%NULL%1,                             Nieves%Mata‐Castro%NULL%1,                             Jordi%Rello%NULL%1,                             Pedro%Castro%NULL%1,                             Daniel%Prieto‐Alhambra%NULL%1,                             Isabel%Vilaseca%NULL%1,                             Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                             P.%Stritoni%NULL%1,                             I.%Battel%NULL%1,                             B.%Zennaro%NULL%1,                             F.%Lazzari%NULL%1,                             M.%Bellin%NULL%1,                             L.%Michieletto%NULL%1,                             G.%Spinato%NULL%1,                             C.%Busatto%NULL%1,                             D.%Politi%NULL%1,                             R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                             Francesco%Missale%NULL%1,                             Irene%Schiavetti%NULL%1,                             Marta%Filauro%NULL%1,                             Francesca%Iannuzzi%NULL%1,                             Alessandro%Ascoli%NULL%1,                             Alberto%Bertazzoli%NULL%1,                             Federico%Pascucci%NULL%1,                             Salvatore%Grasso%NULL%1,                             Francesco%Murgolo%NULL%1,                             Simone%Binda%NULL%1,                             Davide%Maraggia%NULL%1,                             Giorgia%Montrucchio%NULL%1,                             Gabriele%Sales%NULL%1,                             Giuseppe%Pascarella%NULL%1,                             Felice Eugenio%Agrò%NULL%1,                             Gaia%Faccio%NULL%1,                             Sandra%Ferraris%NULL%1,                             Savino%Spadaro%NULL%1,                             Giulia%Falò%NULL%1,                             Nadia%Mereto%NULL%1,                             Alessandro%Uva%NULL%1,                             Jessica Giuseppina%Maugeri%NULL%1,                             Bellissima%Agrippino%NULL%1,                             Maria%Vargas%NULL%1,                             Giuseppe%Servillo%NULL%1,                             Chiara%Robba%NULL%1,                             Lorenzo%Ball%NULL%1,                             Francesco%Mora%NULL%1,                             Alessio%Signori%NULL%1,                             Antoni%Torres%NULL%1,                             Daniele Roberto%Giacobbe%NULL%1,                             Antonio%Vena%NULL%1,                             Matteo%Bassetti%NULL%1,                             Giorgio%Peretti%NULL%1,                             Patricia R. M.%Rocco%NULL%1,                             Paolo%Pelosi%NULL%1,                             Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                             Paul%Nankivell%NULL%1,                             Neil%Sharma%NULL%1,                             Mansoor N.%Bangash%NULL%1,                             Camilla%Dawson%NULL%1,                             Matthew%Idle%NULL%1,                             Peter%Isherwood%NULL%1,                             Christopher%Jennings%NULL%1,                             Damian%Keene%NULL%1,                             Mav%Manji%NULL%1,                             Tim%Martin%NULL%1,                             Rob%Moss%NULL%1,                             Nick%Murphy%NULL%1,                             Dhruv%Parekh%NULL%1,                             Sat%Parmar%NULL%1,                             Jaimin%Patel%NULL%1,                             Paul%Pracy%NULL%1,                             Prav%Praveen%NULL%1,                             Carla%Richardson%NULL%1,                             Alex%Richter%NULL%1,                             Rajneesh%Sachdeva%NULL%1,                             Adrian%Shields%NULL%1,                             Somiah%Siddiq%NULL%1,                             Simon%Smart%NULL%1,                             Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                             Yoshihisa%Miyamoto%NULL%1,                             Matsuo%So%NULL%1,                             Masao%Iwagami%NULL%1,                             Mai%Takahashi%NULL%1,                             Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                             George Z.%Cheng%NULL%1,                             Keriann%Van Nostrand%NULL%1,                             Samira%Shojaee%NULL%1,                             Max T.%Wayne%NULL%1,                             Matthew%Abbott%NULL%1,                             Darrell%Nettlow%NULL%1,                             Alice%Parish%NULL%1,                             Cynthia L.%Green%NULL%1,                             Javeryah%Safi%NULL%1,                             Michael J.%Brenner%NULL%1,                             Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                             C%Tornari%NULL%1,                             N%Amin%NULL%1,                             D%Wyncoll%NULL%1,                             S%Tricklebank%NULL%1,                             A%Arora%NULL%1,                             I%Ahmad%NULL%1,                             R%Simo%NULL%1,                             P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                             Yongran%Wu%NULL%1,                             Fangfang%Zhu%NULL%1,                             Xiaobo%Yang%NULL%1,                             Chaolin%Huang%NULL%1,                             Guo%Hou%NULL%1,                             Wenhao%Xu%NULL%1,                             Ming%Hu%NULL%1,                             Lu%Zhang%NULL%1,                             Aiguo%Cheng%NULL%1,                             Zhengqin%Xu%NULL%1,                             Boyi%Liu%NULL%1,                             Song%Hu%NULL%1,                             Guochao%Zhu%NULL%1,                             Xuepeng%Fan%NULL%1,                             Xijing%Zhang%NULL%1,                             Yadong%Yang%NULL%1,                             Huibin%Feng%NULL%1,                             Lixia%Yu%NULL%1,                             Bing%Wang%NULL%1,                             Zhiqiang%Li%NULL%1,                             Yong%Peng%NULL%1,                             Zubo%Shen%NULL%1,                             Shouzhi%Fu%NULL%1,                             Yaqi%Ouyang%NULL%1,                             Jiqian%Xu%NULL%1,                             Xiaojing%Zou%NULL%1,                             Minghao%Fang%NULL%1,                             Zhui%Yu%NULL%1,                             Bo%Hu%NULL%1,                             You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                      Arancibia%C%coreGivesNoEmail%1,                      Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                      Bernal-Sprekelsen%M%coreGivesNoEmail%1,                      Castro%P%coreGivesNoEmail%1,                      de%Oss\u00f3 J%coreGivesNoEmail%1,                      Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                      Guilemany%JM%coreGivesNoEmail%1,                      Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                      Langdon%C%coreGivesNoEmail%1,                      Larrosa%F%coreGivesNoEmail%1,                      Lehrer-Coriat%E%coreGivesNoEmail%1,                      L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                      Prieto%Alhambra D%coreGivesNoEmail%1,                      Remacha%J%coreGivesNoEmail%1,                      Ruiz-Sevilla%L%coreGivesNoEmail%1,                      S\u00e1nchez%I%coreGivesNoEmail%1,                      Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                              Jakub%Fronczek%NULL%1,                              Peter Vernon%van Heerden%NULL%1,                              Hans%Flaatten%NULL%1,                              Bertrand%Guidet%NULL%1,                              Dylan W.%De Lange%NULL%1,                              Jesper%Fjølner%NULL%1,                              Susannah%Leaver%NULL%1,                              Michael%Beil%NULL%1,                              Sigal%Sviri%NULL%1,                              Raphael Romano%Bruno%NULL%1,                              Bernhard%Wernly%NULL%1,                              Antonio%Artigas%NULL%1,                              Bernardo Bollen%Pinto%NULL%1,                              Joerg C.%Schefold%NULL%1,                              Dorota%Studzińska%NULL%1,                              Michael%Joannidis%NULL%1,                              Sandra%Oeyen%NULL%1,                              Brian%Marsh%NULL%1,                              Finn H.%Andersen%NULL%1,                              Rui%Moreno%NULL%1,                              Maurizio%Cecconi%NULL%1,                              Christian%Jung%NULL%1,                              Wojciech%Szczeklik%NULL%1,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                              Marc%Tobed%NULL%1,                              José Miguel%Villacampa%NULL%1,                              Adriana%Agüero%NULL%1,                              Clara%García‐Bastida%NULL%1,                              José Ignacio%Tato%NULL%1,                              Laura%Rodrigáñez%NULL%1,                              Victoria Duque%Holguera%NULL%1,                              Estefanía%Hernández‐García%NULL%1,                              Daniel%Poletti%NULL%1,                              Gabriela%Simonetti%NULL%1,                              Vanessa%Villarraga%NULL%1,                              Carla%Meler‐Claramonte%NULL%1,                              Álvaro%Sánchez Barrueco%NULL%1,                              Carlos%Chiesa‐Estomba%NULL%1,                              Maria%Casasayas%NULL%1,                              Pablo%Parente‐Arias%NULL%1,                              Nieves%Mata‐Castro%NULL%1,                              Jordi%Rello%NULL%1,                              Pedro%Castro%NULL%1,                              Daniel%Prieto‐Alhambra%NULL%1,                              Isabel%Vilaseca%NULL%1,                              Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                              P.%Stritoni%NULL%1,                              I.%Battel%NULL%1,                              B.%Zennaro%NULL%1,                              F.%Lazzari%NULL%1,                              M.%Bellin%NULL%1,                              L.%Michieletto%NULL%1,                              G.%Spinato%NULL%1,                              C.%Busatto%NULL%1,                              D.%Politi%NULL%1,                              R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                              Francesco%Missale%NULL%1,                              Irene%Schiavetti%NULL%1,                              Marta%Filauro%NULL%1,                              Francesca%Iannuzzi%NULL%1,                              Alessandro%Ascoli%NULL%1,                              Alberto%Bertazzoli%NULL%1,                              Federico%Pascucci%NULL%1,                              Salvatore%Grasso%NULL%1,                              Francesco%Murgolo%NULL%1,                              Simone%Binda%NULL%1,                              Davide%Maraggia%NULL%1,                              Giorgia%Montrucchio%NULL%1,                              Gabriele%Sales%NULL%1,                              Giuseppe%Pascarella%NULL%1,                              Felice Eugenio%Agrò%NULL%1,                              Gaia%Faccio%NULL%1,                              Sandra%Ferraris%NULL%1,                              Savino%Spadaro%NULL%1,                              Giulia%Falò%NULL%1,                              Nadia%Mereto%NULL%1,                              Alessandro%Uva%NULL%1,                              Jessica Giuseppina%Maugeri%NULL%1,                              Bellissima%Agrippino%NULL%1,                              Maria%Vargas%NULL%1,                              Giuseppe%Servillo%NULL%1,                              Chiara%Robba%NULL%1,                              Lorenzo%Ball%NULL%1,                              Francesco%Mora%NULL%1,                              Alessio%Signori%NULL%1,                              Antoni%Torres%NULL%1,                              Daniele Roberto%Giacobbe%NULL%1,                              Antonio%Vena%NULL%1,                              Matteo%Bassetti%NULL%1,                              Giorgio%Peretti%NULL%1,                              Patricia R. M.%Rocco%NULL%1,                              Paolo%Pelosi%NULL%1,                              Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                              Paul%Nankivell%NULL%1,                              Neil%Sharma%NULL%1,                              Mansoor N.%Bangash%NULL%1,                              Camilla%Dawson%NULL%1,                              Matthew%Idle%NULL%1,                              Peter%Isherwood%NULL%1,                              Christopher%Jennings%NULL%1,                              Damian%Keene%NULL%1,                              Mav%Manji%NULL%1,                              Tim%Martin%NULL%1,                              Rob%Moss%NULL%1,                              Nick%Murphy%NULL%1,                              Dhruv%Parekh%NULL%1,                              Sat%Parmar%NULL%1,                              Jaimin%Patel%NULL%1,                              Paul%Pracy%NULL%1,                              Prav%Praveen%NULL%1,                              Carla%Richardson%NULL%1,                              Alex%Richter%NULL%1,                              Rajneesh%Sachdeva%NULL%1,                              Adrian%Shields%NULL%1,                              Somiah%Siddiq%NULL%1,                              Simon%Smart%NULL%1,                              Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                              Yoshihisa%Miyamoto%NULL%1,                              Matsuo%So%NULL%1,                              Masao%Iwagami%NULL%1,                              Mai%Takahashi%NULL%1,                              Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                              George Z.%Cheng%NULL%1,                              Keriann%Van Nostrand%NULL%1,                              Samira%Shojaee%NULL%1,                              Max T.%Wayne%NULL%1,                              Matthew%Abbott%NULL%1,                              Darrell%Nettlow%NULL%1,                              Alice%Parish%NULL%1,                              Cynthia L.%Green%NULL%1,                              Javeryah%Safi%NULL%1,                              Michael J.%Brenner%NULL%1,                              Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                              C%Tornari%NULL%1,                              N%Amin%NULL%1,                              D%Wyncoll%NULL%1,                              S%Tricklebank%NULL%1,                              A%Arora%NULL%1,                              I%Ahmad%NULL%1,                              R%Simo%NULL%1,                              P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                              Yongran%Wu%NULL%1,                              Fangfang%Zhu%NULL%1,                              Xiaobo%Yang%NULL%1,                              Chaolin%Huang%NULL%1,                              Guo%Hou%NULL%1,                              Wenhao%Xu%NULL%1,                              Ming%Hu%NULL%1,                              Lu%Zhang%NULL%1,                              Aiguo%Cheng%NULL%1,                              Zhengqin%Xu%NULL%1,                              Boyi%Liu%NULL%1,                              Song%Hu%NULL%1,                              Guochao%Zhu%NULL%1,                              Xuepeng%Fan%NULL%1,                              Xijing%Zhang%NULL%1,                              Yadong%Yang%NULL%1,                              Huibin%Feng%NULL%1,                              Lixia%Yu%NULL%1,                              Bing%Wang%NULL%1,                              Zhiqiang%Li%NULL%1,                              Yong%Peng%NULL%1,                              Zubo%Shen%NULL%1,                              Shouzhi%Fu%NULL%1,                              Yaqi%Ouyang%NULL%1,                              Jiqian%Xu%NULL%1,                              Xiaojing%Zou%NULL%1,                              Minghao%Fang%NULL%1,                              Zhui%Yu%NULL%1,                              Bo%Hu%NULL%1,                              You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1801,6 +1966,9 @@
       <c r="I1" t="s">
         <v>188</v>
       </c>
+      <c r="J1" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1816,7 +1984,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1829,6 +1997,9 @@
       </c>
       <c r="I2" t="s">
         <v>385</v>
+      </c>
+      <c r="J2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3">
@@ -1845,7 +2016,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1857,7 +2028,10 @@
         <v>249</v>
       </c>
       <c r="I3" t="s">
-        <v>385</v>
+        <v>189</v>
+      </c>
+      <c r="J3" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="4">
@@ -1874,7 +2048,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1887,6 +2061,9 @@
       </c>
       <c r="I4" t="s">
         <v>388</v>
+      </c>
+      <c r="J4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5">
@@ -1903,7 +2080,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1916,6 +2093,9 @@
       </c>
       <c r="I5" t="s">
         <v>390</v>
+      </c>
+      <c r="J5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -1932,7 +2112,7 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1945,6 +2125,9 @@
       </c>
       <c r="I6" t="s">
         <v>392</v>
+      </c>
+      <c r="J6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -1961,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1973,7 +2156,10 @@
         <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>385</v>
+        <v>189</v>
+      </c>
+      <c r="J7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="8">
@@ -1990,7 +2176,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -2003,6 +2189,9 @@
       </c>
       <c r="I8" t="s">
         <v>390</v>
+      </c>
+      <c r="J8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -2019,7 +2208,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -2032,6 +2221,9 @@
       </c>
       <c r="I9" t="s">
         <v>388</v>
+      </c>
+      <c r="J9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10">
@@ -2048,7 +2240,7 @@
         <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -2061,6 +2253,9 @@
       </c>
       <c r="I10" t="s">
         <v>392</v>
+      </c>
+      <c r="J10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11">
@@ -2077,7 +2272,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -2090,6 +2285,9 @@
       </c>
       <c r="I11" t="s">
         <v>390</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12">
@@ -2106,7 +2304,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2119,6 +2317,9 @@
       </c>
       <c r="I12" t="s">
         <v>390</v>
+      </c>
+      <c r="J12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13">
@@ -2135,7 +2336,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>
@@ -2148,6 +2349,9 @@
       </c>
       <c r="I13" t="s">
         <v>390</v>
+      </c>
+      <c r="J13" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/7.xlsx
+++ b/Covid_19_Dataset_and_References/References/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="487">
   <si>
     <t>Doi</t>
   </si>
@@ -1639,6 +1639,66 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                              Yongran%Wu%NULL%1,                              Fangfang%Zhu%NULL%1,                              Xiaobo%Yang%NULL%1,                              Chaolin%Huang%NULL%1,                              Guo%Hou%NULL%1,                              Wenhao%Xu%NULL%1,                              Ming%Hu%NULL%1,                              Lu%Zhang%NULL%1,                              Aiguo%Cheng%NULL%1,                              Zhengqin%Xu%NULL%1,                              Boyi%Liu%NULL%1,                              Song%Hu%NULL%1,                              Guochao%Zhu%NULL%1,                              Xuepeng%Fan%NULL%1,                              Xijing%Zhang%NULL%1,                              Yadong%Yang%NULL%1,                              Huibin%Feng%NULL%1,                              Lixia%Yu%NULL%1,                              Bing%Wang%NULL%1,                              Zhiqiang%Li%NULL%1,                              Yong%Peng%NULL%1,                              Zubo%Shen%NULL%1,                              Shouzhi%Fu%NULL%1,                              Yaqi%Ouyang%NULL%1,                              Jiqian%Xu%NULL%1,                              Xiaojing%Zou%NULL%1,                              Minghao%Fang%NULL%1,                              Zhui%Yu%NULL%1,                              Bo%Hu%NULL%1,                              You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                       Arancibia%C%coreGivesNoEmail%1,                       Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                       Bernal-Sprekelsen%M%coreGivesNoEmail%1,                       Castro%P%coreGivesNoEmail%1,                       de%Oss\u00f3 J%coreGivesNoEmail%1,                       Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                       Guilemany%JM%coreGivesNoEmail%1,                       Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                       Langdon%C%coreGivesNoEmail%1,                       Larrosa%F%coreGivesNoEmail%1,                       Lehrer-Coriat%E%coreGivesNoEmail%1,                       L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                       Prieto%Alhambra D%coreGivesNoEmail%1,                       Remacha%J%coreGivesNoEmail%1,                       Ruiz-Sevilla%L%coreGivesNoEmail%1,                       S\u00e1nchez%I%coreGivesNoEmail%1,                       Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                               Jakub%Fronczek%NULL%1,                               Peter Vernon%van Heerden%NULL%1,                               Hans%Flaatten%NULL%1,                               Bertrand%Guidet%NULL%1,                               Dylan W.%De Lange%NULL%1,                               Jesper%Fjølner%NULL%1,                               Susannah%Leaver%NULL%1,                               Michael%Beil%NULL%1,                               Sigal%Sviri%NULL%1,                               Raphael Romano%Bruno%NULL%1,                               Bernhard%Wernly%NULL%1,                               Antonio%Artigas%NULL%1,                               Bernardo Bollen%Pinto%NULL%1,                               Joerg C.%Schefold%NULL%1,                               Dorota%Studzińska%NULL%1,                               Michael%Joannidis%NULL%1,                               Sandra%Oeyen%NULL%1,                               Brian%Marsh%NULL%1,                               Finn H.%Andersen%NULL%1,                               Rui%Moreno%NULL%1,                               Maurizio%Cecconi%NULL%1,                               Christian%Jung%NULL%1,                               Wojciech%Szczeklik%NULL%1,                               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                               Marc%Tobed%NULL%1,                               José Miguel%Villacampa%NULL%1,                               Adriana%Agüero%NULL%1,                               Clara%García‐Bastida%NULL%1,                               José Ignacio%Tato%NULL%1,                               Laura%Rodrigáñez%NULL%1,                               Victoria Duque%Holguera%NULL%1,                               Estefanía%Hernández‐García%NULL%1,                               Daniel%Poletti%NULL%1,                               Gabriela%Simonetti%NULL%1,                               Vanessa%Villarraga%NULL%1,                               Carla%Meler‐Claramonte%NULL%1,                               Álvaro%Sánchez Barrueco%NULL%1,                               Carlos%Chiesa‐Estomba%NULL%1,                               Maria%Casasayas%NULL%1,                               Pablo%Parente‐Arias%NULL%1,                               Nieves%Mata‐Castro%NULL%1,                               Jordi%Rello%NULL%1,                               Pedro%Castro%NULL%1,                               Daniel%Prieto‐Alhambra%NULL%1,                               Isabel%Vilaseca%NULL%1,                               Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                               P.%Stritoni%NULL%1,                               I.%Battel%NULL%1,                               B.%Zennaro%NULL%1,                               F.%Lazzari%NULL%1,                               M.%Bellin%NULL%1,                               L.%Michieletto%NULL%1,                               G.%Spinato%NULL%1,                               C.%Busatto%NULL%1,                               D.%Politi%NULL%1,                               R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                               Francesco%Missale%NULL%1,                               Irene%Schiavetti%NULL%1,                               Marta%Filauro%NULL%1,                               Francesca%Iannuzzi%NULL%1,                               Alessandro%Ascoli%NULL%1,                               Alberto%Bertazzoli%NULL%1,                               Federico%Pascucci%NULL%1,                               Salvatore%Grasso%NULL%1,                               Francesco%Murgolo%NULL%1,                               Simone%Binda%NULL%1,                               Davide%Maraggia%NULL%1,                               Giorgia%Montrucchio%NULL%1,                               Gabriele%Sales%NULL%1,                               Giuseppe%Pascarella%NULL%1,                               Felice Eugenio%Agrò%NULL%1,                               Gaia%Faccio%NULL%1,                               Sandra%Ferraris%NULL%1,                               Savino%Spadaro%NULL%1,                               Giulia%Falò%NULL%1,                               Nadia%Mereto%NULL%1,                               Alessandro%Uva%NULL%1,                               Jessica Giuseppina%Maugeri%NULL%1,                               Bellissima%Agrippino%NULL%1,                               Maria%Vargas%NULL%1,                               Giuseppe%Servillo%NULL%1,                               Chiara%Robba%NULL%1,                               Lorenzo%Ball%NULL%1,                               Francesco%Mora%NULL%1,                               Alessio%Signori%NULL%1,                               Antoni%Torres%NULL%1,                               Daniele Roberto%Giacobbe%NULL%1,                               Antonio%Vena%NULL%1,                               Matteo%Bassetti%NULL%1,                               Giorgio%Peretti%NULL%1,                               Patricia R. M.%Rocco%NULL%1,                               Paolo%Pelosi%NULL%1,                               Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                               Paul%Nankivell%NULL%1,                               Neil%Sharma%NULL%1,                               Mansoor N.%Bangash%NULL%1,                               Camilla%Dawson%NULL%1,                               Matthew%Idle%NULL%1,                               Peter%Isherwood%NULL%1,                               Christopher%Jennings%NULL%1,                               Damian%Keene%NULL%1,                               Mav%Manji%NULL%1,                               Tim%Martin%NULL%1,                               Rob%Moss%NULL%1,                               Nick%Murphy%NULL%1,                               Dhruv%Parekh%NULL%1,                               Sat%Parmar%NULL%1,                               Jaimin%Patel%NULL%1,                               Paul%Pracy%NULL%1,                               Prav%Praveen%NULL%1,                               Carla%Richardson%NULL%1,                               Alex%Richter%NULL%1,                               Rajneesh%Sachdeva%NULL%1,                               Adrian%Shields%NULL%1,                               Somiah%Siddiq%NULL%1,                               Simon%Smart%NULL%1,                               Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                               Yoshihisa%Miyamoto%NULL%1,                               Matsuo%So%NULL%1,                               Masao%Iwagami%NULL%1,                               Mai%Takahashi%NULL%1,                               Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                               George Z.%Cheng%NULL%1,                               Keriann%Van Nostrand%NULL%1,                               Samira%Shojaee%NULL%1,                               Max T.%Wayne%NULL%1,                               Matthew%Abbott%NULL%1,                               Darrell%Nettlow%NULL%1,                               Alice%Parish%NULL%1,                               Cynthia L.%Green%NULL%1,                               Javeryah%Safi%NULL%1,                               Michael J.%Brenner%NULL%1,                               Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                               C%Tornari%NULL%1,                               N%Amin%NULL%1,                               D%Wyncoll%NULL%1,                               S%Tricklebank%NULL%1,                               A%Arora%NULL%1,                               I%Ahmad%NULL%1,                               R%Simo%NULL%1,                               P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                               Yongran%Wu%NULL%1,                               Fangfang%Zhu%NULL%1,                               Xiaobo%Yang%NULL%1,                               Chaolin%Huang%NULL%1,                               Guo%Hou%NULL%1,                               Wenhao%Xu%NULL%1,                               Ming%Hu%NULL%1,                               Lu%Zhang%NULL%1,                               Aiguo%Cheng%NULL%1,                               Zhengqin%Xu%NULL%1,                               Boyi%Liu%NULL%1,                               Song%Hu%NULL%1,                               Guochao%Zhu%NULL%1,                               Xuepeng%Fan%NULL%1,                               Xijing%Zhang%NULL%1,                               Yadong%Yang%NULL%1,                               Huibin%Feng%NULL%1,                               Lixia%Yu%NULL%1,                               Bing%Wang%NULL%1,                               Zhiqiang%Li%NULL%1,                               Yong%Peng%NULL%1,                               Zubo%Shen%NULL%1,                               Shouzhi%Fu%NULL%1,                               Yaqi%Ouyang%NULL%1,                               Jiqian%Xu%NULL%1,                               Xiaojing%Zou%NULL%1,                               Minghao%Fang%NULL%1,                               Zhui%Yu%NULL%1,                               Bo%Hu%NULL%1,                               You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alobid%I%coreGivesNoEmail%1,                        Arancibia%C%coreGivesNoEmail%1,                        Avil\u00e9s-Jurado%FX%coreGivesNoEmail%1,                        Bernal-Sprekelsen%M%coreGivesNoEmail%1,                        Castro%P%coreGivesNoEmail%1,                        de%Oss\u00f3 J%coreGivesNoEmail%1,                        Gonz\u00e1lez-S\u00e1nchez%N%coreGivesNoEmail%1,                        Guilemany%JM%coreGivesNoEmail%1,                        Jes\u00fas%Rojas-Lechuga M%coreGivesNoEmail%1,                        Langdon%C%coreGivesNoEmail%1,                        Larrosa%F%coreGivesNoEmail%1,                        Lehrer-Coriat%E%coreGivesNoEmail%1,                        L\u00f3pez-Chac\u00f3n%M%coreGivesNoEmail%1,                        Prieto%Alhambra D%coreGivesNoEmail%1,                        Remacha%J%coreGivesNoEmail%1,                        Ruiz-Sevilla%L%coreGivesNoEmail%1,                        S\u00e1nchez%I%coreGivesNoEmail%1,                        Vilaseca%I%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                                Jakub%Fronczek%NULL%1,                                Peter Vernon%van Heerden%NULL%1,                                Hans%Flaatten%NULL%1,                                Bertrand%Guidet%NULL%1,                                Dylan W.%De Lange%NULL%1,                                Jesper%Fjølner%NULL%1,                                Susannah%Leaver%NULL%1,                                Michael%Beil%NULL%1,                                Sigal%Sviri%NULL%1,                                Raphael Romano%Bruno%NULL%1,                                Bernhard%Wernly%NULL%1,                                Antonio%Artigas%NULL%1,                                Bernardo Bollen%Pinto%NULL%1,                                Joerg C.%Schefold%NULL%1,                                Dorota%Studzińska%NULL%1,                                Michael%Joannidis%NULL%1,                                Sandra%Oeyen%NULL%1,                                Brian%Marsh%NULL%1,                                Finn H.%Andersen%NULL%1,                                Rui%Moreno%NULL%1,                                Maurizio%Cecconi%NULL%1,                                Christian%Jung%NULL%1,                                Wojciech%Szczeklik%NULL%1,                                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                                Marc%Tobed%NULL%1,                                José Miguel%Villacampa%NULL%1,                                Adriana%Agüero%NULL%1,                                Clara%García‐Bastida%NULL%1,                                José Ignacio%Tato%NULL%1,                                Laura%Rodrigáñez%NULL%1,                                Victoria Duque%Holguera%NULL%1,                                Estefanía%Hernández‐García%NULL%1,                                Daniel%Poletti%NULL%1,                                Gabriela%Simonetti%NULL%1,                                Vanessa%Villarraga%NULL%1,                                Carla%Meler‐Claramonte%NULL%1,                                Álvaro%Sánchez Barrueco%NULL%1,                                Carlos%Chiesa‐Estomba%NULL%1,                                Maria%Casasayas%NULL%1,                                Pablo%Parente‐Arias%NULL%1,                                Nieves%Mata‐Castro%NULL%1,                                Jordi%Rello%NULL%1,                                Pedro%Castro%NULL%1,                                Daniel%Prieto‐Alhambra%NULL%1,                                Isabel%Vilaseca%NULL%1,                                Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                                P.%Stritoni%NULL%1,                                I.%Battel%NULL%1,                                B.%Zennaro%NULL%1,                                F.%Lazzari%NULL%1,                                M.%Bellin%NULL%1,                                L.%Michieletto%NULL%1,                                G.%Spinato%NULL%1,                                C.%Busatto%NULL%1,                                D.%Politi%NULL%1,                                R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                                Francesco%Missale%NULL%1,                                Irene%Schiavetti%NULL%1,                                Marta%Filauro%NULL%1,                                Francesca%Iannuzzi%NULL%1,                                Alessandro%Ascoli%NULL%1,                                Alberto%Bertazzoli%NULL%1,                                Federico%Pascucci%NULL%1,                                Salvatore%Grasso%NULL%1,                                Francesco%Murgolo%NULL%1,                                Simone%Binda%NULL%1,                                Davide%Maraggia%NULL%1,                                Giorgia%Montrucchio%NULL%1,                                Gabriele%Sales%NULL%1,                                Giuseppe%Pascarella%NULL%1,                                Felice Eugenio%Agrò%NULL%1,                                Gaia%Faccio%NULL%1,                                Sandra%Ferraris%NULL%1,                                Savino%Spadaro%NULL%1,                                Giulia%Falò%NULL%1,                                Nadia%Mereto%NULL%1,                                Alessandro%Uva%NULL%1,                                Jessica Giuseppina%Maugeri%NULL%1,                                Bellissima%Agrippino%NULL%1,                                Maria%Vargas%NULL%1,                                Giuseppe%Servillo%NULL%1,                                Chiara%Robba%NULL%1,                                Lorenzo%Ball%NULL%1,                                Francesco%Mora%NULL%1,                                Alessio%Signori%NULL%1,                                Antoni%Torres%NULL%1,                                Daniele Roberto%Giacobbe%NULL%1,                                Antonio%Vena%NULL%1,                                Matteo%Bassetti%NULL%1,                                Giorgio%Peretti%NULL%1,                                Patricia R. M.%Rocco%NULL%1,                                Paolo%Pelosi%NULL%1,                                Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                                Paul%Nankivell%NULL%1,                                Neil%Sharma%NULL%1,                                Mansoor N.%Bangash%NULL%1,                                Camilla%Dawson%NULL%1,                                Matthew%Idle%NULL%1,                                Peter%Isherwood%NULL%1,                                Christopher%Jennings%NULL%1,                                Damian%Keene%NULL%1,                                Mav%Manji%NULL%1,                                Tim%Martin%NULL%1,                                Rob%Moss%NULL%1,                                Nick%Murphy%NULL%1,                                Dhruv%Parekh%NULL%1,                                Sat%Parmar%NULL%1,                                Jaimin%Patel%NULL%1,                                Paul%Pracy%NULL%1,                                Prav%Praveen%NULL%1,                                Carla%Richardson%NULL%1,                                Alex%Richter%NULL%1,                                Rajneesh%Sachdeva%NULL%1,                                Adrian%Shields%NULL%1,                                Somiah%Siddiq%NULL%1,                                Simon%Smart%NULL%1,                                Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                                Yoshihisa%Miyamoto%NULL%1,                                Matsuo%So%NULL%1,                                Masao%Iwagami%NULL%1,                                Mai%Takahashi%NULL%1,                                Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                                George Z.%Cheng%NULL%1,                                Keriann%Van Nostrand%NULL%1,                                Samira%Shojaee%NULL%1,                                Max T.%Wayne%NULL%1,                                Matthew%Abbott%NULL%1,                                Darrell%Nettlow%NULL%1,                                Alice%Parish%NULL%1,                                Cynthia L.%Green%NULL%1,                                Javeryah%Safi%NULL%1,                                Michael J.%Brenner%NULL%1,                                Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                                C%Tornari%NULL%1,                                N%Amin%NULL%1,                                D%Wyncoll%NULL%1,                                S%Tricklebank%NULL%1,                                A%Arora%NULL%1,                                I%Ahmad%NULL%1,                                R%Simo%NULL%1,                                P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                                Yongran%Wu%NULL%1,                                Fangfang%Zhu%NULL%1,                                Xiaobo%Yang%NULL%1,                                Chaolin%Huang%NULL%1,                                Guo%Hou%NULL%1,                                Wenhao%Xu%NULL%1,                                Ming%Hu%NULL%1,                                Lu%Zhang%NULL%1,                                Aiguo%Cheng%NULL%1,                                Zhengqin%Xu%NULL%1,                                Boyi%Liu%NULL%1,                                Song%Hu%NULL%1,                                Guochao%Zhu%NULL%1,                                Xuepeng%Fan%NULL%1,                                Xijing%Zhang%NULL%1,                                Yadong%Yang%NULL%1,                                Huibin%Feng%NULL%1,                                Lixia%Yu%NULL%1,                                Bing%Wang%NULL%1,                                Zhiqiang%Li%NULL%1,                                Yong%Peng%NULL%1,                                Zubo%Shen%NULL%1,                                Shouzhi%Fu%NULL%1,                                Yaqi%Ouyang%NULL%1,                                Jiqian%Xu%NULL%1,                                Xiaojing%Zou%NULL%1,                                Minghao%Fang%NULL%1,                                Zhui%Yu%NULL%1,                                Bo%Hu%NULL%1,                                You%Shang%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +2044,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2016,7 +2076,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2048,7 +2108,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2080,7 +2140,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -2112,7 +2172,7 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -2144,7 +2204,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2176,7 +2236,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -2208,7 +2268,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -2240,7 +2300,7 @@
         <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -2272,7 +2332,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -2304,7 +2364,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2336,7 +2396,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>
